--- a/Tables/aq_hmf_metrics_outlet_50_90.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_50_90.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>aq</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>annual_hmf</t>
@@ -527,455 +532,495 @@
       <c r="T1" s="1" t="inlineStr">
         <is>
           <t>dec_hmf</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.190803135131879</v>
+        <v>1.958710644647035</v>
       </c>
       <c r="C2" t="n">
-        <v>38.54334409905078</v>
+        <v>140.4615384615385</v>
       </c>
       <c r="D2" t="n">
-        <v>5.748881474084371</v>
+        <v>95.49358974358974</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0282475237498512</v>
+        <v>1.459116551150861</v>
       </c>
       <c r="F2" t="n">
-        <v>95.11111111111111</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
-        <v>6.908696083270551</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="H2" t="n">
-        <v>223.5024659214477</v>
+        <v>227.3157894736842</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003501814452786638</v>
+        <v>0.3784075582297352</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0156510205732149</v>
+        <v>0.4062189183739204</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05506838857007835</v>
+        <v>0.3903492934709327</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04063105935809666</v>
+        <v>0.2904700312381368</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05152183623941411</v>
+        <v>0.3204263682406892</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06583674240591111</v>
+        <v>0.4388381781031584</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03660367498806241</v>
+        <v>0.5497350399163584</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01904647433824631</v>
+        <v>0.5649966616702066</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0203829866923862</v>
+        <v>0.557574566988096</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03307743368705296</v>
+        <v>0.3844809781419805</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01559136598488277</v>
+        <v>0.60124594048848</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01298674897415396</v>
+        <v>0.4429290155215085</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.343995680377283</v>
+        <v>0.7652841551539147</v>
       </c>
       <c r="C3" t="n">
-        <v>36.74822695035461</v>
+        <v>79.91818514431029</v>
       </c>
       <c r="D3" t="n">
-        <v>5.114174641737368</v>
+        <v>48.16508116109186</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04152627843036281</v>
+        <v>0.544557174075781</v>
       </c>
       <c r="F3" t="n">
-        <v>98</v>
+        <v>55.63842857142857</v>
       </c>
       <c r="G3" t="n">
-        <v>9.053617021276596</v>
+        <v>3.062833273660341</v>
       </c>
       <c r="H3" t="n">
-        <v>154.3805673758865</v>
+        <v>198.2986087700938</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06878747401586384</v>
+        <v>0.1710151734055561</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06759006816811843</v>
+        <v>0.1877180891248596</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07393184047893851</v>
+        <v>0.1734696906569251</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05774098664710769</v>
+        <v>0.138063979532093</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07984266764256155</v>
+        <v>0.1505314578945185</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03093539348715192</v>
+        <v>0.2001318175760373</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03865131115575939</v>
+        <v>0.2275038759051833</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02547867480786985</v>
+        <v>0.2058150705139814</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03638458803806739</v>
+        <v>0.2134781826258301</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03502527907872515</v>
+        <v>0.1813077605390854</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05063967379375192</v>
+        <v>0.2107567823683997</v>
       </c>
       <c r="T3" t="n">
-        <v>0.07011540834154152</v>
+        <v>0.1686463255337614</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.335567926574961</v>
+        <v>0.04215240958298392</v>
       </c>
       <c r="C4" t="n">
-        <v>72.92045454545455</v>
+        <v>36.79591836734694</v>
       </c>
       <c r="D4" t="n">
-        <v>35.2979797979798</v>
+        <v>6.434905570619856</v>
       </c>
       <c r="E4" t="n">
-        <v>1.118051134882569</v>
+        <v>0.006894834825010375</v>
       </c>
       <c r="F4" t="n">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>2.408333333333333</v>
+        <v>1.631578947368421</v>
       </c>
       <c r="H4" t="n">
-        <v>157.0931818181818</v>
+        <v>164.6153846153846</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6094572596655481</v>
+        <v>0.0001712602882368</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6862149266914079</v>
+        <v>0.0117231744924</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6977362895404307</v>
+        <v>0.01578378311066727</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7813891799393207</v>
+        <v>0.001855972209377664</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4616050273240689</v>
+        <v>8.073699302592e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>0.326903269236768</v>
+        <v>2.44657554624e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.077451591578112</v>
+        <v>0.002127645108717514</v>
       </c>
       <c r="P4" t="n">
-        <v>0.001345616550432</v>
+        <v>0.000244657554624</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.026056029567456</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.103000830496704</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.270897077357424</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4805187291686725</v>
+        <v>0.000366986331936</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7652841551539147</v>
+        <v>0.04583540903192919</v>
       </c>
       <c r="C5" t="n">
-        <v>79.91818514431029</v>
+        <v>58.70967741935484</v>
       </c>
       <c r="D5" t="n">
-        <v>48.16508116109186</v>
+        <v>18.79896429735139</v>
       </c>
       <c r="E5" t="n">
-        <v>0.544557174075781</v>
+        <v>0.01361859924427433</v>
       </c>
       <c r="F5" t="n">
-        <v>55.63842857142857</v>
+        <v>92</v>
       </c>
       <c r="G5" t="n">
-        <v>3.062833273660341</v>
+        <v>7.891304347826087</v>
       </c>
       <c r="H5" t="n">
-        <v>198.2986087700938</v>
+        <v>233.195652173913</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1710151734055561</v>
+        <v>0.0045169901022456</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1877180891248597</v>
+        <v>0.008891399218490879</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1734696906569251</v>
+        <v>0.01709422334157888</v>
       </c>
       <c r="L5" t="n">
-        <v>0.138063979532093</v>
+        <v>0.01664650001661696</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1505314578945185</v>
+        <v>0.005693915268764352</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2001318175760373</v>
+        <v>0.008609805169161841</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2275038759051833</v>
+        <v>0.01942116134360775</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2058150705139814</v>
+        <v>0.01692769309939814</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2134781826258301</v>
+        <v>0.01821292001009712</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1813077605390854</v>
+        <v>0.01376688059869248</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2107567823683996</v>
+        <v>0.00462804715650528</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1686463255337613</v>
+        <v>0.00779968284141312</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.811607490017155</v>
+        <v>0.03861190159442009</v>
       </c>
       <c r="C6" t="n">
-        <v>43.89734692954178</v>
+        <v>49.00701262272089</v>
       </c>
       <c r="D6" t="n">
-        <v>13.84012361221006</v>
+        <v>11.70747999322245</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2497283050049333</v>
+        <v>0.008679885916268813</v>
       </c>
       <c r="F6" t="n">
-        <v>83.551</v>
+        <v>77</v>
       </c>
       <c r="G6" t="n">
-        <v>4.670992229122128</v>
+        <v>5.590813464235624</v>
       </c>
       <c r="H6" t="n">
-        <v>174.4841998936736</v>
+        <v>224.8075035063113</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1825576126369208</v>
+        <v>0.00337291021243512</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1968263840200822</v>
+        <v>0.0085840821457104</v>
       </c>
       <c r="K6" t="n">
-        <v>0.278664087252065</v>
+        <v>0.01352222304406848</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2864727005032738</v>
+        <v>0.009357452442783359</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1181662636823675</v>
+        <v>0.004182500050212011</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05021357087937538</v>
+        <v>0.007192528977020368</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2617609895166834</v>
+        <v>0.01140470769056406</v>
       </c>
       <c r="P6" t="n">
-        <v>0.08772868641206176</v>
+        <v>0.01182871447157172</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1068902196029937</v>
+        <v>0.0129396165589435</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1587032374061928</v>
+        <v>0.01160541265610765</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0747226925111546</v>
+        <v>0.003992938997330104</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1742597509126575</v>
+        <v>0.004988812196337985</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.873736095397328</v>
+        <v>0.031388394156911</v>
       </c>
       <c r="C7" t="n">
-        <v>65.14285714285714</v>
+        <v>39.30434782608695</v>
       </c>
       <c r="D7" t="n">
-        <v>23.87746598639456</v>
+        <v>4.615995689093515</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6765391364903054</v>
+        <v>0.003741172588263293</v>
       </c>
       <c r="F7" t="n">
-        <v>56.00000000000001</v>
+        <v>62</v>
       </c>
       <c r="G7" t="n">
-        <v>3.142857142857143</v>
+        <v>3.290322580645161</v>
       </c>
       <c r="H7" t="n">
-        <v>203.2857142857143</v>
+        <v>216.4193548387097</v>
       </c>
       <c r="I7" t="n">
-        <v>0.158945857987392</v>
+        <v>0.00222883032262464</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3046965185287296</v>
+        <v>0.008276765072929921</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5155578511597744</v>
+        <v>0.009950222746558081</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7646014596389761</v>
+        <v>0.00206840486894976</v>
       </c>
       <c r="M7" t="n">
-        <v>0.638066902459392</v>
+        <v>0.002671084831659671</v>
       </c>
       <c r="N7" t="n">
-        <v>0.374430911812416</v>
+        <v>0.005775252784878895</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0254933171918208</v>
+        <v>0.003388254037520375</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.006729735843745297</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.007666313107789884</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.009443944713522815</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.003357830838154929</v>
       </c>
       <c r="T7" t="n">
-        <v>0.026728837842672</v>
+        <v>0.002177941551262848</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.991924681523263</v>
+        <v>2.714932262655245</v>
       </c>
       <c r="C8" t="n">
-        <v>39.9856750584826</v>
+        <v>49.37837837837838</v>
       </c>
       <c r="D8" t="n">
-        <v>7.878613042529049</v>
+        <v>21.54144144144144</v>
       </c>
       <c r="E8" t="n">
-        <v>0.216270423108505</v>
+        <v>0.4595582128710188</v>
       </c>
       <c r="F8" t="n">
-        <v>91.8492</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>5.769564836192218</v>
+        <v>12.54</v>
       </c>
       <c r="H8" t="n">
-        <v>169.9024254484497</v>
+        <v>147.5128205128205</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2305341756458401</v>
+        <v>0.9068664010764367</v>
       </c>
       <c r="J8" t="n">
-        <v>0.221296032403221</v>
+        <v>0.82445773133997</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2732460429424261</v>
+        <v>0.8879806484182173</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2605853709608194</v>
+        <v>0.3685210020513688</v>
       </c>
       <c r="M8" t="n">
-        <v>0.22456479917225</v>
+        <v>0.07434327559841281</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1919900404976269</v>
+        <v>0.05521105482681599</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1961444721859509</v>
+        <v>0.0014037227196552</v>
       </c>
       <c r="P8" t="n">
-        <v>0.105788592698036</v>
+        <v>0.0037493770246128</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1381371379020811</v>
+        <v>0.009015630887894401</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1365532380135168</v>
+        <v>0.03149558253192961</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1377500982469944</v>
+        <v>0.477134658135648</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1614427671029559</v>
+        <v>0.7558433017014241</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -985,13 +1030,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7026512993645213</v>
+        <v>0.7026512993645214</v>
       </c>
       <c r="C9" t="n">
         <v>40.69052835068251</v>
       </c>
       <c r="D9" t="n">
-        <v>9.712533867809675</v>
+        <v>9.712533867809679</v>
       </c>
       <c r="E9" t="n">
         <v>0.1215432167307034</v>
@@ -1000,7 +1045,7 @@
         <v>90.26627272727272</v>
       </c>
       <c r="G9" t="n">
-        <v>5.641820384536534</v>
+        <v>5.641820384536533</v>
       </c>
       <c r="H9" t="n">
         <v>129.5588801016769</v>
@@ -1024,10 +1069,10 @@
         <v>0.01389865241622644</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0002550555006955199</v>
+        <v>0.00025505550069552</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0005140966953718236</v>
+        <v>0.0005140966953718235</v>
       </c>
       <c r="Q9" t="n">
         <v>0.001031526892697699</v>
@@ -1041,1093 +1086,4633 @@
       <c r="T9" t="n">
         <v>0.1874206393589068</v>
       </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.51938299213324</v>
+        <v>0.04261318181016023</v>
       </c>
       <c r="C10" t="n">
-        <v>37.66401338518757</v>
+        <v>36.48979591836735</v>
       </c>
       <c r="D10" t="n">
-        <v>5.889903553897571</v>
+        <v>2.815246657453314</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3153822020298751</v>
+        <v>0.006799584455391401</v>
       </c>
       <c r="F10" t="n">
-        <v>96.45824999999999</v>
+        <v>74</v>
       </c>
       <c r="G10" t="n">
-        <v>7.52345475655572</v>
+        <v>2.783783783783784</v>
       </c>
       <c r="H10" t="n">
-        <v>109.6927943702921</v>
+        <v>105.3265306122449</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4718376235359882</v>
+        <v>0.01675626562849903</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3474367857043656</v>
+        <v>0.01878565308563896</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2236788371752667</v>
+        <v>0.01398996441887908</v>
       </c>
       <c r="L10" t="n">
-        <v>0.135916958390445</v>
+        <v>0.004219499170523918</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0388785555300647</v>
+        <v>0.001612831531592324</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1052592728199055</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07098520503170161</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0235879008556896</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01445375668329936</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.06080943132049968</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3263697893534415</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5120992178087005</v>
+        <v>0.004986993901392016</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.859790449691609</v>
+        <v>2.620777285531257</v>
       </c>
       <c r="C11" t="n">
-        <v>37.1727641723356</v>
+        <v>46.8421052631579</v>
       </c>
       <c r="D11" t="n">
-        <v>6.123099039677384</v>
+        <v>17.44886363636364</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1318166005318793</v>
+        <v>1.142383504758437</v>
       </c>
       <c r="F11" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G11" t="n">
-        <v>7.204810361825889</v>
+        <v>4.531914893617022</v>
       </c>
       <c r="H11" t="n">
-        <v>167.7461935817805</v>
+        <v>215.4042553191489</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1521074338422582</v>
+        <v>0.014557124500128</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1618678239365981</v>
+        <v>0.13578494281632</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2290240211913693</v>
+        <v>0.4556682571304994</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1997108995781361</v>
+        <v>1.239306726509006</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1369744670892212</v>
+        <v>1.04215380500016</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2050124534612779</v>
+        <v>0.662491881662688</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08001813027010446</v>
+        <v>0.5187229473138049</v>
       </c>
       <c r="P11" t="n">
-        <v>0.07890842924312809</v>
+        <v>0.104468775824448</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3220293029839441</v>
+        <v>0.3880268816336641</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1239932935638235</v>
+        <v>0.6272204175377279</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1023587072147054</v>
+        <v>0.110748319726464</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1389822097310819</v>
+        <v>0.058554708073344</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.254693091469068</v>
+        <v>1.29013479197118</v>
       </c>
       <c r="C12" t="n">
-        <v>41.32702639783292</v>
+        <v>42.22460891105908</v>
       </c>
       <c r="D12" t="n">
-        <v>10.37422175320666</v>
+        <v>14.38877893238196</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3480989642683848</v>
+        <v>0.4977214868988384</v>
       </c>
       <c r="F12" t="n">
-        <v>88.98474999999999</v>
+        <v>86</v>
       </c>
       <c r="G12" t="n">
-        <v>4.4373238439206</v>
+        <v>3.294928569004717</v>
       </c>
       <c r="H12" t="n">
-        <v>190.9022050283266</v>
+        <v>207.1483083918694</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1128637038359303</v>
+        <v>0.009337763334816</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1244017556247542</v>
+        <v>0.09053070907617163</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2273480138827281</v>
+        <v>0.2760184681949414</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1769686386404138</v>
+        <v>0.6017952498406026</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4574247788794752</v>
+        <v>0.438351338695356</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6233205313309315</v>
+        <v>0.3339318881208427</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2372671974635593</v>
+        <v>0.2567327641533312</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01944517856022</v>
+        <v>0.0691658557281792</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.007951370525279999</v>
+        <v>0.2210236348473217</v>
       </c>
       <c r="R12" t="n">
-        <v>0.000168202068804</v>
+        <v>0.432113784631584</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01550303177069304</v>
+        <v>0.08494646217408959</v>
       </c>
       <c r="T12" t="n">
-        <v>0.05459922430455881</v>
+        <v>0.0252758438099328</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2090629386456408</v>
+        <v>0.4495968867618038</v>
       </c>
       <c r="C13" t="n">
-        <v>56.84375</v>
+        <v>38.46808510638298</v>
       </c>
       <c r="D13" t="n">
-        <v>33.90520833333333</v>
+        <v>8.598467312829015</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1490793667403878</v>
+        <v>0.1667307969919607</v>
       </c>
       <c r="F13" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G13" t="n">
-        <v>2.46875</v>
+        <v>2.431818181818182</v>
       </c>
       <c r="H13" t="n">
-        <v>238.28125</v>
+        <v>200.6315789473684</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.019939590701856</v>
+        <v>0.06387786335273891</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0106344483743232</v>
+        <v>0.157528882983528</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03243158302499869</v>
+        <v>0.17481364795872</v>
       </c>
       <c r="M13" t="n">
-        <v>0.08396805118279309</v>
+        <v>0.091196103486096</v>
       </c>
       <c r="N13" t="n">
-        <v>0.09735021961510811</v>
+        <v>0.145326587446656</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0559496876345856</v>
+        <v>0.076373933301792</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0131931586330992</v>
+        <v>0.020481332429952</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.1334851618028544</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.191060074621728</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.05645473072948801</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9808045409114854</v>
+        <v>2.58571155616814</v>
       </c>
       <c r="C14" t="n">
-        <v>37.68799470447578</v>
+        <v>90.75</v>
       </c>
       <c r="D14" t="n">
-        <v>6.898723064127929</v>
+        <v>49.06666666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1970127959885204</v>
+        <v>1.190544000170998</v>
       </c>
       <c r="F14" t="n">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="G14" t="n">
-        <v>7.173296600437204</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>154.2041126929311</v>
+        <v>173.55</v>
       </c>
       <c r="I14" t="n">
-        <v>0.190121679112314</v>
+        <v>0.7286207798645999</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2424192891558747</v>
+        <v>0.939997625584896</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3018111815495064</v>
+        <v>0.8696891025730252</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3014547891600313</v>
+        <v>0.8489993541690684</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2183691207434109</v>
+        <v>0.4985932765118178</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1169366605941532</v>
+        <v>0.33151098651552</v>
       </c>
       <c r="O14" t="n">
-        <v>0.09005500846887436</v>
+        <v>0.154903183156224</v>
       </c>
       <c r="P14" t="n">
-        <v>0.07497204503237667</v>
+        <v>0.002691233100864</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.09414024330236517</v>
+        <v>0.052112059134912</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1547859604138507</v>
+        <v>0.206001660993408</v>
       </c>
       <c r="S14" t="n">
-        <v>0.07830494842955789</v>
+        <v>0.470598806319264</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1776954576848127</v>
+        <v>0.6888803945736074</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.29013479197118</v>
+        <v>2.335567926574961</v>
       </c>
       <c r="C15" t="n">
-        <v>42.22460891105908</v>
+        <v>72.92045454545455</v>
       </c>
       <c r="D15" t="n">
-        <v>14.38877893238196</v>
+        <v>35.2979797979798</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4977214868988384</v>
+        <v>1.118051134882569</v>
       </c>
       <c r="F15" t="n">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="G15" t="n">
-        <v>3.294928569004716</v>
+        <v>2.408333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>207.1483083918694</v>
+        <v>157.0931818181818</v>
       </c>
       <c r="I15" t="n">
-        <v>0.009337763334816</v>
+        <v>0.6094572596655481</v>
       </c>
       <c r="J15" t="n">
-        <v>0.09053070907617163</v>
+        <v>0.6862149266914079</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2760184681949414</v>
+        <v>0.6977362895404307</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6017952498406026</v>
+        <v>0.7813891799393207</v>
       </c>
       <c r="M15" t="n">
-        <v>0.438351338695356</v>
+        <v>0.4616050273240689</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3339318881208426</v>
+        <v>0.326903269236768</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2567327641533312</v>
+        <v>0.077451591578112</v>
       </c>
       <c r="P15" t="n">
-        <v>0.06916585572817921</v>
+        <v>0.001345616550432</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2210236348473217</v>
+        <v>0.026056029567456</v>
       </c>
       <c r="R15" t="n">
-        <v>0.432113784631584</v>
+        <v>0.103000830496704</v>
       </c>
       <c r="S15" t="n">
-        <v>0.08494646217408959</v>
+        <v>0.270897077357424</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0252758438099328</v>
+        <v>0.4805187291686725</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.77456877386234</v>
+        <v>2.085424296981782</v>
       </c>
       <c r="C16" t="n">
-        <v>41.09167664956553</v>
+        <v>55.09090909090909</v>
       </c>
       <c r="D16" t="n">
-        <v>6.903409984317405</v>
+        <v>21.52929292929293</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3009489133358232</v>
+        <v>1.04555826959414</v>
       </c>
       <c r="F16" t="n">
-        <v>88.889</v>
+        <v>40</v>
       </c>
       <c r="G16" t="n">
-        <v>5.927853228238004</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>159.4998076483473</v>
+        <v>140.6363636363636</v>
       </c>
       <c r="I16" t="n">
-        <v>0.462523723339396</v>
+        <v>0.4902937394664961</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4601975294301073</v>
+        <v>0.43243222779792</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5694540694953446</v>
+        <v>0.5257834765078362</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4724634550164403</v>
+        <v>0.7137790057095729</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2746153483168945</v>
+        <v>0.42461677813632</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2119907468640564</v>
+        <v>0.322295551958016</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2486676958255829</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.07411238003123639</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.123470512566912</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1937899869169421</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1957717489566572</v>
+        <v>0.071195348395584</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3701929801881496</v>
+        <v>0.2721570637637376</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03861190159442009</v>
+        <v>3.758101408901094</v>
       </c>
       <c r="C17" t="n">
-        <v>49.00701262272089</v>
+        <v>52.2</v>
       </c>
       <c r="D17" t="n">
-        <v>11.70747999322245</v>
+        <v>13.60232142857143</v>
       </c>
       <c r="E17" t="n">
-        <v>0.008679885916268813</v>
+        <v>0.9225659669249319</v>
       </c>
       <c r="F17" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>5.590813464235624</v>
+        <v>9.387755102040817</v>
       </c>
       <c r="H17" t="n">
-        <v>224.8075035063113</v>
+        <v>216.7083333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00337291021243512</v>
+        <v>0.8811269871679059</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0085840821457104</v>
+        <v>1.099506834838619</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01352222304406848</v>
+        <v>1.182112567913415</v>
       </c>
       <c r="L17" t="n">
-        <v>0.009357452442783359</v>
+        <v>1.34895494222574</v>
       </c>
       <c r="M17" t="n">
-        <v>0.004182500050212011</v>
+        <v>0.7019081325953958</v>
       </c>
       <c r="N17" t="n">
-        <v>0.007192528977020368</v>
+        <v>0.809531071991712</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01140470769056406</v>
+        <v>0.7841274625699201</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01182871447157172</v>
+        <v>0.298115230309344</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0129396165589435</v>
+        <v>0.6261398466714719</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01160541265610765</v>
+        <v>0.3480933318844801</v>
       </c>
       <c r="S17" t="n">
-        <v>0.003992938997330104</v>
+        <v>0.501181000647264</v>
       </c>
       <c r="T17" t="n">
-        <v>0.004988812196337985</v>
+        <v>0.5070542211203266</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9725985081798318</v>
+        <v>0.991924681523263</v>
       </c>
       <c r="C18" t="n">
-        <v>43.96968073949781</v>
+        <v>39.98567505848258</v>
       </c>
       <c r="D18" t="n">
-        <v>8.61413441541629</v>
+        <v>7.878613042529049</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2710834449093962</v>
+        <v>0.2162704231085049</v>
       </c>
       <c r="F18" t="n">
-        <v>83</v>
+        <v>91.8492</v>
       </c>
       <c r="G18" t="n">
-        <v>5.175612003355906</v>
+        <v>5.769564836192218</v>
       </c>
       <c r="H18" t="n">
-        <v>182.9562346437346</v>
+        <v>169.9024254484496</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1791808743997442</v>
+        <v>0.2305341756458401</v>
       </c>
       <c r="J18" t="n">
-        <v>0.129538858498283</v>
+        <v>0.221296032403221</v>
       </c>
       <c r="K18" t="n">
-        <v>0.238116594071144</v>
+        <v>0.2732460429424261</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1781608637626219</v>
+        <v>0.2605853709608194</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3303075619150302</v>
+        <v>0.22456479917225</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3824277915554453</v>
+        <v>0.1919900404976269</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2882992869206501</v>
+        <v>0.1961444721859509</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2026518913080137</v>
+        <v>0.105788592698036</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04935306948350331</v>
+        <v>0.1381371379020812</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1607298772440143</v>
+        <v>0.1365532380135168</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1785277938473758</v>
+        <v>0.1377500982469944</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2428982714200115</v>
+        <v>0.1614427671029559</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9972677159656933</v>
+        <v>0.173715851203414</v>
       </c>
       <c r="C19" t="n">
-        <v>47.93159707675837</v>
+        <v>36.46</v>
       </c>
       <c r="D19" t="n">
-        <v>27.67523022079473</v>
+        <v>3.631907079848256</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6446660160252849</v>
+        <v>0.01970392901484785</v>
       </c>
       <c r="F19" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G19" t="n">
-        <v>2.154086952474049</v>
+        <v>3.020833333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>248.1669692314854</v>
+        <v>145.8913043478261</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01071436984216706</v>
+        <v>0.007864700586554465</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03250357165698065</v>
+        <v>0.02251909685277506</v>
       </c>
       <c r="K19" t="n">
-        <v>0.009483579237372006</v>
+        <v>0.02025872201610758</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06839997701072462</v>
+        <v>0.03294418826249856</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3519201896888184</v>
+        <v>0.0427172090373504</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5680491510007827</v>
+        <v>0.0231350902069728</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1561463471491498</v>
+        <v>0.0091257267874752</v>
       </c>
       <c r="P19" t="n">
-        <v>0.008018243590210616</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0589461601607426</v>
+        <v>0.0290381333165952</v>
       </c>
       <c r="R19" t="n">
-        <v>0.003413788412186927</v>
+        <v>0.01485934853819294</v>
       </c>
       <c r="S19" t="n">
-        <v>0.00654622063655624</v>
+        <v>0.01098769954529785</v>
       </c>
       <c r="T19" t="n">
-        <v>0.005568405943242323</v>
+        <v>0.02337784486950531</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.015334732665181</v>
+        <v>4.729287427987646</v>
       </c>
       <c r="C20" t="n">
-        <v>39.17395779287023</v>
+        <v>49.37837837837838</v>
       </c>
       <c r="D20" t="n">
-        <v>6.567674815537152</v>
+        <v>18.55965250965251</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1581068816346881</v>
+        <v>1.123048147155037</v>
       </c>
       <c r="F20" t="n">
-        <v>93.69230769230769</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>6.773453944605899</v>
+        <v>5.767441860465116</v>
       </c>
       <c r="H20" t="n">
-        <v>165.0559982401008</v>
+        <v>241.1860465116279</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1978412794987237</v>
+        <v>0.3587005960860679</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2133834650346284</v>
+        <v>0.32784112319616</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2951975240287013</v>
+        <v>0.632195121148416</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2382185848102863</v>
+        <v>0.4989526596397511</v>
       </c>
       <c r="M20" t="n">
-        <v>0.157713802020619</v>
+        <v>1.710444139238965</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2139816655874434</v>
+        <v>2.742251396813534</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1209687568684401</v>
+        <v>1.536327114261408</v>
       </c>
       <c r="P20" t="n">
-        <v>0.08204362411353464</v>
+        <v>0.15556142848176</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3095353614859749</v>
+        <v>0.06361096420223999</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1391484920884741</v>
+        <v>0.001345616550432</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1356073230456007</v>
+        <v>0.05627123756352</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1723969312261257</v>
+        <v>0.1225448914852512</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6203703232509391</v>
+        <v>1.254693091469068</v>
       </c>
       <c r="C21" t="n">
-        <v>45.2690658084876</v>
+        <v>41.32702639783292</v>
       </c>
       <c r="D21" t="n">
-        <v>14.21244327030503</v>
+        <v>10.37422175320666</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2356370042183471</v>
+        <v>0.3480989642683849</v>
       </c>
       <c r="F21" t="n">
-        <v>81.71428571428571</v>
+        <v>88.98475000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>3.783598666124997</v>
+        <v>4.4373238439206</v>
       </c>
       <c r="H21" t="n">
-        <v>195.982973777948</v>
+        <v>190.9022050283266</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1748605467884579</v>
+        <v>0.1128637038359303</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1856367371792335</v>
+        <v>0.1244017556247542</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2455566392675997</v>
+        <v>0.2273480138827281</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1840374238576615</v>
+        <v>0.1769686386404138</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0548897961568752</v>
+        <v>0.4574247788794752</v>
       </c>
       <c r="N21" t="n">
-        <v>0.06428519523350959</v>
+        <v>0.6233205313309315</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1320605911174785</v>
+        <v>0.2372671974635593</v>
       </c>
       <c r="P21" t="n">
-        <v>0.07468322441508253</v>
+        <v>0.01944517856022</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.05627153486244665</v>
+        <v>0.007951370525279999</v>
       </c>
       <c r="R21" t="n">
-        <v>0.09338429069658516</v>
+        <v>0.000168202068804</v>
       </c>
       <c r="S21" t="n">
-        <v>0.04601198372913425</v>
+        <v>0.01550303177069304</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1322023077829589</v>
+        <v>0.05459922430455881</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.128686227377075</v>
+        <v>0.1101536387636913</v>
       </c>
       <c r="C22" t="n">
-        <v>36.72186917701863</v>
+        <v>36.32</v>
       </c>
       <c r="D22" t="n">
-        <v>4.363595468443057</v>
+        <v>6.747155122655123</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1548371769095206</v>
+        <v>0.02115819176472777</v>
       </c>
       <c r="F22" t="n">
-        <v>98.49487500000001</v>
+        <v>74</v>
       </c>
       <c r="G22" t="n">
-        <v>8.312989315291333</v>
+        <v>2.810810810810811</v>
       </c>
       <c r="H22" t="n">
-        <v>161.5424292923691</v>
+        <v>141.390243902439</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1897960624847014</v>
+        <v>0.01890019070366307</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2230368050798492</v>
+        <v>0.0278216415866592</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2952014951508851</v>
+        <v>0.0338973041931552</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2671441742087171</v>
+        <v>0.0323594567069472</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1861182820029963</v>
+        <v>0.00776869288449408</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2065060839124349</v>
+        <v>0.015107603998032</v>
       </c>
       <c r="O22" t="n">
-        <v>0.106872116213542</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.08746214377087788</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.3566582652449973</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1203487381786537</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.123577832378035</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1736152656817094</v>
+        <v>0.0101797930853136</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.526284512286693</v>
+        <v>2.116567115145309</v>
       </c>
       <c r="C23" t="n">
-        <v>40.18283844309136</v>
+        <v>48.86486486486486</v>
       </c>
       <c r="D23" t="n">
-        <v>9.553318210294155</v>
+        <v>12.530710414247</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4545643936151672</v>
+        <v>0.7714091967531689</v>
       </c>
       <c r="F23" t="n">
-        <v>90.5</v>
+        <v>88</v>
       </c>
       <c r="G23" t="n">
-        <v>4.833846407252635</v>
+        <v>6.431818181818182</v>
       </c>
       <c r="H23" t="n">
-        <v>197.6996878870664</v>
+        <v>198.1363636363636</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0964467413864119</v>
+        <v>0.4472217769749387</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1142370920361221</v>
+        <v>0.177108768828288</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3493838115087113</v>
+        <v>0.5353134479345834</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4890988358971935</v>
+        <v>0.4098242387002962</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4819085647006407</v>
+        <v>0.8321335297011402</v>
       </c>
       <c r="N23" t="n">
-        <v>0.3838175690763501</v>
+        <v>0.9017608536460915</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4621460446387698</v>
+        <v>0.6446237249233128</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1596828888706961</v>
+        <v>0.5914188620444131</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1894873610068269</v>
+        <v>0.07573374603385837</v>
       </c>
       <c r="R23" t="n">
-        <v>0.5267741322961907</v>
+        <v>0.275843237586738</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2196650811019548</v>
+        <v>0.3237722798646424</v>
       </c>
       <c r="T23" t="n">
-        <v>0.1210747034632554</v>
+        <v>0.4804248653568488</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.298495978785845</v>
+        <v>0.972598508179832</v>
       </c>
       <c r="C24" t="n">
-        <v>43.5</v>
+        <v>43.96968073949781</v>
       </c>
       <c r="D24" t="n">
-        <v>25.77579365079365</v>
+        <v>8.61413441541629</v>
       </c>
       <c r="E24" t="n">
-        <v>1.432221441315653</v>
+        <v>0.2710834449093962</v>
       </c>
       <c r="F24" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" t="n">
-        <v>2.119047619047619</v>
+        <v>5.175612003355906</v>
       </c>
       <c r="H24" t="n">
-        <v>246.9761904761905</v>
+        <v>182.9562346437346</v>
       </c>
       <c r="I24" t="n">
-        <v>0.007437589660569957</v>
+        <v>0.1791808743997442</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1656331644804507</v>
+        <v>0.129538858498283</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1268467868207248</v>
+        <v>0.238116594071144</v>
       </c>
       <c r="L24" t="n">
-        <v>0.171190968596325</v>
+        <v>0.1781608637626219</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8609352552685815</v>
+        <v>0.3303075619150302</v>
       </c>
       <c r="N24" t="n">
-        <v>1.384598654135428</v>
+        <v>0.3824277915554453</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2496196546636936</v>
+        <v>0.2882992869206501</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.2026518913080137</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.04935306948350331</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.1607298772440143</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>0.1785277938473758</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0005382466201729781</v>
+        <v>0.2428982714200115</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Willamette Lowland basin-fill aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.356276158041934</v>
+        <v>0.2153310486641918</v>
       </c>
       <c r="C25" t="n">
-        <v>38.06521739130435</v>
+        <v>41</v>
       </c>
       <c r="D25" t="n">
-        <v>9.826086956521738</v>
+        <v>5.904633119405847</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9239822074046888</v>
+        <v>0.03666442895615443</v>
       </c>
       <c r="F25" t="n">
-        <v>95.833</v>
+        <v>74</v>
       </c>
       <c r="G25" t="n">
-        <v>4.152173913043478</v>
+        <v>3.951219512195122</v>
       </c>
       <c r="H25" t="n">
-        <v>105.7826086956522</v>
+        <v>165.9318181818182</v>
       </c>
       <c r="I25" t="n">
-        <v>1.219021949090658</v>
+        <v>0.03787543603134145</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8689368200534524</v>
+        <v>0.02607827116333091</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4825391587134136</v>
+        <v>0.04832209119782749</v>
       </c>
       <c r="L25" t="n">
-        <v>0.393234592439232</v>
+        <v>0.03890404629313921</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00856301441184</v>
+        <v>0.0254187548894592</v>
       </c>
       <c r="N25" t="n">
-        <v>0.18532809762768</v>
+        <v>0.08655984282597121</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.1177442711345841</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.034333610165568</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.02625664876224768</v>
       </c>
       <c r="R25" t="n">
-        <v>0.005137808647104</v>
+        <v>0.0206796798045936</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6303310635893761</v>
+        <v>0.0406702408303296</v>
       </c>
       <c r="T25" t="n">
-        <v>1.307044355438516</v>
+        <v>0.055836290799744</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2.081070504589277</v>
+      </c>
+      <c r="C26" t="n">
+        <v>54.81818181818182</v>
+      </c>
+      <c r="D26" t="n">
+        <v>38.74090909090909</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6530757784846237</v>
+      </c>
+      <c r="F26" t="n">
+        <v>95.91800000000001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6.733333333333333</v>
+      </c>
+      <c r="H26" t="n">
+        <v>209.3947368421053</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5347880520142538</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.4996943462124037</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.7491615805278947</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.6273019700559379</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2997055044144</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.09022970614533192</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.8182117550369679</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.179252435021184</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.2056917614242185</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.415428527751552</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1971287470123784</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.478437922201836</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8116074900171553</v>
+      </c>
+      <c r="C27" t="n">
+        <v>43.89734692954178</v>
+      </c>
+      <c r="D27" t="n">
+        <v>13.84012361221006</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2497283050049333</v>
+      </c>
+      <c r="F27" t="n">
+        <v>83.551</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.670992229122128</v>
+      </c>
+      <c r="H27" t="n">
+        <v>174.4841998936736</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1825576126369208</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1968263840200822</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.278664087252065</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.2864727005032738</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.1181662636823675</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.05021357087937538</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.2617609895166834</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.08772868641206177</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.1068902196029937</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.1587032374061928</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.07472269251115461</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.1742597509126575</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.117720652270657</v>
+      </c>
+      <c r="C28" t="n">
+        <v>37.29787234042553</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5.414851013184347</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.02584746126824113</v>
+      </c>
+      <c r="F28" t="n">
+        <v>66</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.545454545454545</v>
+      </c>
+      <c r="H28" t="n">
+        <v>159.2727272727273</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0326373177868416</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0314583741954972</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.04366183185575366</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0488782105289712</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0131748093165024</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.00580817034677376</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.01911020159168064</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.03213907987266025</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.03755840061680784</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.0230467416455812</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.01955592317301382</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.004233934903632001</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9169165985949258</v>
+      </c>
+      <c r="C29" t="n">
+        <v>46.84615384615385</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10.80590659340659</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.145579412141223</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="H29" t="n">
+        <v>244.98</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.009808321364876169</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.08497772397273601</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2773845801808704</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.216102522891456</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.237888695612736</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.4104724647164544</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.1753450056705224</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.07423827673121999</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.05686249332052801</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.1180130180484326</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.06814528421460481</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.052968360576096</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1792091380767214</v>
+      </c>
+      <c r="C30" t="n">
+        <v>38.41554030139061</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.664400827338537</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.02635428192826429</v>
+      </c>
+      <c r="F30" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6.891295862698598</v>
+      </c>
+      <c r="H30" t="n">
+        <v>223.0685458599151</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.003377859693016966</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.01427224970949506</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.05113461994371728</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.03838175943398946</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.04941174503779706</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.06132469881328828</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.03387444695798238</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.0179444994096321</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.02008358343738583</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.03181625076277742</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.01470010955943878</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.0121859522003984</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01524867843717929</v>
+      </c>
+      <c r="C31" t="n">
+        <v>36.52</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.948670977255646</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0013286907019364</v>
+      </c>
+      <c r="F31" t="n">
+        <v>78</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.307692307692307</v>
+      </c>
+      <c r="H31" t="n">
+        <v>199.265306122449</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.000244657554624</v>
+      </c>
+      <c r="J31" t="n">
+        <v>6.624782895763201e-05</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0007108636457579695</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.002496417183268001</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.004234474703633471</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.003228594789456245</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.001693971268592788</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.001187608546404</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.001498688480989516</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.00255778424308538</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.001383416142621408</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.0001329602601402066</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
           <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B32" t="n">
+        <v>3.80106093302712</v>
+      </c>
+      <c r="C32" t="n">
+        <v>75.70833333333333</v>
+      </c>
+      <c r="D32" t="n">
+        <v>34.17569444444445</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.606753207202256</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>256.84</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.03458295698998896</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0496899493441344</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5737708971042048</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.9590226630468479</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.056536174104128</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.171338819021504</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.274910517145664</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.606530240352128</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.050047982850333</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.757663670411424</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.7671971597899392</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.137171335625856</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Lower Cretaceous aquifers</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
         <v>0.2112347983904279</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C33" t="n">
         <v>43.27066013607683</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D33" t="n">
         <v>11.18002260208423</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E33" t="n">
         <v>0.08074392753697064</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F33" t="n">
         <v>85.99687179487179</v>
       </c>
-      <c r="G26" t="n">
-        <v>5.042668844513866</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="G33" t="n">
+        <v>5.042668844513867</v>
+      </c>
+      <c r="H33" t="n">
         <v>228.3117876738302</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I33" t="n">
         <v>0.003509949752347983</v>
       </c>
-      <c r="J26" t="n">
-        <v>0.007260976705626247</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.03647461888639898</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="J33" t="n">
+        <v>0.007260976705626248</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.03647461888639899</v>
+      </c>
+      <c r="L33" t="n">
         <v>0.04895201239044156</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M33" t="n">
         <v>0.05861752912802251</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N33" t="n">
         <v>0.07604335743104518</v>
       </c>
-      <c r="O26" t="n">
-        <v>0.06400086470092757</v>
-      </c>
-      <c r="P26" t="n">
+      <c r="O33" t="n">
+        <v>0.06400086470092756</v>
+      </c>
+      <c r="P33" t="n">
         <v>0.05279611737500664</v>
       </c>
-      <c r="Q26" t="n">
-        <v>0.04286822213392433</v>
-      </c>
-      <c r="R26" t="n">
+      <c r="Q33" t="n">
+        <v>0.04286822213392434</v>
+      </c>
+      <c r="R33" t="n">
         <v>0.03339804596841851</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S33" t="n">
         <v>0.02537042580165564</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T33" t="n">
         <v>0.01156088796582656</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Lower Cretaceous aquifers</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.000701188551552384</v>
+      </c>
+      <c r="C34" t="n">
+        <v>36.16</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.932496150564262</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0001330448950714455</v>
+      </c>
+      <c r="F34" t="n">
+        <v>48</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.216216216216216</v>
+      </c>
+      <c r="H34" t="n">
+        <v>186.1666666666667</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.00013904704354464</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.000346411796628096</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.000378572614701408</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.517248836615685</v>
+      </c>
+      <c r="C35" t="n">
+        <v>38.74468085106383</v>
+      </c>
+      <c r="D35" t="n">
+        <v>8.298388018600784</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.06478477685864963</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100</v>
+      </c>
+      <c r="G35" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="H35" t="n">
+        <v>156.06</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.1160096589774643</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.109022482035427</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.1320635574942805</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.09046063130817965</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.1353878249750252</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0465602899053842</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.06820318650253257</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.04828928484391209</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.06681475488004136</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.06806512973956617</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.08372744231608927</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.09298713270680749</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.343995680377283</v>
+      </c>
+      <c r="C36" t="n">
+        <v>36.74822695035461</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5.114174641737368</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0415262784303628</v>
+      </c>
+      <c r="F36" t="n">
+        <v>98</v>
+      </c>
+      <c r="G36" t="n">
+        <v>9.053617021276596</v>
+      </c>
+      <c r="H36" t="n">
+        <v>154.3805673758866</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.06878747401586384</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.06759006816811843</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.07393184047893851</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.05774098664710769</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.07984266764256155</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.03093539348715192</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.03865131115575939</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.02547867480786985</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.03638458803806739</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.03502527907872515</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.05063967379375191</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.07011540834154154</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1359275729651859</v>
+      </c>
+      <c r="C37" t="n">
+        <v>34.96</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.366166875642289</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.02934333764144518</v>
+      </c>
+      <c r="F37" t="n">
+        <v>94</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4.680851063829787</v>
+      </c>
+      <c r="H37" t="n">
+        <v>152.72</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0268175262062232</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.03290252657605402</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.02838924711338688</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.028489498458984</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.04531193832500161</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.02275142558552883</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.009105338657923201</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.0026178358344768</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.0194665860962496</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.01769363435040768</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.02716600226264488</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.04970124123127089</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>3.758101408901094</v>
+      </c>
+      <c r="C38" t="n">
+        <v>41.45454545454545</v>
+      </c>
+      <c r="D38" t="n">
+        <v>11.62651515151515</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9225659669249319</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100</v>
+      </c>
+      <c r="G38" t="n">
+        <v>17.54</v>
+      </c>
+      <c r="H38" t="n">
+        <v>164.1818181818182</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.8811269871679059</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.099506834838619</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.182112567913415</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.34895494222574</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7019081325953958</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.475614286189056</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.4184329225223352</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.542895113710656</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.429944875992576</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.645712451041392</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.2900605599276676</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.5070542211203266</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9808045409114853</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37.68799470447578</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6.898723064127929</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1970127959885204</v>
+      </c>
+      <c r="F39" t="n">
+        <v>96</v>
+      </c>
+      <c r="G39" t="n">
+        <v>7.173296600437205</v>
+      </c>
+      <c r="H39" t="n">
+        <v>154.204112692931</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.190121679112314</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.2424192891558747</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.3018111815495064</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.3014547891600313</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.2183691207434109</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.1169366605941532</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.09005500846887436</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.07497204503237667</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.09414024330236517</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.1547859604138507</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.07830494842955787</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.1776954576848127</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1981683643314465</v>
+      </c>
+      <c r="C40" t="n">
+        <v>34.96</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.053858807339112</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.01151869761076407</v>
+      </c>
+      <c r="F40" t="n">
+        <v>88</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.590909090909091</v>
+      </c>
+      <c r="H40" t="n">
+        <v>147.98</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.03075776271665518</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.03632456740901956</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.03378675892255571</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.03313346054877678</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.03328558138480339</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.01647964356436326</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.00387374461488</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.00784834251061056</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.01206186210051782</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.01625504792921856</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.03349272413941112</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5.092654648822595</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39.65217391304348</v>
+      </c>
+      <c r="D41" t="n">
+        <v>13.71076604554866</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.8673724950047269</v>
+      </c>
+      <c r="F41" t="n">
+        <v>100</v>
+      </c>
+      <c r="G41" t="n">
+        <v>11.97959183673469</v>
+      </c>
+      <c r="H41" t="n">
+        <v>187.94</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.962473409984869</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.8323168455790273</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.296373657164951</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.429489023171127</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7009540880625361</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.811227061054208</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.49123741860576</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.4753696286344321</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.14197689073312</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.383106546368448</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.4715529707822976</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.8540408053792743</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.859790449691609</v>
+      </c>
+      <c r="C42" t="n">
+        <v>37.1727641723356</v>
+      </c>
+      <c r="D42" t="n">
+        <v>6.123099039677384</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1318166005318793</v>
+      </c>
+      <c r="F42" t="n">
+        <v>98</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7.204810361825889</v>
+      </c>
+      <c r="H42" t="n">
+        <v>167.7461935817805</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.1521074338422582</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.1618678239365982</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2290240211913693</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.199710899578136</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.1369744670892213</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.2050124534612779</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.08001813027010445</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.0789084292431281</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.3220293029839441</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.1239932935638235</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.1023587072147054</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.1389822097310819</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.09469079199634521</v>
+      </c>
+      <c r="C43" t="n">
+        <v>36.38</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.863468017620495</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.01449324264915005</v>
+      </c>
+      <c r="F43" t="n">
+        <v>92</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3.065217391304348</v>
+      </c>
+      <c r="H43" t="n">
+        <v>147.72</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.01811955124115311</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.02006850641333095</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0328629464205504</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.0227892686952384</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.009976785566774402</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.0138965491026432</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.0139363059552696</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.009268203833991531</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.04423032191364037</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.03273949829494927</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.0144837272337408</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.0147615883136352</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2.13358863171744</v>
+      </c>
+      <c r="C44" t="n">
+        <v>58.93548387096774</v>
+      </c>
+      <c r="D44" t="n">
+        <v>28.29356060606061</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.428510025046534</v>
+      </c>
+      <c r="F44" t="n">
+        <v>88</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.645161290322581</v>
+      </c>
+      <c r="H44" t="n">
+        <v>248.7619047619048</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.031071509437248</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.073152608832576</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.02722744993899602</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.138421807571712</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8233165842041796</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.19759872988448</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.2338339044074343</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.02405473077063185</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.1768384804822278</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.01024136523656078</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.01963866190966872</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.01156740918262297</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9972677159656933</v>
+      </c>
+      <c r="C45" t="n">
+        <v>47.93159707675837</v>
+      </c>
+      <c r="D45" t="n">
+        <v>27.67523022079473</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6446660160252849</v>
+      </c>
+      <c r="F45" t="n">
+        <v>78</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.154086952474049</v>
+      </c>
+      <c r="H45" t="n">
+        <v>248.1669692314854</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.01071436984216706</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.03250357165698065</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.009483579237372006</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.06839997701072462</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.3519201896888184</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.5680491510007827</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.1561463471491498</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.008018243590210616</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.0589461601607426</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.003413788412186927</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.00654622063655624</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.005568405943242323</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.2898352402050122</v>
+      </c>
+      <c r="C46" t="n">
+        <v>41.45454545454545</v>
+      </c>
+      <c r="D46" t="n">
+        <v>26.74086021505376</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.2120725972607806</v>
+      </c>
+      <c r="F46" t="n">
+        <v>62</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.840909090909091</v>
+      </c>
+      <c r="H46" t="n">
+        <v>247.1935483870968</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.0002201917991616</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0131800519783872</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.08552691056486354</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.186702840077472</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.0624832093790208</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2.298495978785845</v>
+      </c>
+      <c r="C47" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>25.77579365079365</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.432221441315653</v>
+      </c>
+      <c r="F47" t="n">
+        <v>84</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.119047619047619</v>
+      </c>
+      <c r="H47" t="n">
+        <v>246.9761904761905</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.007437589660569957</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.1656331644804507</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.1268467868207248</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.171190968596325</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.8609352552685815</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.384598654135428</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.2496196546636936</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.0005382466201729781</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2.298495978785845</v>
+      </c>
+      <c r="C48" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>25.77579365079365</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.432221441315653</v>
+      </c>
+      <c r="F48" t="n">
+        <v>84</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.119047619047619</v>
+      </c>
+      <c r="H48" t="n">
+        <v>246.9761904761905</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.007437589660569957</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.1656331644804507</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.1268467868207248</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.171190968596325</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8609352552685815</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.384598654135428</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.2496196546636936</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.0005382466201729781</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2.298495978785845</v>
+      </c>
+      <c r="C49" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>25.77579365079365</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.432221441315653</v>
+      </c>
+      <c r="F49" t="n">
+        <v>84</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.119047619047619</v>
+      </c>
+      <c r="H49" t="n">
+        <v>246.9761904761905</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.007437589660569957</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.1656331644804507</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.1268467868207248</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.171190968596325</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.8609352552685815</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.384598654135428</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.2496196546636936</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.0005382466201729781</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>3.356276158041934</v>
+      </c>
+      <c r="C50" t="n">
+        <v>39.56521739130435</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9.826086956521738</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9239822074046888</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>11.76595744680851</v>
+      </c>
+      <c r="H50" t="n">
+        <v>129.7142857142857</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.219021949090658</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.8689368200534524</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.4825391587134136</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.393234592439232</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.1107357731852012</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.2042215663718334</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.246300255347904</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.0623713659254784</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.031377331380528</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.116049233409984</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.6303310635893761</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.307044355438516</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1.51938299213324</v>
+      </c>
+      <c r="C51" t="n">
+        <v>37.66401338518757</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5.889903553897571</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.3153822020298751</v>
+      </c>
+      <c r="F51" t="n">
+        <v>96.45824999999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>7.52345475655572</v>
+      </c>
+      <c r="H51" t="n">
+        <v>109.6927943702921</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.4718376235359882</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.3474367857043656</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.2236788371752667</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.1359169583904451</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.0388785555300647</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.1052592728199055</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.07098520503170161</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.0235879008556896</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.01445375668329936</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.06080943132049968</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.3263697893534415</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.5120992178087006</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.7751808042905101</v>
+      </c>
+      <c r="C52" t="n">
+        <v>36.12765957446808</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.111482292836703</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.06762738230965512</v>
+      </c>
+      <c r="F52" t="n">
+        <v>92</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4.152173913043478</v>
+      </c>
+      <c r="H52" t="n">
+        <v>89.38297872340425</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.1309819287176489</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.1166144550938717</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.08107488494595477</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.030796269688296</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.00856301441184</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.0150953711203008</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.005137808647104</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.177132069547776</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.1956771121882752</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>5.092654648822595</v>
+      </c>
+      <c r="C53" t="n">
+        <v>48.89189189189189</v>
+      </c>
+      <c r="D53" t="n">
+        <v>16.40436466686467</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.8673724950047269</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100</v>
+      </c>
+      <c r="G53" t="n">
+        <v>10.02083333333333</v>
+      </c>
+      <c r="H53" t="n">
+        <v>183.6486486486486</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.962473409984869</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.8323168455790273</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.296373657164951</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.429489023171127</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.7009540880625361</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.811227061054208</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.49123741860576</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.4753696286344321</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.14197689073312</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.383106546368448</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.4715529707822976</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.8540408053792743</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.015334732665181</v>
+      </c>
+      <c r="C54" t="n">
+        <v>39.17395779287023</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6.567674815537151</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.1581068816346881</v>
+      </c>
+      <c r="F54" t="n">
+        <v>93.69230769230769</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6.773453944605899</v>
+      </c>
+      <c r="H54" t="n">
+        <v>165.0559982401008</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.1978412794987237</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.2133834650346284</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2951975240287012</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.2382185848102863</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.157713802020619</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.2139816655874434</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.1209687568684401</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.08204362411353464</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.3095353614859749</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.1391484920884741</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.1356073230456007</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.1723969312261257</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.2750583832430287</v>
+      </c>
+      <c r="C55" t="n">
+        <v>36.42</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.375759138307513</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.04806869898449648</v>
+      </c>
+      <c r="F55" t="n">
+        <v>74</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3.804347826086957</v>
+      </c>
+      <c r="H55" t="n">
+        <v>145.3125</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.04759906824269391</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.07014426190129551</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.1086524200085184</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.0589104809340264</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.05105197234234685</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.0188982669849876</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.03838513927014127</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.00122328777312</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.018267764078592</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.02622284153651782</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.03086110394027136</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.03842131021057017</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.2090629386456408</v>
+      </c>
+      <c r="C56" t="n">
+        <v>56.84375</v>
+      </c>
+      <c r="D56" t="n">
+        <v>33.90520833333333</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.1490793667403878</v>
+      </c>
+      <c r="F56" t="n">
+        <v>64</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.46875</v>
+      </c>
+      <c r="H56" t="n">
+        <v>238.28125</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.019939590701856</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.0106344483743232</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.03243158302499869</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.08396805118279309</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.09735021961510811</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.0559496876345856</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.0131931586330992</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.2090629386456408</v>
+      </c>
+      <c r="C57" t="n">
+        <v>56.84375</v>
+      </c>
+      <c r="D57" t="n">
+        <v>33.90520833333333</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.1490793667403878</v>
+      </c>
+      <c r="F57" t="n">
+        <v>64</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.46875</v>
+      </c>
+      <c r="H57" t="n">
+        <v>238.28125</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.019939590701856</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.0106344483743232</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.03243158302499869</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.08396805118279309</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.09735021961510811</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.0559496876345856</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.0131931586330992</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.2090629386456408</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56.84375</v>
+      </c>
+      <c r="D58" t="n">
+        <v>33.90520833333333</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.1490793667403878</v>
+      </c>
+      <c r="F58" t="n">
+        <v>64</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.46875</v>
+      </c>
+      <c r="H58" t="n">
+        <v>238.28125</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.019939590701856</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.0106344483743232</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.03243158302499869</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.08396805118279309</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.09735021961510811</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.0559496876345856</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.0131931586330992</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3.441364542762329</v>
+      </c>
+      <c r="C59" t="n">
+        <v>44.07317073170731</v>
+      </c>
+      <c r="D59" t="n">
+        <v>16.57674418604651</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.346649232900936</v>
+      </c>
+      <c r="F59" t="n">
+        <v>98</v>
+      </c>
+      <c r="G59" t="n">
+        <v>6.673469387755102</v>
+      </c>
+      <c r="H59" t="n">
+        <v>218.9512195121951</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.2214621364644554</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.1995140175621716</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.77821490499984</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.39139326657349</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.378808425342656</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.8364958296192</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.032643078632222</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.418609075961664</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.308730649762752</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.50569249331456</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.61653703765248</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.134259910725826</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1.526284512286693</v>
+      </c>
+      <c r="C60" t="n">
+        <v>40.18283844309136</v>
+      </c>
+      <c r="D60" t="n">
+        <v>9.553318210294155</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.4545643936151672</v>
+      </c>
+      <c r="F60" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4.833846407252635</v>
+      </c>
+      <c r="H60" t="n">
+        <v>197.6996878870663</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0964467413864119</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.1142370920361221</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.3493838115087114</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.4890988358971935</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.4819085647006407</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.3838175690763501</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.4621460446387698</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.1596828888706961</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.1894873610068269</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.5267741322961907</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.2196650811019548</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.1210747034632554</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5938063120149347</v>
+      </c>
+      <c r="C61" t="n">
+        <v>37.08163265306123</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5.771058250139883</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.1118556240919475</v>
+      </c>
+      <c r="F61" t="n">
+        <v>82</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.534883720930233</v>
+      </c>
+      <c r="H61" t="n">
+        <v>174.5510204081633</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.00733972663872</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.1605531839826139</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.0992991616952381</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.1335404756847694</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.1126797990447923</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.09128872384605731</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.0405152910457344</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.06679151241235201</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.07478447472191525</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.06878954910844799</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.10275617294208</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1.873736095397328</v>
+      </c>
+      <c r="C62" t="n">
+        <v>65.14285714285714</v>
+      </c>
+      <c r="D62" t="n">
+        <v>23.87746598639456</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.6765391364903054</v>
+      </c>
+      <c r="F62" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="H62" t="n">
+        <v>203.2857142857143</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.158945857987392</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.3046965185287296</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.5155578511597744</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.7646014596389761</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.638066902459392</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.374430911812416</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.0254933171918208</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.026728837842672</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1.873736095397328</v>
+      </c>
+      <c r="C63" t="n">
+        <v>65.14285714285714</v>
+      </c>
+      <c r="D63" t="n">
+        <v>23.87746598639456</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.6765391364903054</v>
+      </c>
+      <c r="F63" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="H63" t="n">
+        <v>203.2857142857143</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.158945857987392</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.3046965185287296</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.5155578511597744</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.7646014596389761</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.638066902459392</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.374430911812416</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.0254933171918208</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.026728837842672</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1.873736095397328</v>
+      </c>
+      <c r="C64" t="n">
+        <v>65.14285714285714</v>
+      </c>
+      <c r="D64" t="n">
+        <v>23.87746598639456</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.6765391364903054</v>
+      </c>
+      <c r="F64" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="H64" t="n">
+        <v>203.2857142857143</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.158945857987392</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.3046965185287296</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.5155578511597744</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.7646014596389761</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.638066902459392</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.374430911812416</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.0254933171918208</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.026728837842672</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3.714968802568872</v>
+      </c>
+      <c r="C65" t="n">
+        <v>47.92105263157895</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8.548606701940034</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.6490596628681449</v>
+      </c>
+      <c r="F65" t="n">
+        <v>95.556</v>
+      </c>
+      <c r="G65" t="n">
+        <v>7.418604651162791</v>
+      </c>
+      <c r="H65" t="n">
+        <v>172.1842105263158</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.8843363186197384</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.8429748002674222</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1.144141054199136</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.084149582643245</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.699047797949424</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.43304387168448</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.468478440845856</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.116987087369376</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.1691073017561088</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.3698561650517395</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.2603855402784</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.536896472926912</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1.77456877386234</v>
+      </c>
+      <c r="C66" t="n">
+        <v>41.09167664956553</v>
+      </c>
+      <c r="D66" t="n">
+        <v>6.903409984317404</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.3009489133358232</v>
+      </c>
+      <c r="F66" t="n">
+        <v>88.889</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.927853228238004</v>
+      </c>
+      <c r="H66" t="n">
+        <v>159.4998076483473</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.462523723339396</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.4601975294301073</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5694540694953446</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.4724634550164403</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.2746153483168945</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.2119907468640564</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.2486676958255829</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.07411238003123641</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.123470512566912</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.1937899869169421</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.1957717489566572</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.3701929801881496</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.8537003450769449</v>
+      </c>
+      <c r="C67" t="n">
+        <v>38.04255319148936</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4.889516105949074</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.1316613486184723</v>
+      </c>
+      <c r="F67" t="n">
+        <v>76</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4.288888888888889</v>
+      </c>
+      <c r="H67" t="n">
+        <v>148.3829787234042</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.2421776166839477</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.2333501206863778</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.265794219789552</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.2299669805486226</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.08475225524592565</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.077648191398792</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.162452616270336</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.018267764078592</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.053498451944448</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.1508502022375901</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.1971613680196608</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1.741251116978496</v>
+      </c>
+      <c r="C68" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>28.38777777777778</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.6735047143042301</v>
+      </c>
+      <c r="F68" t="n">
+        <v>94</v>
+      </c>
+      <c r="G68" t="n">
+        <v>6.232558139534884</v>
+      </c>
+      <c r="H68" t="n">
+        <v>256.8723404255319</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.53335346908032</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.490798345672908</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.8203204701506304</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.543937173665536</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.194411009343096</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.143246998232352</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.312183039700224</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.127955901068352</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.08223289921704961</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.21529864806912</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.07589277344436481</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.4058053306030081</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.6203703232509391</v>
+      </c>
+      <c r="C69" t="n">
+        <v>45.26906580848759</v>
+      </c>
+      <c r="D69" t="n">
+        <v>14.21244327030503</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.2356370042183471</v>
+      </c>
+      <c r="F69" t="n">
+        <v>81.71428571428571</v>
+      </c>
+      <c r="G69" t="n">
+        <v>3.783598666124997</v>
+      </c>
+      <c r="H69" t="n">
+        <v>195.982973777948</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.1748605467884579</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.1856367371792335</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.2455566392675997</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.1840374238576615</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.0548897961568752</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.06428519523350959</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.1320605911174785</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.07468322441508253</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.05627153486244665</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.09338429069658515</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.04601198372913425</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.1322023077829589</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1015614285503328</v>
+      </c>
+      <c r="C70" t="n">
+        <v>38.6595744680851</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6.449540704773262</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.02280983708404645</v>
+      </c>
+      <c r="F70" t="n">
+        <v>60</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2.566666666666667</v>
+      </c>
+      <c r="H70" t="n">
+        <v>156.8604651162791</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.02366164763286912</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.02585704142302848</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.0345685833586548</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.016986224506752</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.0011743562621952</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.0200999773209984</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.02728910364276096</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.0225631831846769</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.0237256663596624</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.0314976213448848</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.009003398010163199</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.0102236275638504</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>4.686549531162661</v>
+      </c>
+      <c r="C71" t="n">
+        <v>39.52173913043478</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6.054240988480119</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.7141505995521095</v>
+      </c>
+      <c r="F71" t="n">
+        <v>100</v>
+      </c>
+      <c r="G71" t="n">
+        <v>10.20833333333333</v>
+      </c>
+      <c r="H71" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.7906633143863051</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.766472657741086</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1.165964508071598</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.23373524742819</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.6928294184360652</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1.106602430067994</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.4540914115979911</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.4659870114146024</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1.779290415319638</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.4202785039814522</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.4346679318327945</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.7213050484860464</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1.128686227377075</v>
+      </c>
+      <c r="C72" t="n">
+        <v>36.72186917701863</v>
+      </c>
+      <c r="D72" t="n">
+        <v>4.363595468443057</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.1548371769095206</v>
+      </c>
+      <c r="F72" t="n">
+        <v>98.49487500000001</v>
+      </c>
+      <c r="G72" t="n">
+        <v>8.312989315291334</v>
+      </c>
+      <c r="H72" t="n">
+        <v>161.5424292923691</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.1897960624847014</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.2230368050798492</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.2952014951508851</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.2671441742087171</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.1861182820029962</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.2065060839124349</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.106872116213542</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.08746214377087788</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.3566582652449973</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.1203487381786537</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.1235778323780349</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.1736152656817094</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.1323531109094796</v>
+      </c>
+      <c r="C73" t="n">
+        <v>35.52</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3.120910341987161</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.01163503441320759</v>
+      </c>
+      <c r="F73" t="n">
+        <v>92</v>
+      </c>
+      <c r="G73" t="n">
+        <v>6.347826086956522</v>
+      </c>
+      <c r="H73" t="n">
+        <v>146.1836734693877</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.023884693770168</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.03192571381367808</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.03160396153639023</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.0208754058482928</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.020868383270336</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.0083841085750212</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.0227613078318528</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.007149437429568001</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.01855445254644628</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.004912723696849921</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.0071317677172896</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.02509791901483169</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>3.356276158041934</v>
+      </c>
+      <c r="C74" t="n">
+        <v>38.06521739130435</v>
+      </c>
+      <c r="D74" t="n">
+        <v>9.826086956521738</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.9239822074046888</v>
+      </c>
+      <c r="F74" t="n">
+        <v>95.833</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4.152173913043478</v>
+      </c>
+      <c r="H74" t="n">
+        <v>105.7826086956522</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.219021949090658</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.8689368200534524</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.4825391587134136</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.393234592439232</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.00856301441184</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.18532809762768</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.005137808647104</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.6303310635893761</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.307044355438516</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>3.356276158041934</v>
+      </c>
+      <c r="C75" t="n">
+        <v>38.06521739130435</v>
+      </c>
+      <c r="D75" t="n">
+        <v>9.826086956521738</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.9239822074046888</v>
+      </c>
+      <c r="F75" t="n">
+        <v>95.833</v>
+      </c>
+      <c r="G75" t="n">
+        <v>4.152173913043478</v>
+      </c>
+      <c r="H75" t="n">
+        <v>105.7826086956522</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1.219021949090658</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.8689368200534524</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.4825391587134136</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.393234592439232</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.00856301441184</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.18532809762768</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.005137808647104</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.6303310635893761</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.307044355438516</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>3.356276158041934</v>
+      </c>
+      <c r="C76" t="n">
+        <v>38.06521739130435</v>
+      </c>
+      <c r="D76" t="n">
+        <v>9.826086956521738</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.9239822074046888</v>
+      </c>
+      <c r="F76" t="n">
+        <v>95.833</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4.152173913043478</v>
+      </c>
+      <c r="H76" t="n">
+        <v>105.7826086956522</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1.219021949090658</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.8689368200534524</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.4825391587134136</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.393234592439232</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.00856301441184</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.18532809762768</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.005137808647104</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.6303310635893761</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.307044355438516</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Tables/aq_hmf_metrics_outlet_50_90.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_50_90.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -559,10 +559,10 @@
         <v>1.459116551150861</v>
       </c>
       <c r="F2" t="n">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>5.857142857142857</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>227.3157894736842</v>
@@ -583,22 +583,22 @@
         <v>0.3204263682406892</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4388381781031584</v>
+        <v>0.3876998560356504</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5497350399163584</v>
+        <v>0.4988539577919978</v>
       </c>
       <c r="P2" t="n">
         <v>0.5649966616702066</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.557574566988096</v>
+        <v>0.4488038958281765</v>
       </c>
       <c r="R2" t="n">
         <v>0.3844809781419805</v>
       </c>
       <c r="S2" t="n">
-        <v>0.60124594048848</v>
+        <v>0.3279039186351805</v>
       </c>
       <c r="T2" t="n">
         <v>0.4429290155215085</v>
@@ -616,61 +616,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7652841551539147</v>
+        <v>0.9150127828785746</v>
       </c>
       <c r="C3" t="n">
-        <v>79.91818514431029</v>
+        <v>105.9217332995952</v>
       </c>
       <c r="D3" t="n">
-        <v>48.16508116109186</v>
+        <v>70.08921181559668</v>
       </c>
       <c r="E3" t="n">
-        <v>0.544557174075781</v>
+        <v>0.692601630723806</v>
       </c>
       <c r="F3" t="n">
-        <v>55.63842857142857</v>
+        <v>36.5</v>
       </c>
       <c r="G3" t="n">
-        <v>3.062833273660341</v>
+        <v>1.930394736842105</v>
       </c>
       <c r="H3" t="n">
-        <v>198.2986087700938</v>
+        <v>199.2596685222672</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1710151734055561</v>
+        <v>0.150071384314451</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1877180891248596</v>
+        <v>0.2036048616091744</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1734696906569251</v>
+        <v>0.2408137044961552</v>
       </c>
       <c r="L3" t="n">
-        <v>0.138063979532093</v>
+        <v>0.1974621803082511</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1505314578945185</v>
+        <v>0.1717871419701794</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2001318175760373</v>
+        <v>0.1855200791398453</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2275038759051833</v>
+        <v>0.1761262415644578</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2058150705139814</v>
+        <v>0.1906353520194909</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2134781826258301</v>
+        <v>0.1565130308365134</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1813077605390854</v>
+        <v>0.1531014293910231</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2107567823683997</v>
+        <v>0.139593751238577</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1686463255337614</v>
+        <v>0.1537173935222352</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -685,16 +685,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04215240958298392</v>
+        <v>0.1987441392930417</v>
       </c>
       <c r="C4" t="n">
-        <v>36.79591836734694</v>
+        <v>72.88</v>
       </c>
       <c r="D4" t="n">
-        <v>6.434905570619856</v>
+        <v>47.70400000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.006894834825010375</v>
+        <v>0.1296710483892881</v>
       </c>
       <c r="F4" t="n">
         <v>26</v>
@@ -712,19 +712,19 @@
         <v>0.0117231744924</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01578378311066727</v>
+        <v>0.04327427546941735</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001855972209377664</v>
+        <v>0.0570065694360288</v>
       </c>
       <c r="M4" t="n">
-        <v>8.073699302592e-05</v>
+        <v>0.06669854254159488</v>
       </c>
       <c r="N4" t="n">
-        <v>2.44657554624e-05</v>
+        <v>0.07390215061356044</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002127645108717514</v>
+        <v>0.02326530239437824</v>
       </c>
       <c r="P4" t="n">
         <v>0.000244657554624</v>
@@ -2824,16 +2824,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.517248836615685</v>
+        <v>0.5613206077733276</v>
       </c>
       <c r="C35" t="n">
-        <v>38.74468085106383</v>
+        <v>41.45454545454545</v>
       </c>
       <c r="D35" t="n">
-        <v>8.298388018600784</v>
+        <v>11.62651515151515</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06478477685864963</v>
+        <v>0.1606413858112602</v>
       </c>
       <c r="F35" t="n">
         <v>100</v>
@@ -2842,25 +2842,25 @@
         <v>14.92</v>
       </c>
       <c r="H35" t="n">
-        <v>156.06</v>
+        <v>164.1818181818182</v>
       </c>
       <c r="I35" t="n">
         <v>0.1160096589774643</v>
       </c>
       <c r="J35" t="n">
-        <v>0.109022482035427</v>
+        <v>0.1337481686740752</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1320635574942805</v>
+        <v>0.1646626895137728</v>
       </c>
       <c r="L35" t="n">
-        <v>0.09046063130817965</v>
+        <v>0.1403499153269078</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1353878249750252</v>
+        <v>0.1943571846810787</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0465602899053842</v>
+        <v>0.119866910668596</v>
       </c>
       <c r="O35" t="n">
         <v>0.06820318650253257</v>
@@ -2869,16 +2869,16 @@
         <v>0.04828928484391209</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.06681475488004136</v>
+        <v>0.1558631727991296</v>
       </c>
       <c r="R35" t="n">
-        <v>0.06806512973956617</v>
+        <v>0.3631452083284032</v>
       </c>
       <c r="S35" t="n">
         <v>0.08372744231608927</v>
       </c>
       <c r="T35" t="n">
-        <v>0.09298713270680749</v>
+        <v>0.1592598351824928</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -2893,61 +2893,61 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.343995680377283</v>
+        <v>0.3983269122262941</v>
       </c>
       <c r="C36" t="n">
-        <v>36.74822695035461</v>
+        <v>37.92480657640232</v>
       </c>
       <c r="D36" t="n">
-        <v>5.114174641737368</v>
+        <v>6.742259769181814</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0415262784303628</v>
+        <v>0.07130505527558714</v>
       </c>
       <c r="F36" t="n">
-        <v>98</v>
+        <v>95.5</v>
       </c>
       <c r="G36" t="n">
-        <v>9.053617021276596</v>
+        <v>7.68794003868472</v>
       </c>
       <c r="H36" t="n">
-        <v>154.3805673758866</v>
+        <v>156.8308800773694</v>
       </c>
       <c r="I36" t="n">
-        <v>0.06878747401586384</v>
+        <v>0.07984799703107301</v>
       </c>
       <c r="J36" t="n">
-        <v>0.06759006816811843</v>
+        <v>0.08412959329460763</v>
       </c>
       <c r="K36" t="n">
-        <v>0.07393184047893851</v>
+        <v>0.09661455273764709</v>
       </c>
       <c r="L36" t="n">
-        <v>0.05774098664710769</v>
+        <v>0.07839321881705771</v>
       </c>
       <c r="M36" t="n">
-        <v>0.07984266764256155</v>
+        <v>0.1084712969021908</v>
       </c>
       <c r="N36" t="n">
-        <v>0.03093539348715192</v>
+        <v>0.05316827278251294</v>
       </c>
       <c r="O36" t="n">
-        <v>0.03865131115575939</v>
+        <v>0.04084010307539714</v>
       </c>
       <c r="P36" t="n">
-        <v>0.02547867480786985</v>
+        <v>0.02131704053638398</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.03638458803806739</v>
+        <v>0.06625423422833294</v>
       </c>
       <c r="R36" t="n">
-        <v>0.03502527907872515</v>
+        <v>0.1170552613911447</v>
       </c>
       <c r="S36" t="n">
-        <v>0.05063967379375191</v>
+        <v>0.05401782260577534</v>
       </c>
       <c r="T36" t="n">
-        <v>0.07011540834154154</v>
+        <v>0.09240151505177935</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -2974,10 +2974,10 @@
         <v>0.02934333764144518</v>
       </c>
       <c r="F37" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G37" t="n">
-        <v>4.680851063829787</v>
+        <v>3.590909090909091</v>
       </c>
       <c r="H37" t="n">
         <v>152.72</v>
@@ -3241,10 +3241,10 @@
         <v>5.092654648822595</v>
       </c>
       <c r="C41" t="n">
-        <v>39.65217391304348</v>
+        <v>48.89189189189189</v>
       </c>
       <c r="D41" t="n">
-        <v>13.71076604554866</v>
+        <v>16.40436466686467</v>
       </c>
       <c r="E41" t="n">
         <v>0.8673724950047269</v>
@@ -3307,61 +3307,61 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.859790449691609</v>
+        <v>0.7907843246580615</v>
       </c>
       <c r="C42" t="n">
-        <v>37.1727641723356</v>
+        <v>37.98879067255574</v>
       </c>
       <c r="D42" t="n">
-        <v>6.123099039677384</v>
+        <v>6.791319895717668</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1318166005318793</v>
+        <v>0.1275219140370828</v>
       </c>
       <c r="F42" t="n">
-        <v>98</v>
+        <v>96.23529411764706</v>
       </c>
       <c r="G42" t="n">
-        <v>7.204810361825889</v>
+        <v>6.921919144861234</v>
       </c>
       <c r="H42" t="n">
-        <v>167.7461935817805</v>
+        <v>168.6492473264276</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1521074338422582</v>
+        <v>0.138428642316614</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1618678239365982</v>
+        <v>0.149738241172121</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2290240211913693</v>
+        <v>0.2103469434714651</v>
       </c>
       <c r="L42" t="n">
-        <v>0.199710899578136</v>
+        <v>0.188129908233719</v>
       </c>
       <c r="M42" t="n">
-        <v>0.1369744670892213</v>
+        <v>0.1313944304068594</v>
       </c>
       <c r="N42" t="n">
-        <v>0.2050124534612779</v>
+        <v>0.1890427626586348</v>
       </c>
       <c r="O42" t="n">
-        <v>0.08001813027010445</v>
+        <v>0.07860837239303617</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0789084292431281</v>
+        <v>0.06995123473403458</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.3220293029839441</v>
+        <v>0.2949232191559587</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1239932935638235</v>
+        <v>0.1162674522745605</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1023587072147054</v>
+        <v>0.09532897084848067</v>
       </c>
       <c r="T42" t="n">
-        <v>0.1389822097310819</v>
+        <v>0.1269484690586311</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.09469079199634521</v>
+        <v>0.07988175531323437</v>
       </c>
       <c r="C43" t="n">
         <v>36.38</v>
@@ -3385,10 +3385,10 @@
         <v>2.863468017620495</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01449324264915005</v>
+        <v>0.01425942114964943</v>
       </c>
       <c r="F43" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G43" t="n">
         <v>3.065217391304348</v>
@@ -3397,16 +3397,16 @@
         <v>147.72</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01811955124115311</v>
+        <v>0.016094971986336</v>
       </c>
       <c r="J43" t="n">
-        <v>0.02006850641333095</v>
+        <v>0.01860473908382746</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0328629464205504</v>
+        <v>0.0248997960870848</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0227892686952384</v>
+        <v>0.018695914799184</v>
       </c>
       <c r="M43" t="n">
         <v>0.009976785566774402</v>
@@ -3415,22 +3415,22 @@
         <v>0.0138965491026432</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0139363059552696</v>
+        <v>0.013333836727008</v>
       </c>
       <c r="P43" t="n">
-        <v>0.009268203833991531</v>
+        <v>0.00122328777312</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.04423032191364037</v>
+        <v>0.01732842734614167</v>
       </c>
       <c r="R43" t="n">
-        <v>0.03273949829494927</v>
+        <v>0.0171205919891328</v>
       </c>
       <c r="S43" t="n">
-        <v>0.0144837272337408</v>
+        <v>0.0136903377351744</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0147615883136352</v>
+        <v>0.01418369981149137</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4687,61 +4687,61 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.873736095397328</v>
+        <v>0.708410480109248</v>
       </c>
       <c r="C62" t="n">
-        <v>65.14285714285714</v>
+        <v>73.04000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>23.87746598639456</v>
+        <v>43.48333333333334</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6765391364903054</v>
+        <v>0.3171406645825489</v>
       </c>
       <c r="F62" t="n">
-        <v>56.00000000000001</v>
+        <v>76</v>
       </c>
       <c r="G62" t="n">
-        <v>3.142857142857143</v>
+        <v>4.676470588235294</v>
       </c>
       <c r="H62" t="n">
-        <v>203.2857142857143</v>
+        <v>231.5277777777778</v>
       </c>
       <c r="I62" t="n">
-        <v>0.158945857987392</v>
+        <v>0.07978935276434304</v>
       </c>
       <c r="J62" t="n">
-        <v>0.3046965185287296</v>
+        <v>0.112909461458976</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5155578511597744</v>
+        <v>0.190361053037088</v>
       </c>
       <c r="L62" t="n">
-        <v>0.7646014596389761</v>
+        <v>0.258183622286784</v>
       </c>
       <c r="M62" t="n">
-        <v>0.638066902459392</v>
+        <v>0.1934283901427312</v>
       </c>
       <c r="N62" t="n">
-        <v>0.374430911812416</v>
+        <v>0.1904536733970528</v>
       </c>
       <c r="O62" t="n">
-        <v>0.0254933171918208</v>
+        <v>0.05953741591775041</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>0.0002935890655488</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>0.000413634372350981</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>0.081226308135168</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>0.093214528311744</v>
       </c>
       <c r="T62" t="n">
-        <v>0.026728837842672</v>
+        <v>0.066220644784896</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -4756,61 +4756,61 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.873736095397328</v>
+        <v>0.3245773099820645</v>
       </c>
       <c r="C63" t="n">
-        <v>65.14285714285714</v>
+        <v>60.32048624158015</v>
       </c>
       <c r="D63" t="n">
-        <v>23.87746598639456</v>
+        <v>23.1270089607293</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6765391364903054</v>
+        <v>0.1377504127184475</v>
       </c>
       <c r="F63" t="n">
-        <v>56.00000000000001</v>
+        <v>62</v>
       </c>
       <c r="G63" t="n">
-        <v>3.142857142857143</v>
+        <v>3.478456349101344</v>
       </c>
       <c r="H63" t="n">
-        <v>203.2857142857143</v>
+        <v>212.077389369603</v>
       </c>
       <c r="I63" t="n">
-        <v>0.158945857987392</v>
+        <v>0.03256938557476188</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3046965185287296</v>
+        <v>0.04682151806675711</v>
       </c>
       <c r="K63" t="n">
-        <v>0.5155578511597744</v>
+        <v>0.07843045130869496</v>
       </c>
       <c r="L63" t="n">
-        <v>0.7646014596389761</v>
+        <v>0.1093833910855864</v>
       </c>
       <c r="M63" t="n">
-        <v>0.638066902459392</v>
+        <v>0.09774235812722086</v>
       </c>
       <c r="N63" t="n">
-        <v>0.374430911812416</v>
+        <v>0.09245266974282745</v>
       </c>
       <c r="O63" t="n">
-        <v>0.0254933171918208</v>
+        <v>0.01977069398035227</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>4.89315109248e-05</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>6.893906205849684e-05</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>0.01366661993280757</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>0.01616833041819072</v>
       </c>
       <c r="T63" t="n">
-        <v>0.026728837842672</v>
+        <v>0.01675609184396617</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -4825,46 +4825,46 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.873736095397328</v>
+        <v>0.07891300657263108</v>
       </c>
       <c r="C64" t="n">
-        <v>65.14285714285714</v>
+        <v>47.86842105263158</v>
       </c>
       <c r="D64" t="n">
-        <v>23.87746598639456</v>
+        <v>10.15952380952381</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6765391364903054</v>
+        <v>0.02109388754597282</v>
       </c>
       <c r="F64" t="n">
-        <v>56.00000000000001</v>
+        <v>50</v>
       </c>
       <c r="G64" t="n">
-        <v>3.142857142857143</v>
+        <v>2.28</v>
       </c>
       <c r="H64" t="n">
-        <v>203.2857142857143</v>
+        <v>192.28</v>
       </c>
       <c r="I64" t="n">
-        <v>0.158945857987392</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.3046965185287296</v>
+        <v>0.00142716906864</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5155578511597744</v>
+        <v>0.00841458882870144</v>
       </c>
       <c r="L64" t="n">
-        <v>0.7646014596389761</v>
+        <v>0.01450060016854245</v>
       </c>
       <c r="M64" t="n">
-        <v>0.638066902459392</v>
+        <v>0.0433148724922176</v>
       </c>
       <c r="N64" t="n">
-        <v>0.374430911812416</v>
+        <v>0.0257265064235718</v>
       </c>
       <c r="O64" t="n">
-        <v>0.0254933171918208</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>0.026728837842672</v>
+        <v>0</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>

--- a/Tables/aq_hmf_metrics_outlet_50_90.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_50_90.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U76"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +543,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -559,7 +559,7 @@
         <v>1.459116551150861</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G2" t="n">
         <v>2.25</v>
@@ -612,65 +612,65 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9150127828785746</v>
+        <v>1.153768997407085</v>
       </c>
       <c r="C3" t="n">
-        <v>105.9217332995952</v>
+        <v>116.9356443994602</v>
       </c>
       <c r="D3" t="n">
-        <v>70.08921181559668</v>
+        <v>77.55094908746224</v>
       </c>
       <c r="E3" t="n">
-        <v>0.692601630723806</v>
+        <v>0.8802451581686453</v>
       </c>
       <c r="F3" t="n">
-        <v>36.5</v>
+        <v>32</v>
       </c>
       <c r="G3" t="n">
-        <v>1.930394736842105</v>
+        <v>1.960526315789474</v>
       </c>
       <c r="H3" t="n">
-        <v>199.2596685222672</v>
+        <v>190.0395580296896</v>
       </c>
       <c r="I3" t="n">
-        <v>0.150071384314451</v>
+        <v>0.2000380923231891</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2036048616091744</v>
+        <v>0.2675654239814325</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2408137044961552</v>
+        <v>0.3066601808384011</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1974621803082511</v>
+        <v>0.2442807172656586</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1717871419701794</v>
+        <v>0.2068166751130408</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1855200791398453</v>
+        <v>0.2227260553152736</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1761262415644578</v>
+        <v>0.2270798879544843</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1906353520194909</v>
+        <v>0.2540989168411131</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1565130308365134</v>
+        <v>0.2086840411153512</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1531014293910231</v>
+        <v>0.2041352391880308</v>
       </c>
       <c r="S3" t="n">
-        <v>0.139593751238577</v>
+        <v>0.1861250016514361</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1537173935222352</v>
+        <v>0.2048341959190016</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -681,20 +681,20 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1987441392930417</v>
+        <v>0.588271544339356</v>
       </c>
       <c r="C4" t="n">
-        <v>72.88</v>
+        <v>96.15789473684211</v>
       </c>
       <c r="D4" t="n">
-        <v>47.70400000000001</v>
+        <v>64.29824561403508</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1296710483892881</v>
+        <v>0.4678852106594605</v>
       </c>
       <c r="F4" t="n">
         <v>26</v>
@@ -706,40 +706,40 @@
         <v>164.6153846153846</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001712602882368</v>
+        <v>0.08650487642869921</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0117231744924</v>
+        <v>0.175987887717318</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04327427546941735</v>
+        <v>0.2432067353250797</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0570065694360288</v>
+        <v>0.2209233252499258</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06669854254159488</v>
+        <v>0.1499824207111507</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07390215061356044</v>
+        <v>0.1229788673857152</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02326530239437824</v>
+        <v>0.07598902871656994</v>
       </c>
       <c r="P4" t="n">
-        <v>0.000244657554624</v>
+        <v>0.07769924327519043</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.05558614204222748</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.1071495375819743</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.104071207298184</v>
       </c>
       <c r="T4" t="n">
-        <v>0.000366986331936</v>
+        <v>0.08315433199438264</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -750,65 +750,65 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04583540903192919</v>
+        <v>1.958710644647035</v>
       </c>
       <c r="C5" t="n">
-        <v>58.70967741935484</v>
+        <v>140.4615384615385</v>
       </c>
       <c r="D5" t="n">
-        <v>18.79896429735139</v>
+        <v>95.49358974358974</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01361859924427433</v>
+        <v>1.459116551150861</v>
       </c>
       <c r="F5" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G5" t="n">
-        <v>7.891304347826087</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>233.195652173913</v>
+        <v>256.4857142857143</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0045169901022456</v>
+        <v>0.3784075582297352</v>
       </c>
       <c r="J5" t="n">
-        <v>0.008891399218490879</v>
+        <v>0.4062189183739204</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01709422334157888</v>
+        <v>0.3903492934709327</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01664650001661696</v>
+        <v>0.2904700312381368</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005693915268764352</v>
+        <v>0.3204263682406892</v>
       </c>
       <c r="N5" t="n">
-        <v>0.008609805169161841</v>
+        <v>0.3876998560356504</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01942116134360775</v>
+        <v>0.4988539577919978</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01692769309939814</v>
+        <v>0.5649966616702066</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01821292001009712</v>
+        <v>0.4488038958281765</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01376688059869248</v>
+        <v>0.3844809781419805</v>
       </c>
       <c r="S5" t="n">
-        <v>0.00462804715650528</v>
+        <v>0.3279039186351805</v>
       </c>
       <c r="T5" t="n">
-        <v>0.00779968284141312</v>
+        <v>0.4429290155215085</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -819,65 +819,65 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03861190159442009</v>
+        <v>0.2725162445226081</v>
       </c>
       <c r="C6" t="n">
-        <v>49.00701262272089</v>
+        <v>64.13772891602869</v>
       </c>
       <c r="D6" t="n">
-        <v>11.70747999322245</v>
+        <v>27.00150265452449</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008679885916268813</v>
+        <v>0.1633211030442289</v>
       </c>
       <c r="F6" t="n">
-        <v>77</v>
+        <v>65.26670588235295</v>
       </c>
       <c r="G6" t="n">
-        <v>5.590813464235624</v>
+        <v>3.578695492013371</v>
       </c>
       <c r="H6" t="n">
-        <v>224.8075035063113</v>
+        <v>205.4588645352735</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00337291021243512</v>
+        <v>0.07727452596515116</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0085840821457104</v>
+        <v>0.07019587739234021</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01352222304406848</v>
+        <v>0.06620869605167401</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009357452442783359</v>
+        <v>0.0585461318497178</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004182500050212011</v>
+        <v>0.05734942140386728</v>
       </c>
       <c r="N6" t="n">
-        <v>0.007192528977020368</v>
+        <v>0.05207643270545237</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01140470769056406</v>
+        <v>0.04221044477592902</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01182871447157172</v>
+        <v>0.0437392138315068</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0129396165589435</v>
+        <v>0.03668094702770803</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01160541265610765</v>
+        <v>0.05580096450001317</v>
       </c>
       <c r="S6" t="n">
-        <v>0.003992938997330104</v>
+        <v>0.03193094497556939</v>
       </c>
       <c r="T6" t="n">
-        <v>0.004988812196337985</v>
+        <v>0.05308019591376217</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -888,65 +888,65 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.031388394156911</v>
+        <v>0.0007478643198235508</v>
       </c>
       <c r="C7" t="n">
-        <v>39.30434782608695</v>
+        <v>36.875</v>
       </c>
       <c r="D7" t="n">
-        <v>4.615995689093515</v>
+        <v>5.124822573260073</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003741172588263293</v>
+        <v>0.0001914148280759329</v>
       </c>
       <c r="F7" t="n">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>3.290322580645161</v>
+        <v>1.769230769230769</v>
       </c>
       <c r="H7" t="n">
-        <v>216.4193548387097</v>
+        <v>135.4545454545455</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00222883032262464</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.008276765072929921</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.009950222746558081</v>
+        <v>4.89315109248e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00206840486894976</v>
+        <v>1.5658083495936e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002671084831659671</v>
+        <v>1.851242163321599e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.005775252784878895</v>
+        <v>1.94747413480704e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003388254037520375</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.006729735843745297</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.007666313107789884</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.009443944713522815</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.003357830838154929</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.002177941551262848</v>
+        <v>0</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -957,65 +957,65 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.714932262655245</v>
+        <v>0.04583540903192919</v>
       </c>
       <c r="C8" t="n">
-        <v>49.37837837837838</v>
+        <v>58.70967741935484</v>
       </c>
       <c r="D8" t="n">
-        <v>21.54144144144144</v>
+        <v>18.79896429735139</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4595582128710188</v>
+        <v>0.01361859924427433</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="G8" t="n">
-        <v>12.54</v>
+        <v>3.290322580645161</v>
       </c>
       <c r="H8" t="n">
-        <v>147.5128205128205</v>
+        <v>216.4193548387097</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9068664010764367</v>
+        <v>0.0045169901022456</v>
       </c>
       <c r="J8" t="n">
-        <v>0.82445773133997</v>
+        <v>0.008891399218490879</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8879806484182173</v>
+        <v>0.01709422334157888</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3685210020513688</v>
+        <v>0.01664650001661696</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07434327559841281</v>
+        <v>0.005693915268764352</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05521105482681599</v>
+        <v>0.005775252784878895</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0014037227196552</v>
+        <v>0.01942116134360775</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0037493770246128</v>
+        <v>0.01692769309939814</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.009015630887894401</v>
+        <v>0.01821292001009712</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03149558253192961</v>
+        <v>0.01376688059869248</v>
       </c>
       <c r="S8" t="n">
-        <v>0.477134658135648</v>
+        <v>0.003357830838154929</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7558433017014241</v>
+        <v>0.00779968284141312</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1026,65 +1026,65 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7026512993645214</v>
+        <v>0.04583540903192919</v>
       </c>
       <c r="C9" t="n">
-        <v>40.69052835068251</v>
+        <v>58.70967741935484</v>
       </c>
       <c r="D9" t="n">
-        <v>9.712533867809679</v>
+        <v>18.79896429735139</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1215432167307034</v>
+        <v>0.01361859924427433</v>
       </c>
       <c r="F9" t="n">
-        <v>90.26627272727272</v>
+        <v>62</v>
       </c>
       <c r="G9" t="n">
-        <v>5.641820384536533</v>
+        <v>3.290322580645161</v>
       </c>
       <c r="H9" t="n">
-        <v>129.5588801016769</v>
+        <v>216.4193548387097</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2401602887488765</v>
+        <v>0.0045169901022456</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2169817621523794</v>
+        <v>0.008891399218490879</v>
       </c>
       <c r="K9" t="n">
-        <v>0.189678812811631</v>
+        <v>0.01709422334157888</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08268886225451978</v>
+        <v>0.01664650001661696</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02520112702155438</v>
+        <v>0.005693915268764352</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01389865241622644</v>
+        <v>0.005775252784878895</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00025505550069552</v>
+        <v>0.01942116134360775</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0005140966953718235</v>
+        <v>0.01692769309939814</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001031526892697699</v>
+        <v>0.01821292001009712</v>
       </c>
       <c r="R9" t="n">
-        <v>0.00889065157136436</v>
+        <v>0.01376688059869248</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1050734290209631</v>
+        <v>0.003357830838154929</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1874206393589068</v>
+        <v>0.00779968284141312</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1095,65 +1095,65 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04261318181016023</v>
+        <v>0.04583540903192919</v>
       </c>
       <c r="C10" t="n">
-        <v>36.48979591836735</v>
+        <v>58.70967741935484</v>
       </c>
       <c r="D10" t="n">
-        <v>2.815246657453314</v>
+        <v>18.79896429735139</v>
       </c>
       <c r="E10" t="n">
-        <v>0.006799584455391401</v>
+        <v>0.01361859924427433</v>
       </c>
       <c r="F10" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G10" t="n">
-        <v>2.783783783783784</v>
+        <v>3.290322580645161</v>
       </c>
       <c r="H10" t="n">
-        <v>105.3265306122449</v>
+        <v>216.4193548387097</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01675626562849903</v>
+        <v>0.0045169901022456</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01878565308563896</v>
+        <v>0.008891399218490879</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01398996441887908</v>
+        <v>0.01709422334157888</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004219499170523918</v>
+        <v>0.01664650001661696</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001612831531592324</v>
+        <v>0.005693915268764352</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.005775252784878895</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.01942116134360775</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.01692769309939814</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.01821292001009712</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.01376688059869248</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.003357830838154929</v>
       </c>
       <c r="T10" t="n">
-        <v>0.004986993901392016</v>
+        <v>0.00779968284141312</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1164,65 +1164,65 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.620777285531257</v>
+        <v>2.492356467022601</v>
       </c>
       <c r="C11" t="n">
-        <v>46.8421052631579</v>
+        <v>62.93103448275862</v>
       </c>
       <c r="D11" t="n">
-        <v>17.44886363636364</v>
+        <v>21.54144144144144</v>
       </c>
       <c r="E11" t="n">
-        <v>1.142383504758437</v>
+        <v>0.3615157880086893</v>
       </c>
       <c r="F11" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>4.531914893617022</v>
+        <v>7.244897959183674</v>
       </c>
       <c r="H11" t="n">
-        <v>215.4042553191489</v>
+        <v>156.2068965517241</v>
       </c>
       <c r="I11" t="n">
-        <v>0.014557124500128</v>
+        <v>0.8696903258607984</v>
       </c>
       <c r="J11" t="n">
-        <v>0.13578494281632</v>
+        <v>0.7118782047082635</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4556682571304994</v>
+        <v>0.5545836283828176</v>
       </c>
       <c r="L11" t="n">
-        <v>1.239306726509006</v>
+        <v>0.250855546007808</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04215380500016</v>
+        <v>0.06536805027635782</v>
       </c>
       <c r="N11" t="n">
-        <v>0.662491881662688</v>
+        <v>0.02935890655488</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5187229473138049</v>
+        <v>0.00102946462151232</v>
       </c>
       <c r="P11" t="n">
-        <v>0.104468775824448</v>
+        <v>0.0037493770246128</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3880268816336641</v>
+        <v>0.001004368193242445</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6272204175377279</v>
+        <v>0.016636713714432</v>
       </c>
       <c r="S11" t="n">
-        <v>0.110748319726464</v>
+        <v>0.3932951743099009</v>
       </c>
       <c r="T11" t="n">
-        <v>0.058554708073344</v>
+        <v>0.7469467100775021</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1233,65 +1233,65 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.29013479197118</v>
+        <v>0.6536055359491029</v>
       </c>
       <c r="C12" t="n">
-        <v>42.22460891105908</v>
+        <v>44.78050502120699</v>
       </c>
       <c r="D12" t="n">
-        <v>14.38877893238196</v>
+        <v>11.33766630507042</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4977214868988384</v>
+        <v>0.1233093842325464</v>
       </c>
       <c r="F12" t="n">
-        <v>86</v>
+        <v>85.2</v>
       </c>
       <c r="G12" t="n">
-        <v>3.294928569004717</v>
+        <v>5.189019834401607</v>
       </c>
       <c r="H12" t="n">
-        <v>207.1483083918694</v>
+        <v>133.0100063557576</v>
       </c>
       <c r="I12" t="n">
-        <v>0.009337763334816</v>
+        <v>0.2234357590283037</v>
       </c>
       <c r="J12" t="n">
-        <v>0.09053070907617163</v>
+        <v>0.2072746889966866</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2760184681949414</v>
+        <v>0.168058088880091</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6017952498406026</v>
+        <v>0.07822632245810736</v>
       </c>
       <c r="M12" t="n">
-        <v>0.438351338695356</v>
+        <v>0.02496028546331168</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3339318881208427</v>
+        <v>0.012076661658413</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2567327641533312</v>
+        <v>0.000261674846756736</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0691658557281792</v>
+        <v>0.00076333157042688</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2210236348473217</v>
+        <v>0.000200873638648489</v>
       </c>
       <c r="R12" t="n">
-        <v>0.432113784631584</v>
+        <v>0.004667219627086922</v>
       </c>
       <c r="S12" t="n">
-        <v>0.08494646217408959</v>
+        <v>0.08720153677667793</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0252758438099328</v>
+        <v>0.1658981813046871</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1302,65 +1302,65 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4495968867618038</v>
+        <v>0.08625921860747414</v>
       </c>
       <c r="C13" t="n">
-        <v>38.46808510638298</v>
+        <v>36.48979591836735</v>
       </c>
       <c r="D13" t="n">
-        <v>8.598467312829015</v>
+        <v>4.480660099537651</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1667307969919607</v>
+        <v>0.009997120041877906</v>
       </c>
       <c r="F13" t="n">
-        <v>76</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>2.431818181818182</v>
+        <v>2.783783783783784</v>
       </c>
       <c r="H13" t="n">
-        <v>200.6315789473684</v>
+        <v>122.8541666666667</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.02978059219959106</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06387786335273891</v>
+        <v>0.0360561080868119</v>
       </c>
       <c r="K13" t="n">
-        <v>0.157528882983528</v>
+        <v>0.0257910246595391</v>
       </c>
       <c r="L13" t="n">
-        <v>0.17481364795872</v>
+        <v>0.01078584573122526</v>
       </c>
       <c r="M13" t="n">
-        <v>0.091196103486096</v>
+        <v>0.001639345420297733</v>
       </c>
       <c r="N13" t="n">
-        <v>0.145326587446656</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.076373933301792</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.020481332429952</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1334851618028544</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.191060074621728</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.05645473072948801</v>
+        <v>0.0009537974767016694</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.008147482089974366</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1371,65 +1371,65 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.58571155616814</v>
+        <v>2.620777285531257</v>
       </c>
       <c r="C14" t="n">
-        <v>90.75</v>
+        <v>48.94594594594594</v>
       </c>
       <c r="D14" t="n">
-        <v>49.06666666666667</v>
+        <v>22.41</v>
       </c>
       <c r="E14" t="n">
-        <v>1.190544000170998</v>
+        <v>1.142383504758437</v>
       </c>
       <c r="F14" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>2.666666666666667</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>173.55</v>
+        <v>215.468085106383</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7286207798645999</v>
+        <v>0.04549689525411692</v>
       </c>
       <c r="J14" t="n">
-        <v>0.939997625584896</v>
+        <v>0.177743713434336</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8696891025730252</v>
+        <v>0.469090084732416</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8489993541690684</v>
+        <v>1.239306726509006</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4985932765118178</v>
+        <v>1.04215380500016</v>
       </c>
       <c r="N14" t="n">
-        <v>0.33151098651552</v>
+        <v>0.662491881662688</v>
       </c>
       <c r="O14" t="n">
-        <v>0.154903183156224</v>
+        <v>0.5187229473138049</v>
       </c>
       <c r="P14" t="n">
-        <v>0.002691233100864</v>
+        <v>0.149485765875264</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.052112059134912</v>
+        <v>0.3880268816336641</v>
       </c>
       <c r="R14" t="n">
-        <v>0.206001660993408</v>
+        <v>0.6272204175377279</v>
       </c>
       <c r="S14" t="n">
-        <v>0.470598806319264</v>
+        <v>0.244902212178624</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6888803945736074</v>
+        <v>0.05829840015897601</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1440,65 +1440,65 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.335567926574961</v>
+        <v>0.8078330381435048</v>
       </c>
       <c r="C15" t="n">
-        <v>72.92045454545455</v>
+        <v>40.26116214116879</v>
       </c>
       <c r="D15" t="n">
-        <v>35.2979797979798</v>
+        <v>12.48517425432989</v>
       </c>
       <c r="E15" t="n">
-        <v>1.118051134882569</v>
+        <v>0.2805653015662923</v>
       </c>
       <c r="F15" t="n">
-        <v>53</v>
+        <v>90.95650000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>2.408333333333333</v>
+        <v>4.140911598459762</v>
       </c>
       <c r="H15" t="n">
-        <v>157.0931818181818</v>
+        <v>206.0133334307729</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6094572596655481</v>
+        <v>0.01104832279152981</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6862149266914079</v>
+        <v>0.04535357491436994</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6977362895404307</v>
+        <v>0.181129569024242</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7813891799393207</v>
+        <v>0.3803036075081255</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4616050273240689</v>
+        <v>0.2469150700234328</v>
       </c>
       <c r="N15" t="n">
-        <v>0.326903269236768</v>
+        <v>0.1980485692192868</v>
       </c>
       <c r="O15" t="n">
-        <v>0.077451591578112</v>
+        <v>0.1522337487373167</v>
       </c>
       <c r="P15" t="n">
-        <v>0.001345616550432</v>
+        <v>0.06348820177264865</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.026056029567456</v>
+        <v>0.1192531654900782</v>
       </c>
       <c r="R15" t="n">
-        <v>0.103000830496704</v>
+        <v>0.2164000927578809</v>
       </c>
       <c r="S15" t="n">
-        <v>0.270897077357424</v>
+        <v>0.06647636441640148</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4805187291686725</v>
+        <v>0.02060081657775984</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1509,65 +1509,65 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.085424296981782</v>
+        <v>0.1122014224958942</v>
       </c>
       <c r="C16" t="n">
-        <v>55.09090909090909</v>
+        <v>36.4</v>
       </c>
       <c r="D16" t="n">
-        <v>21.52929292929293</v>
+        <v>4.689533688533688</v>
       </c>
       <c r="E16" t="n">
-        <v>1.04555826959414</v>
+        <v>0.02373674456371538</v>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="G16" t="n">
-        <v>2.15</v>
+        <v>1.84</v>
       </c>
       <c r="H16" t="n">
-        <v>140.6363636363636</v>
+        <v>185.88</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4902937394664961</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.43243222779792</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5257834765078362</v>
+        <v>0.0101101821858432</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7137790057095729</v>
+        <v>0.0275536833125472</v>
       </c>
       <c r="M16" t="n">
-        <v>0.42461677813632</v>
+        <v>0.0230071304224512</v>
       </c>
       <c r="N16" t="n">
-        <v>0.322295551958016</v>
+        <v>0.007404968653286399</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.000489315109248</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.0057861511668576</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.01483736860815185</v>
       </c>
       <c r="S16" t="n">
-        <v>0.071195348395584</v>
+        <v>0.007241863616870401</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2721570637637376</v>
+        <v>0</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1578,65 +1578,65 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.758101408901094</v>
+        <v>0.363670712367606</v>
       </c>
       <c r="C17" t="n">
-        <v>52.2</v>
+        <v>46.84615384615385</v>
       </c>
       <c r="D17" t="n">
-        <v>13.60232142857143</v>
+        <v>10.80590659340659</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9225659669249319</v>
+        <v>0.04888506315634342</v>
       </c>
       <c r="F17" t="n">
         <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>9.387755102040817</v>
+        <v>12.04</v>
       </c>
       <c r="H17" t="n">
-        <v>216.7083333333333</v>
+        <v>244.98</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8811269871679059</v>
+        <v>0.00947314051504128</v>
       </c>
       <c r="J17" t="n">
-        <v>1.099506834838619</v>
+        <v>0.02415993351912</v>
       </c>
       <c r="K17" t="n">
-        <v>1.182112567913415</v>
+        <v>0.08532591776786756</v>
       </c>
       <c r="L17" t="n">
-        <v>1.34895494222574</v>
+        <v>0.069661141646796</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7019081325953958</v>
+        <v>0.1065166256803143</v>
       </c>
       <c r="N17" t="n">
-        <v>0.809531071991712</v>
+        <v>0.07456302657315166</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7841274625699201</v>
+        <v>0.06298590361107158</v>
       </c>
       <c r="P17" t="n">
-        <v>0.298115230309344</v>
+        <v>0.04858120578977019</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.6261398466714719</v>
+        <v>0.04475945578279074</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3480933318844801</v>
+        <v>0.1180130180484326</v>
       </c>
       <c r="S17" t="n">
-        <v>0.501181000647264</v>
+        <v>0.06814528421460481</v>
       </c>
       <c r="T17" t="n">
-        <v>0.5070542211203266</v>
+        <v>0.02282410327087296</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -1647,65 +1647,65 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.991924681523263</v>
+        <v>0.09050775927356101</v>
       </c>
       <c r="C18" t="n">
-        <v>39.98567505848258</v>
+        <v>39.1000342409195</v>
       </c>
       <c r="D18" t="n">
-        <v>7.878613042529049</v>
+        <v>5.888482619500778</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2162704231085049</v>
+        <v>0.01268346122226075</v>
       </c>
       <c r="F18" t="n">
-        <v>91.8492</v>
+        <v>94</v>
       </c>
       <c r="G18" t="n">
-        <v>5.769564836192218</v>
+        <v>7.151320286434268</v>
       </c>
       <c r="H18" t="n">
-        <v>169.9024254484496</v>
+        <v>221.8737813832571</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2305341756458401</v>
+        <v>0.002610952899026378</v>
       </c>
       <c r="J18" t="n">
-        <v>0.221296032403221</v>
+        <v>0.005442144845895538</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2732460429424261</v>
+        <v>0.020180906107496</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2605853709608194</v>
+        <v>0.01776458878783578</v>
       </c>
       <c r="M18" t="n">
-        <v>0.22456479917225</v>
+        <v>0.02796439593830944</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1919900404976269</v>
+        <v>0.02091248448687662</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1961444721859509</v>
+        <v>0.01381876786248189</v>
       </c>
       <c r="P18" t="n">
-        <v>0.105788592698036</v>
+        <v>0.01191947375221815</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1381371379020812</v>
+        <v>0.0132334380006439</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1365532380135168</v>
+        <v>0.02725365971990574</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1377500982469944</v>
+        <v>0.01659012295495244</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1614427671029559</v>
+        <v>0.005750302656884111</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -1716,65 +1716,65 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.173715851203414</v>
+        <v>0.01524867843717929</v>
       </c>
       <c r="C19" t="n">
-        <v>36.46</v>
+        <v>36.52</v>
       </c>
       <c r="D19" t="n">
-        <v>3.631907079848256</v>
+        <v>2.948670977255646</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01970392901484785</v>
+        <v>0.0013286907019364</v>
       </c>
       <c r="F19" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G19" t="n">
-        <v>3.020833333333333</v>
+        <v>4.307692307692307</v>
       </c>
       <c r="H19" t="n">
-        <v>145.8913043478261</v>
+        <v>207.3829787234042</v>
       </c>
       <c r="I19" t="n">
-        <v>0.007864700586554465</v>
+        <v>0.000337522572143424</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02251909685277506</v>
+        <v>6.624782895763201e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02025872201610758</v>
+        <v>0.0007108636457579695</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03294418826249856</v>
+        <v>0.002496417183268001</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0427172090373504</v>
+        <v>0.004234474703633471</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0231350902069728</v>
+        <v>0.003228594789456245</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0091257267874752</v>
+        <v>0.001693971268592788</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.001187608546404</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0290381333165952</v>
+        <v>0.001498688480989516</v>
       </c>
       <c r="R19" t="n">
-        <v>0.01485934853819294</v>
+        <v>0.00255778424308538</v>
       </c>
       <c r="S19" t="n">
-        <v>0.01098769954529785</v>
+        <v>0.001383416142621408</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02337784486950531</v>
+        <v>0.0001329602601402066</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -1785,65 +1785,65 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.729287427987646</v>
+        <v>2.58571155616814</v>
       </c>
       <c r="C20" t="n">
-        <v>49.37837837837838</v>
+        <v>90.75</v>
       </c>
       <c r="D20" t="n">
-        <v>18.55965250965251</v>
+        <v>49.06666666666667</v>
       </c>
       <c r="E20" t="n">
-        <v>1.123048147155037</v>
+        <v>1.190544000170998</v>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="G20" t="n">
-        <v>5.767441860465116</v>
+        <v>4.384615384615385</v>
       </c>
       <c r="H20" t="n">
-        <v>241.1860465116279</v>
+        <v>173.55</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3587005960860679</v>
+        <v>0.7286207798645999</v>
       </c>
       <c r="J20" t="n">
-        <v>0.32784112319616</v>
+        <v>0.939997625584896</v>
       </c>
       <c r="K20" t="n">
-        <v>0.632195121148416</v>
+        <v>0.8696891025730252</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4989526596397511</v>
+        <v>0.8489993541690684</v>
       </c>
       <c r="M20" t="n">
-        <v>1.710444139238965</v>
+        <v>0.4985932765118178</v>
       </c>
       <c r="N20" t="n">
-        <v>2.742251396813534</v>
+        <v>0.33151098651552</v>
       </c>
       <c r="O20" t="n">
-        <v>1.536327114261408</v>
+        <v>0.154903183156224</v>
       </c>
       <c r="P20" t="n">
-        <v>0.15556142848176</v>
+        <v>0.002691233100864</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.06361096420223999</v>
+        <v>0.052112059134912</v>
       </c>
       <c r="R20" t="n">
-        <v>0.001345616550432</v>
+        <v>0.206001660993408</v>
       </c>
       <c r="S20" t="n">
-        <v>0.05627123756352</v>
+        <v>0.470598806319264</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1225448914852512</v>
+        <v>0.6888803945736074</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -1854,65 +1854,65 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.254693091469068</v>
+        <v>1.560713617024633</v>
       </c>
       <c r="C21" t="n">
-        <v>41.32702639783292</v>
+        <v>64.18628593628594</v>
       </c>
       <c r="D21" t="n">
-        <v>10.37422175320666</v>
+        <v>26.84199535032869</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3480989642683849</v>
+        <v>0.7462094067343642</v>
       </c>
       <c r="F21" t="n">
-        <v>88.98475000000001</v>
+        <v>61.33333333333334</v>
       </c>
       <c r="G21" t="n">
-        <v>4.4373238439206</v>
+        <v>3.067094017094017</v>
       </c>
       <c r="H21" t="n">
-        <v>190.9022050283266</v>
+        <v>152.6604118104118</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1128637038359303</v>
+        <v>0.4073378825152807</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1244017556247542</v>
+        <v>0.4588065605780314</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2273480138827281</v>
+        <v>0.4663389396337246</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1769686386404138</v>
+        <v>0.5219024327273173</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4574247788794752</v>
+        <v>0.3085758534990297</v>
       </c>
       <c r="N21" t="n">
-        <v>0.6233205313309315</v>
+        <v>0.2188491456859962</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2372671974635593</v>
+        <v>0.0517852665440928</v>
       </c>
       <c r="P21" t="n">
-        <v>0.01944517856022</v>
+        <v>0.00089952427583424</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.007951370525279999</v>
+        <v>0.017370686378304</v>
       </c>
       <c r="R21" t="n">
-        <v>0.000168202068804</v>
+        <v>0.06866722033113599</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01550303177069304</v>
+        <v>0.1808635457946421</v>
       </c>
       <c r="T21" t="n">
-        <v>0.05459922430455881</v>
+        <v>0.3209648787863187</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -1923,47 +1923,47 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1101536387636913</v>
+        <v>0.01100499792397783</v>
       </c>
       <c r="C22" t="n">
-        <v>36.32</v>
+        <v>46.71794871794872</v>
       </c>
       <c r="D22" t="n">
-        <v>6.747155122655123</v>
+        <v>9.930026455026455</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02115819176472777</v>
+        <v>0.002525950437954329</v>
       </c>
       <c r="F22" t="n">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
-        <v>2.810810810810811</v>
+        <v>2.15</v>
       </c>
       <c r="H22" t="n">
-        <v>141.390243902439</v>
+        <v>140.6363636363636</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01890019070366307</v>
+        <v>0.003099128214746088</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0278216415866592</v>
+        <v>0.003989828351278457</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0338973041931552</v>
+        <v>0.003544239820312397</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0323594567069472</v>
+        <v>0.002928938303310768</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00776869288449408</v>
+        <v>0.002517505848951408</v>
       </c>
       <c r="N22" t="n">
-        <v>0.015107603998032</v>
+        <v>0.002740898584452672</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1978,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.000796482669078432</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0101797930853136</v>
+        <v>0.001857178021611168</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -1992,65 +1992,65 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.116567115145309</v>
+        <v>3.758101408901094</v>
       </c>
       <c r="C23" t="n">
-        <v>48.86486486486486</v>
+        <v>38.84782608695652</v>
       </c>
       <c r="D23" t="n">
-        <v>12.530710414247</v>
+        <v>12.36215277777778</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7714091967531689</v>
+        <v>0.9225659669249319</v>
       </c>
       <c r="F23" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>6.431818181818182</v>
+        <v>9.387755102040817</v>
       </c>
       <c r="H23" t="n">
-        <v>198.1363636363636</v>
+        <v>177.2857142857143</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4472217769749387</v>
+        <v>0.8811269871679059</v>
       </c>
       <c r="J23" t="n">
-        <v>0.177108768828288</v>
+        <v>1.099506834838619</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5353134479345834</v>
+        <v>1.182112567913415</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4098242387002962</v>
+        <v>1.34895494222574</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8321335297011402</v>
+        <v>0.7019081325953958</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9017608536460915</v>
+        <v>0.475614286189056</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6446237249233128</v>
+        <v>0.4184329225223352</v>
       </c>
       <c r="P23" t="n">
-        <v>0.5914188620444131</v>
+        <v>0.2270177449356099</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.07573374603385837</v>
+        <v>0.215696216595384</v>
       </c>
       <c r="R23" t="n">
-        <v>0.275843237586738</v>
+        <v>0.278769807954432</v>
       </c>
       <c r="S23" t="n">
-        <v>0.3237722798646424</v>
+        <v>0.2900605599276676</v>
       </c>
       <c r="T23" t="n">
-        <v>0.4804248653568488</v>
+        <v>0.5070542211203266</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2061,65 +2061,65 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.972598508179832</v>
+        <v>1.194228884099768</v>
       </c>
       <c r="C24" t="n">
-        <v>43.96968073949781</v>
+        <v>37.52495828534929</v>
       </c>
       <c r="D24" t="n">
-        <v>8.61413441541629</v>
+        <v>7.041974065072841</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2710834449093962</v>
+        <v>0.2497082713100133</v>
       </c>
       <c r="F24" t="n">
-        <v>83</v>
+        <v>97.18780000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>5.175612003355906</v>
+        <v>5.962085745645776</v>
       </c>
       <c r="H24" t="n">
-        <v>182.9562346437346</v>
+        <v>157.3500828760428</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1791808743997442</v>
+        <v>0.2567442527469745</v>
       </c>
       <c r="J24" t="n">
-        <v>0.129538858498283</v>
+        <v>0.3121480836105066</v>
       </c>
       <c r="K24" t="n">
-        <v>0.238116594071144</v>
+        <v>0.3683345966964269</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1781608637626219</v>
+        <v>0.3995316045563646</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3303075619150302</v>
+        <v>0.2438370044833199</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3824277915554453</v>
+        <v>0.1316918208819154</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2882992869206501</v>
+        <v>0.1184953793881468</v>
       </c>
       <c r="P24" t="n">
-        <v>0.2026518913080137</v>
+        <v>0.07900771265357849</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.04935306948350331</v>
+        <v>0.1143524833964047</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1607298772440143</v>
+        <v>0.09111158114374267</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1785277938473758</v>
+        <v>0.08629349185091185</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2428982714200115</v>
+        <v>0.1802206349617537</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2130,65 +2130,65 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2153310486641918</v>
+        <v>0.173715851203414</v>
       </c>
       <c r="C25" t="n">
-        <v>41</v>
+        <v>36.53333333333333</v>
       </c>
       <c r="D25" t="n">
-        <v>5.904633119405847</v>
+        <v>4.010935719609189</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03666442895615443</v>
+        <v>0.01970392901484785</v>
       </c>
       <c r="F25" t="n">
-        <v>74</v>
+        <v>93.878</v>
       </c>
       <c r="G25" t="n">
-        <v>3.951219512195122</v>
+        <v>3.020833333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>165.9318181818182</v>
+        <v>145.8913043478261</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03787543603134145</v>
+        <v>0.02931836330297088</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02607827116333091</v>
+        <v>0.02778317965577462</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04832209119782749</v>
+        <v>0.0303844294713456</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03890404629313921</v>
+        <v>0.03294418826249856</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0254187548894592</v>
+        <v>0.0427172090373504</v>
       </c>
       <c r="N25" t="n">
-        <v>0.08655984282597121</v>
+        <v>0.0231350902069728</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1177442711345841</v>
+        <v>0.016147398605184</v>
       </c>
       <c r="P25" t="n">
-        <v>0.034333610165568</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.02625664876224768</v>
+        <v>0.0309421904440896</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0206796798045936</v>
+        <v>0.01485934853819294</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0406702408303296</v>
+        <v>0.01098769954529785</v>
       </c>
       <c r="T25" t="n">
-        <v>0.055836290799744</v>
+        <v>0.02392160331504662</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2199,65 +2199,65 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.081070504589277</v>
+        <v>1.873428525900086</v>
       </c>
       <c r="C26" t="n">
-        <v>54.81818181818182</v>
+        <v>52.2</v>
       </c>
       <c r="D26" t="n">
-        <v>38.74090909090909</v>
+        <v>13.60232142857143</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6530757784846237</v>
+        <v>0.4923015653063281</v>
       </c>
       <c r="F26" t="n">
-        <v>95.91800000000001</v>
+        <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>6.733333333333333</v>
+        <v>14.36</v>
       </c>
       <c r="H26" t="n">
-        <v>209.3947368421053</v>
+        <v>206.9761904761905</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5347880520142538</v>
+        <v>0.6330339470499841</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4996943462124037</v>
+        <v>0.4290871684734919</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7491615805278947</v>
+        <v>0.4786789439785566</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6273019700559379</v>
+        <v>0.5049064679563113</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2997055044144</v>
+        <v>0.48943161284544</v>
       </c>
       <c r="N26" t="n">
-        <v>0.09022970614533192</v>
+        <v>0.809531071991712</v>
       </c>
       <c r="O26" t="n">
-        <v>0.8182117550369679</v>
+        <v>0.7841274625699201</v>
       </c>
       <c r="P26" t="n">
-        <v>0.179252435021184</v>
+        <v>0.298115230309344</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.2056917614242185</v>
+        <v>0.6261398466714719</v>
       </c>
       <c r="R26" t="n">
-        <v>0.415428527751552</v>
+        <v>0.3480933318844801</v>
       </c>
       <c r="S26" t="n">
-        <v>0.1971287470123784</v>
+        <v>0.501181000647264</v>
       </c>
       <c r="T26" t="n">
-        <v>0.478437922201836</v>
+        <v>0.435018607661088</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
@@ -2268,65 +2268,65 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8116074900171553</v>
+        <v>0.7485844253520507</v>
       </c>
       <c r="C27" t="n">
-        <v>43.89734692954178</v>
+        <v>40.26364302811443</v>
       </c>
       <c r="D27" t="n">
-        <v>13.84012361221006</v>
+        <v>8.063203511436642</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2497283050049333</v>
+        <v>0.1750400370654996</v>
       </c>
       <c r="F27" t="n">
-        <v>83.551</v>
+        <v>91.11429411764706</v>
       </c>
       <c r="G27" t="n">
-        <v>4.670992229122128</v>
+        <v>6.399293546340868</v>
       </c>
       <c r="H27" t="n">
-        <v>174.4841998936736</v>
+        <v>165.959214977907</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1825576126369208</v>
+        <v>0.1980860032766031</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1968263840200822</v>
+        <v>0.155252221620151</v>
       </c>
       <c r="K27" t="n">
-        <v>0.278664087252065</v>
+        <v>0.1890771905639595</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2864727005032738</v>
+        <v>0.1740778077177543</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1181662636823675</v>
+        <v>0.1892395017178998</v>
       </c>
       <c r="N27" t="n">
-        <v>0.05021357087937538</v>
+        <v>0.1676320890258978</v>
       </c>
       <c r="O27" t="n">
-        <v>0.2617609895166834</v>
+        <v>0.1833104008950422</v>
       </c>
       <c r="P27" t="n">
-        <v>0.08772868641206177</v>
+        <v>0.1044903846409923</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.1068902196029937</v>
+        <v>0.1360060023093329</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1587032374061928</v>
+        <v>0.1374855078141285</v>
       </c>
       <c r="S27" t="n">
-        <v>0.07472269251115461</v>
+        <v>0.1273876322423857</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1742597509126575</v>
+        <v>0.1324322203272329</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2337,65 +2337,65 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.117720652270657</v>
+        <v>0.02386685823443591</v>
       </c>
       <c r="C28" t="n">
-        <v>37.29787234042553</v>
+        <v>36.28</v>
       </c>
       <c r="D28" t="n">
-        <v>5.414851013184347</v>
+        <v>2.460124983948513</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02584746126824113</v>
+        <v>0.001649311139292967</v>
       </c>
       <c r="F28" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G28" t="n">
-        <v>1.545454545454545</v>
+        <v>3.020833333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>159.2727272727273</v>
+        <v>135.68</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0326373177868416</v>
+        <v>0.00412676130262032</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0314583741954972</v>
+        <v>0.004219900103593728</v>
       </c>
       <c r="K28" t="n">
-        <v>0.04366183185575366</v>
+        <v>0.004334008492982724</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0488782105289712</v>
+        <v>0.003665914818270096</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0131748093165024</v>
+        <v>0.003731517023125248</v>
       </c>
       <c r="N28" t="n">
-        <v>0.00580817034677376</v>
+        <v>0.001350602502665889</v>
       </c>
       <c r="O28" t="n">
-        <v>0.01911020159168064</v>
+        <v>0.0009561054129669505</v>
       </c>
       <c r="P28" t="n">
-        <v>0.03213907987266025</v>
+        <v>0.0006279870112088832</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.03755840061680784</v>
+        <v>0.001576882323118686</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0230467416455812</v>
+        <v>0.003442899399086408</v>
       </c>
       <c r="S28" t="n">
-        <v>0.01955592317301382</v>
+        <v>0.00305717090042304</v>
       </c>
       <c r="T28" t="n">
-        <v>0.004233934903632001</v>
+        <v>0.003444172841658226</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -2406,65 +2406,65 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9169165985949258</v>
+        <v>8.960389787402981</v>
       </c>
       <c r="C29" t="n">
-        <v>46.84615384615385</v>
+        <v>49.37837837837838</v>
       </c>
       <c r="D29" t="n">
-        <v>10.80590659340659</v>
+        <v>21.39484126984127</v>
       </c>
       <c r="E29" t="n">
-        <v>0.145579412141223</v>
+        <v>2.639241876870535</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G29" t="n">
-        <v>12.04</v>
+        <v>5.767441860465116</v>
       </c>
       <c r="H29" t="n">
-        <v>244.98</v>
+        <v>241.1860465116279</v>
       </c>
       <c r="I29" t="n">
-        <v>0.009808321364876169</v>
+        <v>0.7356037142361599</v>
       </c>
       <c r="J29" t="n">
-        <v>0.08497772397273601</v>
+        <v>0.9317375205263999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.2773845801808704</v>
+        <v>1.713714962161745</v>
       </c>
       <c r="L29" t="n">
-        <v>0.216102522891456</v>
+        <v>1.343382720585433</v>
       </c>
       <c r="M29" t="n">
-        <v>0.237888695612736</v>
+        <v>3.37240050919632</v>
       </c>
       <c r="N29" t="n">
-        <v>0.4104724647164544</v>
+        <v>4.389008252648727</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1753450056705224</v>
+        <v>1.536327114261408</v>
       </c>
       <c r="P29" t="n">
-        <v>0.07423827673121999</v>
+        <v>0.15556142848176</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.05686249332052801</v>
+        <v>0.06361096420223999</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1180130180484326</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.06814528421460481</v>
+        <v>0.03885161967429191</v>
       </c>
       <c r="T29" t="n">
-        <v>0.052968360576096</v>
+        <v>0.25933700790144</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -2475,65 +2475,65 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1792091380767214</v>
+        <v>3.524804918573667</v>
       </c>
       <c r="C30" t="n">
-        <v>38.41554030139061</v>
+        <v>45.33143717244084</v>
       </c>
       <c r="D30" t="n">
-        <v>5.664400827338537</v>
+        <v>14.22620610403129</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02635428192826429</v>
+        <v>1.045803897175705</v>
       </c>
       <c r="F30" t="n">
-        <v>95.40000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="G30" t="n">
-        <v>6.891295862698598</v>
+        <v>4.106878604430625</v>
       </c>
       <c r="H30" t="n">
-        <v>223.0685458599151</v>
+        <v>218.7017016141863</v>
       </c>
       <c r="I30" t="n">
-        <v>0.003377859693016966</v>
+        <v>0.304016836541265</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01427224970949506</v>
+        <v>0.3379688849566047</v>
       </c>
       <c r="K30" t="n">
-        <v>0.05113461994371728</v>
+        <v>0.628243691044486</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03838175943398946</v>
+        <v>0.4984505810795746</v>
       </c>
       <c r="M30" t="n">
-        <v>0.04941174503779706</v>
+        <v>1.326630191859815</v>
       </c>
       <c r="N30" t="n">
-        <v>0.06132469881328828</v>
+        <v>1.791339652635755</v>
       </c>
       <c r="O30" t="n">
-        <v>0.03387444695798238</v>
+        <v>0.5959882108050781</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0179444994096321</v>
+        <v>0.031112285696352</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02008358343738583</v>
+        <v>0.012722192840448</v>
       </c>
       <c r="R30" t="n">
-        <v>0.03181625076277742</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01470010955943878</v>
+        <v>0.02103761380700865</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0121859522003984</v>
+        <v>0.1163338516985302</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -2544,65 +2544,65 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01524867843717929</v>
+        <v>0.3607376614873056</v>
       </c>
       <c r="C31" t="n">
-        <v>36.52</v>
+        <v>42.3953488372093</v>
       </c>
       <c r="D31" t="n">
-        <v>2.948670977255646</v>
+        <v>9.330511459205029</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0013286907019364</v>
+        <v>0.07799093573614323</v>
       </c>
       <c r="F31" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G31" t="n">
-        <v>4.307692307692307</v>
+        <v>2.261904761904762</v>
       </c>
       <c r="H31" t="n">
-        <v>199.265306122449</v>
+        <v>171.7857142857143</v>
       </c>
       <c r="I31" t="n">
-        <v>0.000244657554624</v>
+        <v>0.0718174776059136</v>
       </c>
       <c r="J31" t="n">
-        <v>6.624782895763201e-05</v>
+        <v>0.09555260355115074</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0007108636457579695</v>
+        <v>0.1086375278095413</v>
       </c>
       <c r="L31" t="n">
-        <v>0.002496417183268001</v>
+        <v>0.08315547826033282</v>
       </c>
       <c r="M31" t="n">
-        <v>0.004234474703633471</v>
+        <v>0.1183154872770752</v>
       </c>
       <c r="N31" t="n">
-        <v>0.003228594789456245</v>
+        <v>0.07805639721003965</v>
       </c>
       <c r="O31" t="n">
-        <v>0.001693971268592788</v>
+        <v>0.0059696443328256</v>
       </c>
       <c r="P31" t="n">
-        <v>0.001187608546404</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.001498688480989516</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.00255778424308538</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.001383416142621408</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0001329602601402066</v>
+        <v>0.04751249710798098</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -2613,65 +2613,65 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.80106093302712</v>
+        <v>1.287798452465671</v>
       </c>
       <c r="C32" t="n">
-        <v>75.70833333333333</v>
+        <v>56.9375</v>
       </c>
       <c r="D32" t="n">
-        <v>34.17569444444445</v>
+        <v>14.28425099206349</v>
       </c>
       <c r="E32" t="n">
-        <v>1.606753207202256</v>
+        <v>0.2220909044542912</v>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G32" t="n">
-        <v>11.4</v>
+        <v>7.297872340425532</v>
       </c>
       <c r="H32" t="n">
-        <v>256.84</v>
+        <v>230.9183673469388</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03458295698998896</v>
+        <v>0.08589192770184778</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0496899493441344</v>
+        <v>0.230630521492224</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5737708971042048</v>
+        <v>0.169765749696597</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9590226630468479</v>
+        <v>0.204332892589577</v>
       </c>
       <c r="M32" t="n">
-        <v>1.056536174104128</v>
+        <v>0.4585281015957007</v>
       </c>
       <c r="N32" t="n">
-        <v>1.171338819021504</v>
+        <v>0.5495267540332194</v>
       </c>
       <c r="O32" t="n">
-        <v>1.274910517145664</v>
+        <v>0.224361171654984</v>
       </c>
       <c r="P32" t="n">
-        <v>1.606530240352128</v>
+        <v>0.1403914950590977</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.050047982850333</v>
+        <v>0.1287023784516827</v>
       </c>
       <c r="R32" t="n">
-        <v>0.757663670411424</v>
+        <v>0.3636218012448109</v>
       </c>
       <c r="S32" t="n">
-        <v>0.7671971597899392</v>
+        <v>0.1377333955813457</v>
       </c>
       <c r="T32" t="n">
-        <v>0.137171335625856</v>
+        <v>0.1496227741058536</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
@@ -2682,65 +2682,65 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2112347983904279</v>
+        <v>0.3440876420449348</v>
       </c>
       <c r="C33" t="n">
-        <v>43.27066013607683</v>
+        <v>43.96319089298446</v>
       </c>
       <c r="D33" t="n">
-        <v>11.18002260208423</v>
+        <v>8.182556383179842</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08074392753697064</v>
+        <v>0.05838029628481002</v>
       </c>
       <c r="F33" t="n">
-        <v>85.99687179487179</v>
+        <v>84.88888888888889</v>
       </c>
       <c r="G33" t="n">
-        <v>5.042668844513867</v>
+        <v>5.567320939408073</v>
       </c>
       <c r="H33" t="n">
-        <v>228.3117876738302</v>
+        <v>203.9439323976242</v>
       </c>
       <c r="I33" t="n">
-        <v>0.003509949752347983</v>
+        <v>0.03398489528034487</v>
       </c>
       <c r="J33" t="n">
-        <v>0.007260976705626248</v>
+        <v>0.05768213054022913</v>
       </c>
       <c r="K33" t="n">
-        <v>0.03647461888639899</v>
+        <v>0.06336774600073879</v>
       </c>
       <c r="L33" t="n">
-        <v>0.04895201239044156</v>
+        <v>0.06243095058191554</v>
       </c>
       <c r="M33" t="n">
-        <v>0.05861752912802251</v>
+        <v>0.09784539426160239</v>
       </c>
       <c r="N33" t="n">
-        <v>0.07604335743104518</v>
+        <v>0.1382454629095825</v>
       </c>
       <c r="O33" t="n">
-        <v>0.06400086470092756</v>
+        <v>0.07924597041964306</v>
       </c>
       <c r="P33" t="n">
-        <v>0.05279611737500664</v>
+        <v>0.05008488028860018</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.04286822213392434</v>
+        <v>0.03702084782801139</v>
       </c>
       <c r="R33" t="n">
-        <v>0.03339804596841851</v>
+        <v>0.09009365465354696</v>
       </c>
       <c r="S33" t="n">
-        <v>0.02537042580165564</v>
+        <v>0.05446934782796031</v>
       </c>
       <c r="T33" t="n">
-        <v>0.01156088796582656</v>
+        <v>0.05622105244401405</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
@@ -2751,65 +2751,65 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.000701188551552384</v>
+        <v>0.007545554321007898</v>
       </c>
       <c r="C34" t="n">
-        <v>36.16</v>
+        <v>37.24489795918367</v>
       </c>
       <c r="D34" t="n">
-        <v>2.932496150564262</v>
+        <v>4.830180989223543</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0001330448950714455</v>
+        <v>0.001178053618206082</v>
       </c>
       <c r="F34" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G34" t="n">
-        <v>2.216216216216216</v>
+        <v>3.404761904761905</v>
       </c>
       <c r="H34" t="n">
-        <v>186.1666666666667</v>
+        <v>177.96875</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.000783393489906048</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.000939362680978848</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.001024468558908768</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.000912236274609912</v>
       </c>
       <c r="M34" t="n">
-        <v>0.00013904704354464</v>
+        <v>0.001856004830384947</v>
       </c>
       <c r="N34" t="n">
-        <v>0.000346411796628096</v>
+        <v>0.003103682563097484</v>
       </c>
       <c r="O34" t="n">
-        <v>0.000378572614701408</v>
+        <v>0.001867022575594848</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.0007422622374874955</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.001079109194198887</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.004019083748867919</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.001872189510141312</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.0007627199265403201</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -2820,65 +2820,65 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.5613206077733276</v>
+        <v>2.081070504589277</v>
       </c>
       <c r="C35" t="n">
-        <v>41.45454545454545</v>
+        <v>54.81818181818182</v>
       </c>
       <c r="D35" t="n">
-        <v>11.62651515151515</v>
+        <v>38.74090909090909</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1606413858112602</v>
+        <v>0.6530757784846237</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>95.91800000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>14.92</v>
+        <v>5.531914893617022</v>
       </c>
       <c r="H35" t="n">
-        <v>164.1818181818182</v>
+        <v>207.3636363636364</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1160096589774643</v>
+        <v>0.5347880520142538</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1337481686740752</v>
+        <v>0.4996943462124037</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1646626895137728</v>
+        <v>0.7491615805278947</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1403499153269078</v>
+        <v>0.6273019700559379</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1943571846810787</v>
+        <v>0.2997055044144</v>
       </c>
       <c r="N35" t="n">
-        <v>0.119866910668596</v>
+        <v>0.09022970614533192</v>
       </c>
       <c r="O35" t="n">
-        <v>0.06820318650253257</v>
+        <v>0.8182117550369679</v>
       </c>
       <c r="P35" t="n">
-        <v>0.04828928484391209</v>
+        <v>0.179252435021184</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.1558631727991296</v>
+        <v>0.2056917614242185</v>
       </c>
       <c r="R35" t="n">
-        <v>0.3631452083284032</v>
+        <v>0.415428527751552</v>
       </c>
       <c r="S35" t="n">
-        <v>0.08372744231608927</v>
+        <v>0.1971287470123784</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1592598351824928</v>
+        <v>0.478437922201836</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -2889,65 +2889,65 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3983269122262941</v>
+        <v>0.7817869323918284</v>
       </c>
       <c r="C36" t="n">
-        <v>37.92480657640232</v>
+        <v>45.3264193878712</v>
       </c>
       <c r="D36" t="n">
-        <v>6.742259769181814</v>
+        <v>19.20628060590627</v>
       </c>
       <c r="E36" t="n">
-        <v>0.07130505527558714</v>
+        <v>0.2576641242637826</v>
       </c>
       <c r="F36" t="n">
-        <v>95.5</v>
+        <v>81.1836</v>
       </c>
       <c r="G36" t="n">
-        <v>7.68794003868472</v>
+        <v>3.414136989418592</v>
       </c>
       <c r="H36" t="n">
-        <v>156.8308800773694</v>
+        <v>181.3188948306596</v>
       </c>
       <c r="I36" t="n">
-        <v>0.07984799703107301</v>
+        <v>0.1812365760154767</v>
       </c>
       <c r="J36" t="n">
-        <v>0.08412959329460763</v>
+        <v>0.1917070382805825</v>
       </c>
       <c r="K36" t="n">
-        <v>0.09661455273764709</v>
+        <v>0.2748907371533947</v>
       </c>
       <c r="L36" t="n">
-        <v>0.07839321881705771</v>
+        <v>0.282451460278089</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1084712969021908</v>
+        <v>0.1146691557807447</v>
       </c>
       <c r="N36" t="n">
-        <v>0.05316827278251294</v>
+        <v>0.05063440164363611</v>
       </c>
       <c r="O36" t="n">
-        <v>0.04084010307539714</v>
+        <v>0.2601501874777585</v>
       </c>
       <c r="P36" t="n">
-        <v>0.02131704053638398</v>
+        <v>0.0785677193423068</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.06625423422833294</v>
+        <v>0.09707410997262872</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1170552613911447</v>
+        <v>0.1458242976680725</v>
       </c>
       <c r="S36" t="n">
-        <v>0.05401782260577534</v>
+        <v>0.07072832430797968</v>
       </c>
       <c r="T36" t="n">
-        <v>0.09240151505177935</v>
+        <v>0.1691446277642901</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -2958,65 +2958,65 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1359275729651859</v>
+        <v>0.04232686902974574</v>
       </c>
       <c r="C37" t="n">
-        <v>34.96</v>
+        <v>37.29787234042553</v>
       </c>
       <c r="D37" t="n">
-        <v>2.366166875642289</v>
+        <v>6.560786435786436</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02934333764144518</v>
+        <v>0.0160189613324335</v>
       </c>
       <c r="F37" t="n">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G37" t="n">
-        <v>3.590909090909091</v>
+        <v>1.545454545454545</v>
       </c>
       <c r="H37" t="n">
-        <v>152.72</v>
+        <v>159.2727272727273</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0268175262062232</v>
+        <v>0.0059859548364672</v>
       </c>
       <c r="J37" t="n">
-        <v>0.03290252657605402</v>
+        <v>0.007364192394182401</v>
       </c>
       <c r="K37" t="n">
-        <v>0.02838924711338688</v>
+        <v>0.01712936506306124</v>
       </c>
       <c r="L37" t="n">
-        <v>0.028489498458984</v>
+        <v>0.0259394574384881</v>
       </c>
       <c r="M37" t="n">
-        <v>0.04531193832500161</v>
+        <v>0.0053090689353408</v>
       </c>
       <c r="N37" t="n">
-        <v>0.02275142558552883</v>
+        <v>0.007564366757056582</v>
       </c>
       <c r="O37" t="n">
-        <v>0.009105338657923201</v>
+        <v>0.00980913689005824</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0026178358344768</v>
+        <v>0.0145693573778592</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.0194665860962496</v>
+        <v>0.0109035716844096</v>
       </c>
       <c r="R37" t="n">
-        <v>0.01769363435040768</v>
+        <v>0.01641244428936</v>
       </c>
       <c r="S37" t="n">
-        <v>0.02716600226264488</v>
+        <v>0.002405799287136</v>
       </c>
       <c r="T37" t="n">
-        <v>0.04970124123127089</v>
+        <v>0.00489315109248</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3027,65 +3027,65 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.758101408901094</v>
+        <v>0.3437292889030403</v>
       </c>
       <c r="C38" t="n">
-        <v>41.45454545454545</v>
+        <v>58.90322580645162</v>
       </c>
       <c r="D38" t="n">
-        <v>11.62651515151515</v>
+        <v>42.22795698924731</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9225659669249319</v>
+        <v>0.2398283696437854</v>
       </c>
       <c r="F38" t="n">
         <v>100</v>
       </c>
       <c r="G38" t="n">
-        <v>17.54</v>
+        <v>12.04</v>
       </c>
       <c r="H38" t="n">
-        <v>164.1818181818182</v>
+        <v>248.2903225806452</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8811269871679059</v>
+        <v>0.0165877822035072</v>
       </c>
       <c r="J38" t="n">
-        <v>1.099506834838619</v>
+        <v>0.045214075303152</v>
       </c>
       <c r="K38" t="n">
-        <v>1.182112567913415</v>
+        <v>0.1265124214960704</v>
       </c>
       <c r="L38" t="n">
-        <v>1.34895494222574</v>
+        <v>0.07957079201554561</v>
       </c>
       <c r="M38" t="n">
-        <v>0.7019081325953958</v>
+        <v>0.1042608169030176</v>
       </c>
       <c r="N38" t="n">
-        <v>0.475614286189056</v>
+        <v>0.1629578341206346</v>
       </c>
       <c r="O38" t="n">
-        <v>0.4184329225223352</v>
+        <v>0.0804773841762912</v>
       </c>
       <c r="P38" t="n">
-        <v>0.542895113710656</v>
+        <v>0.08720573877017855</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.429944875992576</v>
+        <v>0.07252348940639999</v>
       </c>
       <c r="R38" t="n">
-        <v>0.645712451041392</v>
+        <v>0.1193806537787808</v>
       </c>
       <c r="S38" t="n">
-        <v>0.2900605599276676</v>
+        <v>0.07494750561968117</v>
       </c>
       <c r="T38" t="n">
-        <v>0.5070542211203266</v>
+        <v>0.0233185833729408</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -3096,65 +3096,65 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9808045409114853</v>
+        <v>0.1291356684509361</v>
       </c>
       <c r="C39" t="n">
-        <v>37.68799470447578</v>
+        <v>39.64167201339229</v>
       </c>
       <c r="D39" t="n">
-        <v>6.898723064127929</v>
+        <v>8.898372984509491</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1970127959885204</v>
+        <v>0.03306353692435953</v>
       </c>
       <c r="F39" t="n">
-        <v>96</v>
+        <v>92.76923076923077</v>
       </c>
       <c r="G39" t="n">
-        <v>7.173296600437205</v>
+        <v>6.403335109448191</v>
       </c>
       <c r="H39" t="n">
-        <v>154.204112692931</v>
+        <v>229.9928663857966</v>
       </c>
       <c r="I39" t="n">
-        <v>0.190121679112314</v>
+        <v>0.004555453843388771</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2424192891558747</v>
+        <v>0.01175763597290766</v>
       </c>
       <c r="K39" t="n">
-        <v>0.3018111815495064</v>
+        <v>0.0401146264164146</v>
       </c>
       <c r="L39" t="n">
-        <v>0.3014547891600313</v>
+        <v>0.02473566145674298</v>
       </c>
       <c r="M39" t="n">
-        <v>0.2183691207434109</v>
+        <v>0.03335622551098297</v>
       </c>
       <c r="N39" t="n">
-        <v>0.1169366605941532</v>
+        <v>0.04178495719773467</v>
       </c>
       <c r="O39" t="n">
-        <v>0.09005500846887436</v>
+        <v>0.02733155144734914</v>
       </c>
       <c r="P39" t="n">
-        <v>0.07497204503237667</v>
+        <v>0.02084555581216207</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.09414024330236517</v>
+        <v>0.01882040627400277</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1547859604138507</v>
+        <v>0.01895110676243691</v>
       </c>
       <c r="S39" t="n">
-        <v>0.07830494842955787</v>
+        <v>0.01034835052346434</v>
       </c>
       <c r="T39" t="n">
-        <v>0.1776954576848127</v>
+        <v>0.007218094278962592</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
@@ -3165,65 +3165,65 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1981683643314465</v>
+        <v>0.004924087768420478</v>
       </c>
       <c r="C40" t="n">
-        <v>34.96</v>
+        <v>35.58</v>
       </c>
       <c r="D40" t="n">
-        <v>2.053858807339112</v>
+        <v>2.948670977255646</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01151869761076407</v>
+        <v>0.0008517068327126504</v>
       </c>
       <c r="F40" t="n">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G40" t="n">
-        <v>3.590909090909091</v>
+        <v>1.612903225806452</v>
       </c>
       <c r="H40" t="n">
-        <v>147.98</v>
+        <v>183.28</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03075776271665518</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.03632456740901956</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.03378675892255571</v>
+        <v>0.0007108636457579695</v>
       </c>
       <c r="L40" t="n">
-        <v>0.03313346054877678</v>
+        <v>0.001294926767214635</v>
       </c>
       <c r="M40" t="n">
-        <v>0.03328558138480339</v>
+        <v>0.001546803350750408</v>
       </c>
       <c r="N40" t="n">
-        <v>0.01647964356436326</v>
+        <v>0.0008974582787063041</v>
       </c>
       <c r="O40" t="n">
-        <v>0.00387374461488</v>
+        <v>0.0007204728095186401</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>0.0005072885428745141</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.00784834251061056</v>
+        <v>0.001498688480989516</v>
       </c>
       <c r="R40" t="n">
-        <v>0.01206186210051782</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.01625504792921856</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.03349272413941112</v>
+        <v>0</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -3234,65 +3234,65 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.092654648822595</v>
+        <v>3.80106093302712</v>
       </c>
       <c r="C41" t="n">
-        <v>48.89189189189189</v>
+        <v>75.70833333333333</v>
       </c>
       <c r="D41" t="n">
-        <v>16.40436466686467</v>
+        <v>37.23125</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8673724950047269</v>
+        <v>1.606753207202256</v>
       </c>
       <c r="F41" t="n">
         <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>11.97959183673469</v>
+        <v>7.638297872340425</v>
       </c>
       <c r="H41" t="n">
-        <v>187.94</v>
+        <v>261.09375</v>
       </c>
       <c r="I41" t="n">
-        <v>0.962473409984869</v>
+        <v>0.02496975002492544</v>
       </c>
       <c r="J41" t="n">
-        <v>0.8323168455790273</v>
+        <v>0.05186740158028801</v>
       </c>
       <c r="K41" t="n">
-        <v>1.296373657164951</v>
+        <v>0.5737708971042048</v>
       </c>
       <c r="L41" t="n">
-        <v>1.429489023171127</v>
+        <v>0.9590226630468479</v>
       </c>
       <c r="M41" t="n">
-        <v>0.7009540880625361</v>
+        <v>1.056536174104128</v>
       </c>
       <c r="N41" t="n">
-        <v>1.811227061054208</v>
+        <v>1.171338819021504</v>
       </c>
       <c r="O41" t="n">
-        <v>0.49123741860576</v>
+        <v>1.274910517145664</v>
       </c>
       <c r="P41" t="n">
-        <v>0.4753696286344321</v>
+        <v>1.606530240352128</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.14197689073312</v>
+        <v>1.050047982850333</v>
       </c>
       <c r="R41" t="n">
-        <v>0.383106546368448</v>
+        <v>0.757663670411424</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4715529707822976</v>
+        <v>0.7671971597899392</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8540408053792743</v>
+        <v>0.137171335625856</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -3303,65 +3303,65 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.7907843246580615</v>
+        <v>0.5990447524838977</v>
       </c>
       <c r="C42" t="n">
-        <v>37.98879067255574</v>
+        <v>46.35974265507354</v>
       </c>
       <c r="D42" t="n">
-        <v>6.791319895717668</v>
+        <v>16.60011316535304</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1275219140370828</v>
+        <v>0.2470863771644189</v>
       </c>
       <c r="F42" t="n">
-        <v>96.23529411764706</v>
+        <v>81.85714285714286</v>
       </c>
       <c r="G42" t="n">
-        <v>6.921919144861234</v>
+        <v>4.191083640250265</v>
       </c>
       <c r="H42" t="n">
-        <v>168.6492473264276</v>
+        <v>228.9678519346723</v>
       </c>
       <c r="I42" t="n">
-        <v>0.138428642316614</v>
+        <v>0.004191163659116598</v>
       </c>
       <c r="J42" t="n">
-        <v>0.149738241172121</v>
+        <v>0.01542618842934442</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2103469434714651</v>
+        <v>0.1001686579636328</v>
       </c>
       <c r="L42" t="n">
-        <v>0.188129908233719</v>
+        <v>0.1888429268596187</v>
       </c>
       <c r="M42" t="n">
-        <v>0.1313944304068594</v>
+        <v>0.1622838138295108</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1890427626586348</v>
+        <v>0.1834729903292896</v>
       </c>
       <c r="O42" t="n">
-        <v>0.07860837239303617</v>
+        <v>0.1712350674974293</v>
       </c>
       <c r="P42" t="n">
-        <v>0.06995123473403458</v>
+        <v>0.1559499941925318</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.2949232191559587</v>
+        <v>0.1006997496606919</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1162674522745605</v>
+        <v>0.1173534087986381</v>
       </c>
       <c r="S42" t="n">
-        <v>0.09532897084848067</v>
+        <v>0.0766830936279177</v>
       </c>
       <c r="T42" t="n">
-        <v>0.1269484690586311</v>
+        <v>0.02034183934406288</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -3372,65 +3372,65 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.07988175531323437</v>
+        <v>0.06479869507742131</v>
       </c>
       <c r="C43" t="n">
-        <v>36.38</v>
+        <v>36.21276595744681</v>
       </c>
       <c r="D43" t="n">
-        <v>2.863468017620495</v>
+        <v>4.655327326337965</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01425942114964943</v>
+        <v>0.01139410586651101</v>
       </c>
       <c r="F43" t="n">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="G43" t="n">
-        <v>3.065217391304348</v>
+        <v>2.064516129032258</v>
       </c>
       <c r="H43" t="n">
-        <v>147.72</v>
+        <v>186.1666666666667</v>
       </c>
       <c r="I43" t="n">
-        <v>0.016094971986336</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.01860473908382746</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0248997960870848</v>
+        <v>0.0008889224484672</v>
       </c>
       <c r="L43" t="n">
-        <v>0.018695914799184</v>
+        <v>0.006857939454229662</v>
       </c>
       <c r="M43" t="n">
-        <v>0.009976785566774402</v>
+        <v>0.01568084406238132</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0138965491026432</v>
+        <v>0.02103164688109296</v>
       </c>
       <c r="O43" t="n">
-        <v>0.013333836727008</v>
+        <v>0.004201334807250905</v>
       </c>
       <c r="P43" t="n">
-        <v>0.00122328777312</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.01732842734614167</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.0171205919891328</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.0136903377351744</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.01418369981149137</v>
+        <v>0</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -3441,65 +3441,65 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.13358863171744</v>
+        <v>12.75506477855646</v>
       </c>
       <c r="C44" t="n">
-        <v>58.93548387096774</v>
+        <v>53.58823529411764</v>
       </c>
       <c r="D44" t="n">
-        <v>28.29356060606061</v>
+        <v>32.19607843137255</v>
       </c>
       <c r="E44" t="n">
-        <v>1.428510025046534</v>
+        <v>4.593579417839069</v>
       </c>
       <c r="F44" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G44" t="n">
-        <v>2.645161290322581</v>
+        <v>7.56</v>
       </c>
       <c r="H44" t="n">
-        <v>248.7619047619048</v>
+        <v>201.5128205128205</v>
       </c>
       <c r="I44" t="n">
-        <v>0.031071509437248</v>
+        <v>1.39974703439256</v>
       </c>
       <c r="J44" t="n">
-        <v>0.073152608832576</v>
+        <v>0.52682926762368</v>
       </c>
       <c r="K44" t="n">
-        <v>0.02722744993899602</v>
+        <v>2.1563845022832</v>
       </c>
       <c r="L44" t="n">
-        <v>0.138421807571712</v>
+        <v>4.57264969592256</v>
       </c>
       <c r="M44" t="n">
-        <v>0.8233165842041796</v>
+        <v>4.566912898089997</v>
       </c>
       <c r="N44" t="n">
-        <v>1.19759872988448</v>
+        <v>4.276614054827521</v>
       </c>
       <c r="O44" t="n">
-        <v>0.2338339044074343</v>
+        <v>5.781502673319745</v>
       </c>
       <c r="P44" t="n">
-        <v>0.02405473077063185</v>
+        <v>5.97453748391808</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.1768384804822278</v>
+        <v>2.43271161814464</v>
       </c>
       <c r="R44" t="n">
-        <v>0.01024136523656078</v>
+        <v>3.11367514518144</v>
       </c>
       <c r="S44" t="n">
-        <v>0.01963866190966872</v>
+        <v>1.285920107103744</v>
       </c>
       <c r="T44" t="n">
-        <v>0.01156740918262297</v>
+        <v>2.96891942536224</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -3510,65 +3510,65 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9972677159656933</v>
+        <v>3.772935903642165</v>
       </c>
       <c r="C45" t="n">
-        <v>47.93159707675837</v>
+        <v>45.05449472096531</v>
       </c>
       <c r="D45" t="n">
-        <v>27.67523022079473</v>
+        <v>16.99386035968389</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6446660160252849</v>
+        <v>1.374970966115506</v>
       </c>
       <c r="F45" t="n">
-        <v>78</v>
+        <v>82.5</v>
       </c>
       <c r="G45" t="n">
-        <v>2.154086952474049</v>
+        <v>3.829264167205344</v>
       </c>
       <c r="H45" t="n">
-        <v>248.1669692314854</v>
+        <v>167.8274628312864</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01071436984216706</v>
+        <v>0.4735452364699899</v>
       </c>
       <c r="J45" t="n">
-        <v>0.03250357165698065</v>
+        <v>0.233069477703192</v>
       </c>
       <c r="K45" t="n">
-        <v>0.009483579237372006</v>
+        <v>0.7211415379964269</v>
       </c>
       <c r="L45" t="n">
-        <v>0.06839997701072462</v>
+        <v>1.340719291324185</v>
       </c>
       <c r="M45" t="n">
-        <v>0.3519201896888184</v>
+        <v>1.370507054438836</v>
       </c>
       <c r="N45" t="n">
-        <v>0.5680491510007827</v>
+        <v>1.12247007954969</v>
       </c>
       <c r="O45" t="n">
-        <v>0.1561463471491498</v>
+        <v>1.503859221831144</v>
       </c>
       <c r="P45" t="n">
-        <v>0.008018243590210616</v>
+        <v>1.517340158912869</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.0589461601607426</v>
+        <v>0.6345944981747432</v>
       </c>
       <c r="R45" t="n">
-        <v>0.003413788412186927</v>
+        <v>0.8293323729234069</v>
       </c>
       <c r="S45" t="n">
-        <v>0.00654622063655624</v>
+        <v>0.4247727948996954</v>
       </c>
       <c r="T45" t="n">
-        <v>0.005568405943242323</v>
+        <v>0.8750408676496702</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
@@ -3579,65 +3579,65 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2898352402050122</v>
+        <v>0.1604572180380644</v>
       </c>
       <c r="C46" t="n">
-        <v>41.45454545454545</v>
+        <v>36.54</v>
       </c>
       <c r="D46" t="n">
-        <v>26.74086021505376</v>
+        <v>4.677969030969031</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2120725972607806</v>
+        <v>0.06478477685864963</v>
       </c>
       <c r="F46" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G46" t="n">
-        <v>1.840909090909091</v>
+        <v>1.676470588235294</v>
       </c>
       <c r="H46" t="n">
-        <v>247.1935483870968</v>
+        <v>152.72</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0002201917991616</v>
+        <v>0.0445674317941944</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.04083823901783808</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.07164462863225717</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0131800519783872</v>
+        <v>0.06192772022642688</v>
       </c>
       <c r="M46" t="n">
-        <v>0.08552691056486354</v>
+        <v>0.05758349172013964</v>
       </c>
       <c r="N46" t="n">
-        <v>0.186702840077472</v>
+        <v>0.010642603626144</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0624832093790208</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.01741961788922898</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.0631950463593792</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.07942807510868161</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.0361083968430696</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -3648,65 +3648,65 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.298495978785845</v>
+        <v>3.758101408901094</v>
       </c>
       <c r="C47" t="n">
-        <v>43.5</v>
+        <v>44.53658536585366</v>
       </c>
       <c r="D47" t="n">
-        <v>25.77579365079365</v>
+        <v>12.530710414247</v>
       </c>
       <c r="E47" t="n">
-        <v>1.432221441315653</v>
+        <v>0.9225659669249319</v>
       </c>
       <c r="F47" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>2.119047619047619</v>
+        <v>18.30612244897959</v>
       </c>
       <c r="H47" t="n">
-        <v>246.9761904761905</v>
+        <v>184</v>
       </c>
       <c r="I47" t="n">
-        <v>0.007437589660569957</v>
+        <v>0.8811269871679059</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1656331644804507</v>
+        <v>1.099506834838619</v>
       </c>
       <c r="K47" t="n">
-        <v>0.1268467868207248</v>
+        <v>1.182112567913415</v>
       </c>
       <c r="L47" t="n">
-        <v>0.171190968596325</v>
+        <v>1.34895494222574</v>
       </c>
       <c r="M47" t="n">
-        <v>0.8609352552685815</v>
+        <v>0.8321335297011402</v>
       </c>
       <c r="N47" t="n">
-        <v>1.384598654135428</v>
+        <v>0.9017608536460915</v>
       </c>
       <c r="O47" t="n">
-        <v>0.2496196546636936</v>
+        <v>0.6446237249233128</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>0.5914188620444131</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>0.429944875992576</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>0.645712451041392</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>0.3237722798646424</v>
       </c>
       <c r="T47" t="n">
-        <v>0.0005382466201729781</v>
+        <v>0.5070542211203266</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
@@ -3717,65 +3717,65 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2.298495978785845</v>
+        <v>1.098814187687978</v>
       </c>
       <c r="C48" t="n">
-        <v>43.5</v>
+        <v>37.8391808220198</v>
       </c>
       <c r="D48" t="n">
-        <v>25.77579365079365</v>
+        <v>6.969029122359419</v>
       </c>
       <c r="E48" t="n">
-        <v>1.432221441315653</v>
+        <v>0.2506404006304726</v>
       </c>
       <c r="F48" t="n">
-        <v>84</v>
+        <v>95.63636363636364</v>
       </c>
       <c r="G48" t="n">
-        <v>2.119047619047619</v>
+        <v>7.282259171520977</v>
       </c>
       <c r="H48" t="n">
-        <v>246.9761904761905</v>
+        <v>156.9323831782874</v>
       </c>
       <c r="I48" t="n">
-        <v>0.007437589660569957</v>
+        <v>0.2168169019256551</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1656331644804507</v>
+        <v>0.2396955963611411</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1268467868207248</v>
+        <v>0.3300750532697988</v>
       </c>
       <c r="L48" t="n">
-        <v>0.171190968596325</v>
+        <v>0.3209780722463619</v>
       </c>
       <c r="M48" t="n">
-        <v>0.8609352552685815</v>
+        <v>0.2736107679079621</v>
       </c>
       <c r="N48" t="n">
-        <v>1.384598654135428</v>
+        <v>0.1860776842222421</v>
       </c>
       <c r="O48" t="n">
-        <v>0.2496196546636936</v>
+        <v>0.1419046483339171</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>0.1272767075174049</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>0.08472197434890248</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>0.1378149656457013</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>0.1015027458422327</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0005382466201729781</v>
+        <v>0.2040783604000695</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
@@ -3786,65 +3786,65 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.298495978785845</v>
+        <v>0.01022613655203813</v>
       </c>
       <c r="C49" t="n">
-        <v>43.5</v>
+        <v>34.96</v>
       </c>
       <c r="D49" t="n">
-        <v>25.77579365079365</v>
+        <v>1.949458654412833</v>
       </c>
       <c r="E49" t="n">
-        <v>1.432221441315653</v>
+        <v>0.0005514345696995407</v>
       </c>
       <c r="F49" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G49" t="n">
-        <v>2.119047619047619</v>
+        <v>3.787234042553191</v>
       </c>
       <c r="H49" t="n">
-        <v>246.9761904761905</v>
+        <v>147.98</v>
       </c>
       <c r="I49" t="n">
-        <v>0.007437589660569957</v>
+        <v>0.001182346555513261</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1656331644804507</v>
+        <v>0.001748882879301466</v>
       </c>
       <c r="K49" t="n">
-        <v>0.1268467868207248</v>
+        <v>0.001611421692433812</v>
       </c>
       <c r="L49" t="n">
-        <v>0.171190968596325</v>
+        <v>0.001679563238824666</v>
       </c>
       <c r="M49" t="n">
-        <v>0.8609352552685815</v>
+        <v>0.001286792939460781</v>
       </c>
       <c r="N49" t="n">
-        <v>1.384598654135428</v>
+        <v>0.0006507099413851088</v>
       </c>
       <c r="O49" t="n">
-        <v>0.2496196546636936</v>
+        <v>0.0007864705291507422</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>0.000625130634258648</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>0.0005176709198289216</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>0.0009775922773551709</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0005382466201729781</v>
+        <v>0.00175256361628992</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -3855,65 +3855,65 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3.356276158041934</v>
+        <v>5.092654648822595</v>
       </c>
       <c r="C50" t="n">
-        <v>39.56521739130435</v>
+        <v>48.89189189189189</v>
       </c>
       <c r="D50" t="n">
-        <v>9.826086956521738</v>
+        <v>16.40436466686467</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9239822074046888</v>
+        <v>0.8673724950047269</v>
       </c>
       <c r="F50" t="n">
         <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>11.76595744680851</v>
+        <v>14.04</v>
       </c>
       <c r="H50" t="n">
-        <v>129.7142857142857</v>
+        <v>183.6486486486486</v>
       </c>
       <c r="I50" t="n">
-        <v>1.219021949090658</v>
+        <v>0.962473409984869</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8689368200534524</v>
+        <v>0.8323168455790273</v>
       </c>
       <c r="K50" t="n">
-        <v>0.4825391587134136</v>
+        <v>1.296373657164951</v>
       </c>
       <c r="L50" t="n">
-        <v>0.393234592439232</v>
+        <v>1.429489023171127</v>
       </c>
       <c r="M50" t="n">
-        <v>0.1107357731852012</v>
+        <v>0.7009540880625361</v>
       </c>
       <c r="N50" t="n">
-        <v>0.2042215663718334</v>
+        <v>1.811227061054208</v>
       </c>
       <c r="O50" t="n">
-        <v>0.246300255347904</v>
+        <v>0.49123741860576</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0623713659254784</v>
+        <v>0.4753696286344321</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.031377331380528</v>
+        <v>2.14197689073312</v>
       </c>
       <c r="R50" t="n">
-        <v>0.116049233409984</v>
+        <v>0.383106546368448</v>
       </c>
       <c r="S50" t="n">
-        <v>0.6303310635893761</v>
+        <v>0.4715529707822976</v>
       </c>
       <c r="T50" t="n">
-        <v>1.307044355438516</v>
+        <v>0.8540408053792743</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -3924,65 +3924,65 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.51938299213324</v>
+        <v>1.395329929410527</v>
       </c>
       <c r="C51" t="n">
-        <v>37.66401338518757</v>
+        <v>38.12891391391391</v>
       </c>
       <c r="D51" t="n">
-        <v>5.889903553897571</v>
+        <v>6.091801672424798</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3153822020298751</v>
+        <v>0.2120699814642422</v>
       </c>
       <c r="F51" t="n">
-        <v>96.45824999999999</v>
+        <v>96.22222222222223</v>
       </c>
       <c r="G51" t="n">
-        <v>7.52345475655572</v>
+        <v>7.775020020020019</v>
       </c>
       <c r="H51" t="n">
-        <v>109.6927943702921</v>
+        <v>170.0031831831832</v>
       </c>
       <c r="I51" t="n">
-        <v>0.4718376235359882</v>
+        <v>0.2497762204824956</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3474367857043656</v>
+        <v>0.264972244440602</v>
       </c>
       <c r="K51" t="n">
-        <v>0.2236788371752667</v>
+        <v>0.3684823009393806</v>
       </c>
       <c r="L51" t="n">
-        <v>0.1359169583904451</v>
+        <v>0.3385030062005795</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0388785555300647</v>
+        <v>0.2239337345805233</v>
       </c>
       <c r="N51" t="n">
-        <v>0.1052592728199055</v>
+        <v>0.3304434368348128</v>
       </c>
       <c r="O51" t="n">
-        <v>0.07098520503170161</v>
+        <v>0.1364448232718075</v>
       </c>
       <c r="P51" t="n">
-        <v>0.0235879008556896</v>
+        <v>0.1143747940856738</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.01445375668329936</v>
+        <v>0.4781350395938908</v>
       </c>
       <c r="R51" t="n">
-        <v>0.06080943132049968</v>
+        <v>0.1815339370571545</v>
       </c>
       <c r="S51" t="n">
-        <v>0.3263697893534415</v>
+        <v>0.1656542814164411</v>
       </c>
       <c r="T51" t="n">
-        <v>0.5120992178087006</v>
+        <v>0.2206875229709728</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
@@ -3993,65 +3993,65 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.7751808042905101</v>
+        <v>0.09893584522662625</v>
       </c>
       <c r="C52" t="n">
-        <v>36.12765957446808</v>
+        <v>36.16</v>
       </c>
       <c r="D52" t="n">
-        <v>3.111482292836703</v>
+        <v>2.548708593524832</v>
       </c>
       <c r="E52" t="n">
-        <v>0.06762738230965512</v>
+        <v>0.00673050223193559</v>
       </c>
       <c r="F52" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G52" t="n">
-        <v>4.152173913043478</v>
+        <v>4.513513513513513</v>
       </c>
       <c r="H52" t="n">
-        <v>89.38297872340425</v>
+        <v>162.8125</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1309819287176489</v>
+        <v>0.01449679552751218</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1166144550938717</v>
+        <v>0.0104106180781954</v>
       </c>
       <c r="K52" t="n">
-        <v>0.08107488494595477</v>
+        <v>0.01710851356692851</v>
       </c>
       <c r="L52" t="n">
-        <v>0.030796269688296</v>
+        <v>0.01379629775704608</v>
       </c>
       <c r="M52" t="n">
-        <v>0.00856301441184</v>
+        <v>0.009896596455531035</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0150953711203008</v>
+        <v>0.01194872545704384</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>0.01219324320735091</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>0.00122328777312</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>0.02010726267929165</v>
       </c>
       <c r="R52" t="n">
-        <v>0.005137808647104</v>
+        <v>0.01020168816357162</v>
       </c>
       <c r="S52" t="n">
-        <v>0.177132069547776</v>
+        <v>0.0107526995257248</v>
       </c>
       <c r="T52" t="n">
-        <v>0.1956771121882752</v>
+        <v>0.01647078570623188</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
@@ -4062,65 +4062,65 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5.092654648822595</v>
+        <v>0.9169165985949258</v>
       </c>
       <c r="C53" t="n">
-        <v>48.89189189189189</v>
+        <v>38.87234042553192</v>
       </c>
       <c r="D53" t="n">
-        <v>16.40436466686467</v>
+        <v>6.216719674882939</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8673724950047269</v>
+        <v>0.145579412141223</v>
       </c>
       <c r="F53" t="n">
         <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>10.02083333333333</v>
+        <v>7.673469387755102</v>
       </c>
       <c r="H53" t="n">
-        <v>183.6486486486486</v>
+        <v>238.9</v>
       </c>
       <c r="I53" t="n">
-        <v>0.962473409984869</v>
+        <v>0.009808321364876169</v>
       </c>
       <c r="J53" t="n">
-        <v>0.8323168455790273</v>
+        <v>0.08497772397273601</v>
       </c>
       <c r="K53" t="n">
-        <v>1.296373657164951</v>
+        <v>0.2773845801808704</v>
       </c>
       <c r="L53" t="n">
-        <v>1.429489023171127</v>
+        <v>0.216102522891456</v>
       </c>
       <c r="M53" t="n">
-        <v>0.7009540880625361</v>
+        <v>0.237888695612736</v>
       </c>
       <c r="N53" t="n">
-        <v>1.811227061054208</v>
+        <v>0.4104724647164544</v>
       </c>
       <c r="O53" t="n">
-        <v>0.49123741860576</v>
+        <v>0.1753450056705224</v>
       </c>
       <c r="P53" t="n">
-        <v>0.4753696286344321</v>
+        <v>0.07423827673121999</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.14197689073312</v>
+        <v>0.05686249332052801</v>
       </c>
       <c r="R53" t="n">
-        <v>0.383106546368448</v>
+        <v>0.08803223647289019</v>
       </c>
       <c r="S53" t="n">
-        <v>0.4715529707822976</v>
+        <v>0.02355130707573373</v>
       </c>
       <c r="T53" t="n">
-        <v>0.8540408053792743</v>
+        <v>0.052968360576096</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
@@ -4131,65 +4131,65 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.015334732665181</v>
+        <v>0.3122612062814619</v>
       </c>
       <c r="C54" t="n">
-        <v>39.17395779287023</v>
+        <v>37.38879939209727</v>
       </c>
       <c r="D54" t="n">
-        <v>6.567674815537151</v>
+        <v>5.328278139095175</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1581068816346881</v>
+        <v>0.04686051298726959</v>
       </c>
       <c r="F54" t="n">
-        <v>93.69230769230769</v>
+        <v>97.5</v>
       </c>
       <c r="G54" t="n">
-        <v>6.773453944605899</v>
+        <v>6.501259227095093</v>
       </c>
       <c r="H54" t="n">
-        <v>165.0559982401008</v>
+        <v>224.8606925749023</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1978412794987237</v>
+        <v>0.004528219884002848</v>
       </c>
       <c r="J54" t="n">
-        <v>0.2133834650346284</v>
+        <v>0.02751740700489433</v>
       </c>
       <c r="K54" t="n">
-        <v>0.2951975240287012</v>
+        <v>0.09756519069804918</v>
       </c>
       <c r="L54" t="n">
-        <v>0.2382185848102863</v>
+        <v>0.06930751540322</v>
       </c>
       <c r="M54" t="n">
-        <v>0.157713802020619</v>
+        <v>0.08158276868702852</v>
       </c>
       <c r="N54" t="n">
-        <v>0.2139816655874434</v>
+        <v>0.1219430203029058</v>
       </c>
       <c r="O54" t="n">
-        <v>0.1209687568684401</v>
+        <v>0.0639579656012331</v>
       </c>
       <c r="P54" t="n">
-        <v>0.08204362411353464</v>
+        <v>0.02698203789575303</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.3095353614859749</v>
+        <v>0.03035880159249875</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1391484920884741</v>
+        <v>0.03866013732708494</v>
       </c>
       <c r="S54" t="n">
-        <v>0.1356073230456007</v>
+        <v>0.0118650894661683</v>
       </c>
       <c r="T54" t="n">
-        <v>0.1723969312261257</v>
+        <v>0.02183942651566984</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
@@ -4200,65 +4200,65 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2750583832430287</v>
+        <v>0.06709267024565456</v>
       </c>
       <c r="C55" t="n">
-        <v>36.42</v>
+        <v>36.54</v>
       </c>
       <c r="D55" t="n">
-        <v>3.375759138307513</v>
+        <v>4.266920487808843</v>
       </c>
       <c r="E55" t="n">
-        <v>0.04806869898449648</v>
+        <v>0.009812138836600953</v>
       </c>
       <c r="F55" t="n">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="G55" t="n">
-        <v>3.804347826086957</v>
+        <v>5.408163265306122</v>
       </c>
       <c r="H55" t="n">
-        <v>145.3125</v>
+        <v>199.265306122449</v>
       </c>
       <c r="I55" t="n">
-        <v>0.04759906824269391</v>
+        <v>0.000244657554624</v>
       </c>
       <c r="J55" t="n">
-        <v>0.07014426190129551</v>
+        <v>0.005011565348918027</v>
       </c>
       <c r="K55" t="n">
-        <v>0.1086524200085184</v>
+        <v>0.01593817191278875</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0589104809340264</v>
+        <v>0.01212859244854154</v>
       </c>
       <c r="M55" t="n">
-        <v>0.05105197234234685</v>
+        <v>0.01900035824183366</v>
       </c>
       <c r="N55" t="n">
-        <v>0.0188982669849876</v>
+        <v>0.01329865497065308</v>
       </c>
       <c r="O55" t="n">
-        <v>0.03838513927014127</v>
+        <v>0.0183895103379168</v>
       </c>
       <c r="P55" t="n">
-        <v>0.00122328777312</v>
+        <v>0.006781462582259781</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.018267764078592</v>
+        <v>0.01683733290922368</v>
       </c>
       <c r="R55" t="n">
-        <v>0.02622284153651782</v>
+        <v>0.008966699376969599</v>
       </c>
       <c r="S55" t="n">
-        <v>0.03086110394027136</v>
+        <v>0.003853356485328</v>
       </c>
       <c r="T55" t="n">
-        <v>0.03842131021057017</v>
+        <v>0.01030595483098139</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
@@ -4269,53 +4269,53 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2090629386456408</v>
+        <v>2.298495978785845</v>
       </c>
       <c r="C56" t="n">
-        <v>56.84375</v>
+        <v>69.03846153846153</v>
       </c>
       <c r="D56" t="n">
-        <v>33.90520833333333</v>
+        <v>30.98717948717949</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1490793667403878</v>
+        <v>1.432221441315653</v>
       </c>
       <c r="F56" t="n">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G56" t="n">
-        <v>2.46875</v>
+        <v>2.961538461538462</v>
       </c>
       <c r="H56" t="n">
-        <v>238.28125</v>
+        <v>251.6122448979592</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>0.040490825290272</v>
       </c>
       <c r="J56" t="n">
-        <v>0.019939590701856</v>
+        <v>0.1656331644804507</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0106344483743232</v>
+        <v>0.1268467868207248</v>
       </c>
       <c r="L56" t="n">
-        <v>0.03243158302499869</v>
+        <v>0.171190968596325</v>
       </c>
       <c r="M56" t="n">
-        <v>0.08396805118279309</v>
+        <v>0.8609352552685815</v>
       </c>
       <c r="N56" t="n">
-        <v>0.09735021961510811</v>
+        <v>1.384598654135428</v>
       </c>
       <c r="O56" t="n">
-        <v>0.0559496876345856</v>
+        <v>0.2496196546636936</v>
       </c>
       <c r="P56" t="n">
-        <v>0.0131931586330992</v>
+        <v>0.0043549044723072</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -4324,10 +4324,10 @@
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>0.003572000297510401</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>0.004991014114329601</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
@@ -4338,53 +4338,53 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2090629386456408</v>
+        <v>0.6933065229797619</v>
       </c>
       <c r="C57" t="n">
-        <v>56.84375</v>
+        <v>46.77991966563395</v>
       </c>
       <c r="D57" t="n">
-        <v>33.90520833333333</v>
+        <v>25.61650930966407</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1490793667403878</v>
+        <v>0.4258921418379256</v>
       </c>
       <c r="F57" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G57" t="n">
-        <v>2.46875</v>
+        <v>2.343153732439447</v>
       </c>
       <c r="H57" t="n">
-        <v>238.28125</v>
+        <v>244.2145148788006</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>0.00802476779166726</v>
       </c>
       <c r="J57" t="n">
-        <v>0.019939590701856</v>
+        <v>0.02842105259548845</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0106344483743232</v>
+        <v>0.03310141957587723</v>
       </c>
       <c r="L57" t="n">
-        <v>0.03243158302499869</v>
+        <v>0.05311773582536455</v>
       </c>
       <c r="M57" t="n">
-        <v>0.08396805118279309</v>
+        <v>0.238334193344232</v>
       </c>
       <c r="N57" t="n">
-        <v>0.09735021961510811</v>
+        <v>0.4135374896324539</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0559496876345856</v>
+        <v>0.1017737228913033</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0131931586330992</v>
+        <v>0.000774748922976</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
@@ -4393,10 +4393,10 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>0.0005953333829184002</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>0.00205376425020483</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
@@ -4407,53 +4407,53 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2090629386456408</v>
+        <v>0.1825201816930722</v>
       </c>
       <c r="C58" t="n">
-        <v>56.84375</v>
+        <v>36.95918367346939</v>
       </c>
       <c r="D58" t="n">
-        <v>33.90520833333333</v>
+        <v>22.63148148148148</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1490793667403878</v>
+        <v>0.09323095755943685</v>
       </c>
       <c r="F58" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G58" t="n">
-        <v>2.46875</v>
+        <v>1.840909090909091</v>
       </c>
       <c r="H58" t="n">
-        <v>238.28125</v>
+        <v>229.0769230769231</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.019939590701856</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0106344483743232</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.03243158302499869</v>
+        <v>0.000244657554624</v>
       </c>
       <c r="M58" t="n">
-        <v>0.08396805118279309</v>
+        <v>0.07083040087660321</v>
       </c>
       <c r="N58" t="n">
-        <v>0.09735021961510811</v>
+        <v>0.06927319099903805</v>
       </c>
       <c r="O58" t="n">
-        <v>0.0559496876345856</v>
+        <v>0.0142405987888332</v>
       </c>
       <c r="P58" t="n">
-        <v>0.0131931586330992</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -4476,65 +4476,65 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3.441364542762329</v>
+        <v>3.356276158041934</v>
       </c>
       <c r="C59" t="n">
-        <v>44.07317073170731</v>
+        <v>65.14285714285714</v>
       </c>
       <c r="D59" t="n">
-        <v>16.57674418604651</v>
+        <v>23.87746598639456</v>
       </c>
       <c r="E59" t="n">
-        <v>1.346649232900936</v>
+        <v>0.9239822074046888</v>
       </c>
       <c r="F59" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G59" t="n">
-        <v>6.673469387755102</v>
+        <v>10.66</v>
       </c>
       <c r="H59" t="n">
-        <v>218.9512195121951</v>
+        <v>233.4791666666667</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2214621364644554</v>
+        <v>1.219021949090658</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1995140175621716</v>
+        <v>0.8689368200534524</v>
       </c>
       <c r="K59" t="n">
-        <v>0.77821490499984</v>
+        <v>0.7424096425738822</v>
       </c>
       <c r="L59" t="n">
-        <v>1.39139326657349</v>
+        <v>0.7646014596389761</v>
       </c>
       <c r="M59" t="n">
-        <v>1.378808425342656</v>
+        <v>0.638066902459392</v>
       </c>
       <c r="N59" t="n">
-        <v>0.8364958296192</v>
+        <v>0.53885826405936</v>
       </c>
       <c r="O59" t="n">
-        <v>1.032643078632222</v>
+        <v>0.08709808944614401</v>
       </c>
       <c r="P59" t="n">
-        <v>0.418609075961664</v>
+        <v>0.003835880945712</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.308730649762752</v>
+        <v>0.018838631706048</v>
       </c>
       <c r="R59" t="n">
-        <v>1.50569249331456</v>
+        <v>0.04195877061801601</v>
       </c>
       <c r="S59" t="n">
-        <v>0.61653703765248</v>
+        <v>0.6303310635893761</v>
       </c>
       <c r="T59" t="n">
-        <v>0.134259910725826</v>
+        <v>1.307044355438516</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
@@ -4545,65 +4545,65 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.526284512286693</v>
+        <v>0.807859425425963</v>
       </c>
       <c r="C60" t="n">
-        <v>40.18283844309136</v>
+        <v>43.00915664820507</v>
       </c>
       <c r="D60" t="n">
-        <v>9.553318210294155</v>
+        <v>10.67436184630014</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4545643936151672</v>
+        <v>0.2170036287586264</v>
       </c>
       <c r="F60" t="n">
-        <v>90.5</v>
+        <v>87.81941666666667</v>
       </c>
       <c r="G60" t="n">
-        <v>4.833846407252635</v>
+        <v>4.914432444886681</v>
       </c>
       <c r="H60" t="n">
-        <v>197.6996878870663</v>
+        <v>178.029320936361</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0964467413864119</v>
+        <v>0.19444458910093</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1142370920361221</v>
+        <v>0.1873243955460047</v>
       </c>
       <c r="K60" t="n">
-        <v>0.3493838115087114</v>
+        <v>0.189502684451755</v>
       </c>
       <c r="L60" t="n">
-        <v>0.4890988358971935</v>
+        <v>0.1763598337159112</v>
       </c>
       <c r="M60" t="n">
-        <v>0.4819085647006407</v>
+        <v>0.1438300543993966</v>
       </c>
       <c r="N60" t="n">
-        <v>0.3838175690763501</v>
+        <v>0.1139851054576964</v>
       </c>
       <c r="O60" t="n">
-        <v>0.4621460446387698</v>
+        <v>0.0119259535576364</v>
       </c>
       <c r="P60" t="n">
-        <v>0.1596828888706961</v>
+        <v>0.0003420429117240965</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.1894873610068269</v>
+        <v>0.0018996639710076</v>
       </c>
       <c r="R60" t="n">
-        <v>0.5267741322961907</v>
+        <v>0.006126746197762402</v>
       </c>
       <c r="S60" t="n">
-        <v>0.2196650811019548</v>
+        <v>0.08963867629056384</v>
       </c>
       <c r="T60" t="n">
-        <v>0.1210747034632554</v>
+        <v>0.1689936047798514</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
@@ -4614,65 +4614,65 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.5938063120149347</v>
+        <v>0.01323715381806894</v>
       </c>
       <c r="C61" t="n">
-        <v>37.08163265306123</v>
+        <v>36.24</v>
       </c>
       <c r="D61" t="n">
-        <v>5.771058250139883</v>
+        <v>3.466421300921301</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1118556240919475</v>
+        <v>0.003362058274153576</v>
       </c>
       <c r="F61" t="n">
-        <v>82</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>2.534883720930233</v>
+        <v>3.142857142857143</v>
       </c>
       <c r="H61" t="n">
-        <v>174.5510204081633</v>
+        <v>103.3061224489796</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>0.001458240578077248</v>
       </c>
       <c r="J61" t="n">
-        <v>0.00733972663872</v>
+        <v>0.00155439099704448</v>
       </c>
       <c r="K61" t="n">
-        <v>0.1605531839826139</v>
+        <v>0.002202617013200649</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0992991616952381</v>
+        <v>0.0025811372012832</v>
       </c>
       <c r="M61" t="n">
-        <v>0.1335404756847694</v>
+        <v>0.0025199728126272</v>
       </c>
       <c r="N61" t="n">
-        <v>0.1126797990447923</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>0.09128872384605731</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>0.0405152910457344</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.06679151241235201</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>0.07478447472191525</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>0.06878954910844799</v>
+        <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>0.10275617294208</v>
+        <v>0.00057127539004704</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
@@ -4683,65 +4683,65 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.708410480109248</v>
+        <v>2.499819146565048</v>
       </c>
       <c r="C62" t="n">
-        <v>73.04000000000001</v>
+        <v>65.14285714285714</v>
       </c>
       <c r="D62" t="n">
-        <v>43.48333333333334</v>
+        <v>40.11973180076628</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3171406645825489</v>
+        <v>1.38353072390949</v>
       </c>
       <c r="F62" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>4.676470588235294</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="H62" t="n">
-        <v>231.5277777777778</v>
+        <v>247.65</v>
       </c>
       <c r="I62" t="n">
-        <v>0.07978935276434304</v>
+        <v>0.6098986626703488</v>
       </c>
       <c r="J62" t="n">
-        <v>0.112909461458976</v>
+        <v>0.6803087768191872</v>
       </c>
       <c r="K62" t="n">
-        <v>0.190361053037088</v>
+        <v>0.7424096425738822</v>
       </c>
       <c r="L62" t="n">
-        <v>0.258183622286784</v>
+        <v>0.7646014596389761</v>
       </c>
       <c r="M62" t="n">
-        <v>0.1934283901427312</v>
+        <v>0.9237689810499184</v>
       </c>
       <c r="N62" t="n">
-        <v>0.1904536733970528</v>
+        <v>1.50480927009613</v>
       </c>
       <c r="O62" t="n">
-        <v>0.05953741591775041</v>
+        <v>0.2980373847237818</v>
       </c>
       <c r="P62" t="n">
-        <v>0.0002935890655488</v>
+        <v>0.0038288907298656</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.000413634372350981</v>
+        <v>0.0187994864973082</v>
       </c>
       <c r="R62" t="n">
-        <v>0.081226308135168</v>
+        <v>0.04195877061801601</v>
       </c>
       <c r="S62" t="n">
-        <v>0.093214528311744</v>
+        <v>0.1992001809748608</v>
       </c>
       <c r="T62" t="n">
-        <v>0.066220644784896</v>
+        <v>0.4775908616961499</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
@@ -4752,65 +4752,65 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.3245773099820645</v>
+        <v>0.7536595383294135</v>
       </c>
       <c r="C63" t="n">
-        <v>60.32048624158015</v>
+        <v>44.73736299753703</v>
       </c>
       <c r="D63" t="n">
-        <v>23.1270089607293</v>
+        <v>16.37557060766991</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1377504127184475</v>
+        <v>0.2967243459607334</v>
       </c>
       <c r="F63" t="n">
-        <v>62</v>
+        <v>84.3</v>
       </c>
       <c r="G63" t="n">
-        <v>3.478456349101344</v>
+        <v>4.357701148165344</v>
       </c>
       <c r="H63" t="n">
-        <v>212.077389369603</v>
+        <v>186.5441035470833</v>
       </c>
       <c r="I63" t="n">
-        <v>0.03256938557476188</v>
+        <v>0.1105030751494986</v>
       </c>
       <c r="J63" t="n">
-        <v>0.04682151806675711</v>
+        <v>0.105040404761928</v>
       </c>
       <c r="K63" t="n">
-        <v>0.07843045130869496</v>
+        <v>0.1294543170203034</v>
       </c>
       <c r="L63" t="n">
-        <v>0.1093833910855864</v>
+        <v>0.126125140267887</v>
       </c>
       <c r="M63" t="n">
-        <v>0.09774235812722086</v>
+        <v>0.1984501462449836</v>
       </c>
       <c r="N63" t="n">
-        <v>0.09245266974282745</v>
+        <v>0.2434987669914349</v>
       </c>
       <c r="O63" t="n">
-        <v>0.01977069398035227</v>
+        <v>0.04253782725498092</v>
       </c>
       <c r="P63" t="n">
-        <v>4.89315109248e-05</v>
+        <v>0.000475940496261888</v>
       </c>
       <c r="Q63" t="n">
-        <v>6.893906205849684e-05</v>
+        <v>0.002070074753846403</v>
       </c>
       <c r="R63" t="n">
-        <v>0.01366661993280757</v>
+        <v>0.008593455507366659</v>
       </c>
       <c r="S63" t="n">
-        <v>0.01616833041819072</v>
+        <v>0.04302494077331961</v>
       </c>
       <c r="T63" t="n">
-        <v>0.01675609184396617</v>
+        <v>0.08283776393114288</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
@@ -4821,47 +4821,47 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.07891300657263108</v>
+        <v>0.001400181010293024</v>
       </c>
       <c r="C64" t="n">
-        <v>47.86842105263158</v>
+        <v>36.34</v>
       </c>
       <c r="D64" t="n">
-        <v>10.15952380952381</v>
+        <v>3.725298531533825</v>
       </c>
       <c r="E64" t="n">
-        <v>0.02109388754597282</v>
+        <v>0.001010992490706552</v>
       </c>
       <c r="F64" t="n">
-        <v>50</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>2.28</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="H64" t="n">
-        <v>192.28</v>
+        <v>97.73999999999999</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.00142716906864</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0.00841458882870144</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.01450060016854245</v>
+        <v>0.0001065972965496768</v>
       </c>
       <c r="M64" t="n">
-        <v>0.0433148724922176</v>
+        <v>0.0007040922504243689</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0257265064235718</v>
+        <v>0.0008145488819334528</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -4890,65 +4890,65 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.714968802568872</v>
+        <v>5.092654648822595</v>
       </c>
       <c r="C65" t="n">
-        <v>47.92105263157895</v>
+        <v>38.82978723404256</v>
       </c>
       <c r="D65" t="n">
-        <v>8.548606701940034</v>
+        <v>5.999730769230768</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6490596628681449</v>
+        <v>0.8673724950047269</v>
       </c>
       <c r="F65" t="n">
-        <v>95.556</v>
+        <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>7.418604651162791</v>
+        <v>10.57142857142857</v>
       </c>
       <c r="H65" t="n">
-        <v>172.1842105263158</v>
+        <v>177.52</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8843363186197384</v>
+        <v>0.962473409984869</v>
       </c>
       <c r="J65" t="n">
-        <v>0.8429748002674222</v>
+        <v>0.8323168455790273</v>
       </c>
       <c r="K65" t="n">
-        <v>1.144141054199136</v>
+        <v>1.296373657164951</v>
       </c>
       <c r="L65" t="n">
-        <v>1.084149582643245</v>
+        <v>1.429489023171127</v>
       </c>
       <c r="M65" t="n">
-        <v>0.699047797949424</v>
+        <v>0.7009540880625361</v>
       </c>
       <c r="N65" t="n">
-        <v>0.43304387168448</v>
+        <v>1.811227061054208</v>
       </c>
       <c r="O65" t="n">
-        <v>0.468478440845856</v>
+        <v>0.49123741860576</v>
       </c>
       <c r="P65" t="n">
-        <v>0.116987087369376</v>
+        <v>0.4753696286344321</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.1691073017561088</v>
+        <v>2.14197689073312</v>
       </c>
       <c r="R65" t="n">
-        <v>0.3698561650517395</v>
+        <v>0.383106546368448</v>
       </c>
       <c r="S65" t="n">
-        <v>0.2603855402784</v>
+        <v>0.4715529707822976</v>
       </c>
       <c r="T65" t="n">
-        <v>0.536896472926912</v>
+        <v>0.8540408053792743</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
@@ -4959,65 +4959,65 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1.77456877386234</v>
+        <v>1.052534456913175</v>
       </c>
       <c r="C66" t="n">
-        <v>41.09167664956553</v>
+        <v>36.74461733487721</v>
       </c>
       <c r="D66" t="n">
-        <v>6.903409984317404</v>
+        <v>4.053614344509953</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3009489133358232</v>
+        <v>0.1351188718566965</v>
       </c>
       <c r="F66" t="n">
-        <v>88.889</v>
+        <v>99.2</v>
       </c>
       <c r="G66" t="n">
-        <v>5.927853228238004</v>
+        <v>8.80127136102668</v>
       </c>
       <c r="H66" t="n">
-        <v>159.4998076483473</v>
+        <v>163.1632736286004</v>
       </c>
       <c r="I66" t="n">
-        <v>0.462523723339396</v>
+        <v>0.1923504291327725</v>
       </c>
       <c r="J66" t="n">
-        <v>0.4601975294301073</v>
+        <v>0.2026623740246765</v>
       </c>
       <c r="K66" t="n">
-        <v>0.5694540694953446</v>
+        <v>0.2830678497022442</v>
       </c>
       <c r="L66" t="n">
-        <v>0.4724634550164403</v>
+        <v>0.2353821448970769</v>
       </c>
       <c r="M66" t="n">
-        <v>0.2746153483168945</v>
+        <v>0.1601333215371919</v>
       </c>
       <c r="N66" t="n">
-        <v>0.2119907468640564</v>
+        <v>0.2094796077357456</v>
       </c>
       <c r="O66" t="n">
-        <v>0.2486676958255829</v>
+        <v>0.1034725637081471</v>
       </c>
       <c r="P66" t="n">
-        <v>0.07411238003123641</v>
+        <v>0.0857923773204671</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.123470512566912</v>
+        <v>0.3025655635599555</v>
       </c>
       <c r="R66" t="n">
-        <v>0.1937899869169421</v>
+        <v>0.1333789090615779</v>
       </c>
       <c r="S66" t="n">
-        <v>0.1957717489566572</v>
+        <v>0.1280228343084034</v>
       </c>
       <c r="T66" t="n">
-        <v>0.3701929801881496</v>
+        <v>0.1769078324863675</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
@@ -5028,65 +5028,65 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.8537003450769449</v>
+        <v>0.03442463908639178</v>
       </c>
       <c r="C67" t="n">
-        <v>38.04255319148936</v>
+        <v>36.16</v>
       </c>
       <c r="D67" t="n">
-        <v>4.889516105949074</v>
+        <v>3.175424593122736</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1316613486184723</v>
+        <v>0.003319848708779686</v>
       </c>
       <c r="F67" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G67" t="n">
-        <v>4.288888888888889</v>
+        <v>6.18</v>
       </c>
       <c r="H67" t="n">
-        <v>148.3829787234042</v>
+        <v>141.64</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2421776166839477</v>
+        <v>0.008052781081671647</v>
       </c>
       <c r="J67" t="n">
-        <v>0.2333501206863778</v>
+        <v>0.009302423910259199</v>
       </c>
       <c r="K67" t="n">
-        <v>0.265794219789552</v>
+        <v>0.007921235875259241</v>
       </c>
       <c r="L67" t="n">
-        <v>0.2299669805486226</v>
+        <v>0.005007204687797365</v>
       </c>
       <c r="M67" t="n">
-        <v>0.08475225524592565</v>
+        <v>0.004918497615139047</v>
       </c>
       <c r="N67" t="n">
-        <v>0.077648191398792</v>
+        <v>0.00326148908443344</v>
       </c>
       <c r="O67" t="n">
-        <v>0.162452616270336</v>
+        <v>0.0022065053207652</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>0.001025604468983808</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.018267764078592</v>
+        <v>0.002624196930897024</v>
       </c>
       <c r="R67" t="n">
-        <v>0.053498451944448</v>
+        <v>0.001695699269503069</v>
       </c>
       <c r="S67" t="n">
-        <v>0.1508502022375901</v>
+        <v>0.002431613795784148</v>
       </c>
       <c r="T67" t="n">
-        <v>0.1971613680196608</v>
+        <v>0.00612194366057904</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
@@ -5097,65 +5097,65 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1.741251116978496</v>
+        <v>0.2044014476751954</v>
       </c>
       <c r="C68" t="n">
-        <v>60.3</v>
+        <v>56.8125</v>
       </c>
       <c r="D68" t="n">
-        <v>28.38777777777778</v>
+        <v>31.575</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6735047143042301</v>
+        <v>0.1209683666250618</v>
       </c>
       <c r="F68" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G68" t="n">
-        <v>6.232558139534884</v>
+        <v>4.027027027027027</v>
       </c>
       <c r="H68" t="n">
-        <v>256.8723404255319</v>
+        <v>245.4864864864865</v>
       </c>
       <c r="I68" t="n">
-        <v>0.53335346908032</v>
+        <v>0.0005627123756352001</v>
       </c>
       <c r="J68" t="n">
-        <v>0.490798345672908</v>
+        <v>0.0355732084423296</v>
       </c>
       <c r="K68" t="n">
-        <v>0.8203204701506304</v>
+        <v>0.0085997130450336</v>
       </c>
       <c r="L68" t="n">
-        <v>0.543937173665536</v>
+        <v>0.0354066082979904</v>
       </c>
       <c r="M68" t="n">
-        <v>0.194411009343096</v>
+        <v>0.08770402465642944</v>
       </c>
       <c r="N68" t="n">
-        <v>0.143246998232352</v>
+        <v>0.09338872449063629</v>
       </c>
       <c r="O68" t="n">
-        <v>0.312183039700224</v>
+        <v>0.048634426751328</v>
       </c>
       <c r="P68" t="n">
-        <v>0.127955901068352</v>
+        <v>0.015372649682208</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.08223289921704961</v>
+        <v>0.0029195801518464</v>
       </c>
       <c r="R68" t="n">
-        <v>0.21529864806912</v>
+        <v>0.0384846333423552</v>
       </c>
       <c r="S68" t="n">
-        <v>0.07589277344436481</v>
+        <v>0.0126487955740608</v>
       </c>
       <c r="T68" t="n">
-        <v>0.4058053306030081</v>
+        <v>0.0007339726638720001</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
@@ -5166,65 +5166,65 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.6203703232509391</v>
+        <v>0.1287063943162546</v>
       </c>
       <c r="C69" t="n">
-        <v>45.26906580848759</v>
+        <v>53.01435810810811</v>
       </c>
       <c r="D69" t="n">
-        <v>14.21244327030503</v>
+        <v>25.0072430947431</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2356370042183471</v>
+        <v>0.07276899203786734</v>
       </c>
       <c r="F69" t="n">
-        <v>81.71428571428571</v>
+        <v>69</v>
       </c>
       <c r="G69" t="n">
-        <v>3.783598666124997</v>
+        <v>3.169763513513514</v>
       </c>
       <c r="H69" t="n">
-        <v>195.982973777948</v>
+        <v>241.6651182432433</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1748605467884579</v>
+        <v>0.0003302876987424001</v>
       </c>
       <c r="J69" t="n">
-        <v>0.1856367371792335</v>
+        <v>0.0246207052469952</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2455566392675997</v>
+        <v>0.007560792214862401</v>
       </c>
       <c r="L69" t="n">
-        <v>0.1840374238576615</v>
+        <v>0.0223981078668336</v>
       </c>
       <c r="M69" t="n">
-        <v>0.0548897961568752</v>
+        <v>0.05294104048249632</v>
       </c>
       <c r="N69" t="n">
-        <v>0.06428519523350959</v>
+        <v>0.05677938341229487</v>
       </c>
       <c r="O69" t="n">
-        <v>0.1320605911174785</v>
+        <v>0.034144291819728</v>
       </c>
       <c r="P69" t="n">
-        <v>0.07468322441508253</v>
+        <v>0.01007926392344566</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.05627153486244665</v>
+        <v>0.0014597900759232</v>
       </c>
       <c r="R69" t="n">
-        <v>0.09338429069658515</v>
+        <v>0.0192423166711776</v>
       </c>
       <c r="S69" t="n">
-        <v>0.04601198372913425</v>
+        <v>0.0063243977870304</v>
       </c>
       <c r="T69" t="n">
-        <v>0.1322023077829589</v>
+        <v>0.000366986331936</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -5235,65 +5235,65 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1015614285503328</v>
+        <v>0.05301134095731373</v>
       </c>
       <c r="C70" t="n">
-        <v>38.6595744680851</v>
+        <v>49.21621621621622</v>
       </c>
       <c r="D70" t="n">
-        <v>6.449540704773262</v>
+        <v>18.43948618948619</v>
       </c>
       <c r="E70" t="n">
-        <v>0.02280983708404645</v>
+        <v>0.02456961745067287</v>
       </c>
       <c r="F70" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G70" t="n">
-        <v>2.566666666666667</v>
+        <v>2.3125</v>
       </c>
       <c r="H70" t="n">
-        <v>156.8604651162791</v>
+        <v>237.84375</v>
       </c>
       <c r="I70" t="n">
-        <v>0.02366164763286912</v>
+        <v>9.78630218496e-05</v>
       </c>
       <c r="J70" t="n">
-        <v>0.02585704142302848</v>
+        <v>0.0136682020516608</v>
       </c>
       <c r="K70" t="n">
-        <v>0.0345685833586548</v>
+        <v>0.0065218713846912</v>
       </c>
       <c r="L70" t="n">
-        <v>0.016986224506752</v>
+        <v>0.0093896074356768</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0011743562621952</v>
+        <v>0.0181780563085632</v>
       </c>
       <c r="N70" t="n">
-        <v>0.0200999773209984</v>
+        <v>0.02017004233395345</v>
       </c>
       <c r="O70" t="n">
-        <v>0.02728910364276096</v>
+        <v>0.019654156888128</v>
       </c>
       <c r="P70" t="n">
-        <v>0.0225631831846769</v>
+        <v>0.004785878164683324</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.0237256663596624</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>0.0314976213448848</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>0.009003398010163199</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>0.0102236275638504</v>
+        <v>0</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -5304,65 +5304,65 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4.686549531162661</v>
+        <v>2.58571155616814</v>
       </c>
       <c r="C71" t="n">
-        <v>39.52173913043478</v>
+        <v>55.09090909090909</v>
       </c>
       <c r="D71" t="n">
-        <v>6.054240988480119</v>
+        <v>21.52929292929293</v>
       </c>
       <c r="E71" t="n">
-        <v>0.7141505995521095</v>
+        <v>1.04555826959414</v>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="G71" t="n">
-        <v>10.20833333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>172.5</v>
+        <v>140.6363636363636</v>
       </c>
       <c r="I71" t="n">
-        <v>0.7906633143863051</v>
+        <v>0.7286207798645999</v>
       </c>
       <c r="J71" t="n">
-        <v>0.766472657741086</v>
+        <v>0.939997625584896</v>
       </c>
       <c r="K71" t="n">
-        <v>1.165964508071598</v>
+        <v>0.8696891025730252</v>
       </c>
       <c r="L71" t="n">
-        <v>1.23373524742819</v>
+        <v>0.8489993541690684</v>
       </c>
       <c r="M71" t="n">
-        <v>0.6928294184360652</v>
+        <v>0.42461677813632</v>
       </c>
       <c r="N71" t="n">
-        <v>1.106602430067994</v>
+        <v>0.33151098651552</v>
       </c>
       <c r="O71" t="n">
-        <v>0.4540914115979911</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>0.4659870114146024</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.779290415319638</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>0.4202785039814522</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>0.4346679318327945</v>
+        <v>0.470598806319264</v>
       </c>
       <c r="T71" t="n">
-        <v>0.7213050484860464</v>
+        <v>0.6888803945736074</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -5373,65 +5373,65 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.128686227377075</v>
+        <v>2.58571155616814</v>
       </c>
       <c r="C72" t="n">
-        <v>36.72186917701863</v>
+        <v>55.09090909090909</v>
       </c>
       <c r="D72" t="n">
-        <v>4.363595468443057</v>
+        <v>21.52929292929293</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1548371769095206</v>
+        <v>1.04555826959414</v>
       </c>
       <c r="F72" t="n">
-        <v>98.49487500000001</v>
+        <v>66</v>
       </c>
       <c r="G72" t="n">
-        <v>8.312989315291334</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="H72" t="n">
-        <v>161.5424292923691</v>
+        <v>140.6363636363636</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1897960624847014</v>
+        <v>0.7286207798645999</v>
       </c>
       <c r="J72" t="n">
-        <v>0.2230368050798492</v>
+        <v>0.939997625584896</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2952014951508851</v>
+        <v>0.8696891025730252</v>
       </c>
       <c r="L72" t="n">
-        <v>0.2671441742087171</v>
+        <v>0.8489993541690684</v>
       </c>
       <c r="M72" t="n">
-        <v>0.1861182820029962</v>
+        <v>0.42461677813632</v>
       </c>
       <c r="N72" t="n">
-        <v>0.2065060839124349</v>
+        <v>0.33151098651552</v>
       </c>
       <c r="O72" t="n">
-        <v>0.106872116213542</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>0.08746214377087788</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.3566582652449973</v>
+        <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>0.1203487381786537</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>0.1235778323780349</v>
+        <v>0.470598806319264</v>
       </c>
       <c r="T72" t="n">
-        <v>0.1736152656817094</v>
+        <v>0.6888803945736074</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
@@ -5442,65 +5442,65 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1323531109094796</v>
+        <v>2.58571155616814</v>
       </c>
       <c r="C73" t="n">
-        <v>35.52</v>
+        <v>55.09090909090909</v>
       </c>
       <c r="D73" t="n">
-        <v>3.120910341987161</v>
+        <v>21.52929292929293</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01163503441320759</v>
+        <v>1.04555826959414</v>
       </c>
       <c r="F73" t="n">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="G73" t="n">
-        <v>6.347826086956522</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="H73" t="n">
-        <v>146.1836734693877</v>
+        <v>140.6363636363636</v>
       </c>
       <c r="I73" t="n">
-        <v>0.023884693770168</v>
+        <v>0.7286207798645999</v>
       </c>
       <c r="J73" t="n">
-        <v>0.03192571381367808</v>
+        <v>0.939997625584896</v>
       </c>
       <c r="K73" t="n">
-        <v>0.03160396153639023</v>
+        <v>0.8696891025730252</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0208754058482928</v>
+        <v>0.8489993541690684</v>
       </c>
       <c r="M73" t="n">
-        <v>0.020868383270336</v>
+        <v>0.42461677813632</v>
       </c>
       <c r="N73" t="n">
-        <v>0.0083841085750212</v>
+        <v>0.33151098651552</v>
       </c>
       <c r="O73" t="n">
-        <v>0.0227613078318528</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>0.007149437429568001</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.01855445254644628</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>0.004912723696849921</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>0.0071317677172896</v>
+        <v>0.470598806319264</v>
       </c>
       <c r="T73" t="n">
-        <v>0.02509791901483169</v>
+        <v>0.6888803945736074</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
@@ -5511,65 +5511,65 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Willamette Lowland basin-fill aquifers</t>
+          <t>San Joaquin River Basin</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3.356276158041934</v>
+        <v>2.085424296981782</v>
       </c>
       <c r="C74" t="n">
-        <v>38.06521739130435</v>
+        <v>90.75</v>
       </c>
       <c r="D74" t="n">
-        <v>9.826086956521738</v>
+        <v>49.06666666666667</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9239822074046888</v>
+        <v>1.190544000170998</v>
       </c>
       <c r="F74" t="n">
-        <v>95.833</v>
+        <v>40</v>
       </c>
       <c r="G74" t="n">
-        <v>4.152173913043478</v>
+        <v>2.15</v>
       </c>
       <c r="H74" t="n">
-        <v>105.7826086956522</v>
+        <v>173.55</v>
       </c>
       <c r="I74" t="n">
-        <v>1.219021949090658</v>
+        <v>0.4902937394664961</v>
       </c>
       <c r="J74" t="n">
-        <v>0.8689368200534524</v>
+        <v>0.43243222779792</v>
       </c>
       <c r="K74" t="n">
-        <v>0.4825391587134136</v>
+        <v>0.5257834765078362</v>
       </c>
       <c r="L74" t="n">
-        <v>0.393234592439232</v>
+        <v>0.7137790057095729</v>
       </c>
       <c r="M74" t="n">
-        <v>0.00856301441184</v>
+        <v>0.4985932765118178</v>
       </c>
       <c r="N74" t="n">
-        <v>0.18532809762768</v>
+        <v>0.322295551958016</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>0.154903183156224</v>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>0.002691233100864</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>0.052112059134912</v>
       </c>
       <c r="R74" t="n">
-        <v>0.005137808647104</v>
+        <v>0.206001660993408</v>
       </c>
       <c r="S74" t="n">
-        <v>0.6303310635893761</v>
+        <v>0.071195348395584</v>
       </c>
       <c r="T74" t="n">
-        <v>1.307044355438516</v>
+        <v>0.2721570637637376</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
@@ -5580,65 +5580,65 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Willamette Lowland basin-fill aquifers</t>
+          <t>San Joaquin River Basin</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3.356276158041934</v>
+        <v>2.085424296981782</v>
       </c>
       <c r="C75" t="n">
-        <v>38.06521739130435</v>
+        <v>90.75</v>
       </c>
       <c r="D75" t="n">
-        <v>9.826086956521738</v>
+        <v>49.06666666666667</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9239822074046888</v>
+        <v>1.190544000170998</v>
       </c>
       <c r="F75" t="n">
-        <v>95.833</v>
+        <v>40</v>
       </c>
       <c r="G75" t="n">
-        <v>4.152173913043478</v>
+        <v>2.15</v>
       </c>
       <c r="H75" t="n">
-        <v>105.7826086956522</v>
+        <v>173.55</v>
       </c>
       <c r="I75" t="n">
-        <v>1.219021949090658</v>
+        <v>0.4902937394664961</v>
       </c>
       <c r="J75" t="n">
-        <v>0.8689368200534524</v>
+        <v>0.43243222779792</v>
       </c>
       <c r="K75" t="n">
-        <v>0.4825391587134136</v>
+        <v>0.5257834765078362</v>
       </c>
       <c r="L75" t="n">
-        <v>0.393234592439232</v>
+        <v>0.7137790057095729</v>
       </c>
       <c r="M75" t="n">
-        <v>0.00856301441184</v>
+        <v>0.4985932765118178</v>
       </c>
       <c r="N75" t="n">
-        <v>0.18532809762768</v>
+        <v>0.322295551958016</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>0.154903183156224</v>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>0.002691233100864</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>0.052112059134912</v>
       </c>
       <c r="R75" t="n">
-        <v>0.005137808647104</v>
+        <v>0.206001660993408</v>
       </c>
       <c r="S75" t="n">
-        <v>0.6303310635893761</v>
+        <v>0.071195348395584</v>
       </c>
       <c r="T75" t="n">
-        <v>1.307044355438516</v>
+        <v>0.2721570637637376</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -5649,67 +5649,1516 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
+          <t>San Joaquin River Basin</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2.085424296981782</v>
+      </c>
+      <c r="C76" t="n">
+        <v>90.75</v>
+      </c>
+      <c r="D76" t="n">
+        <v>49.06666666666667</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.190544000170998</v>
+      </c>
+      <c r="F76" t="n">
+        <v>40</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H76" t="n">
+        <v>173.55</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.4902937394664961</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.43243222779792</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.5257834765078362</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.7137790057095729</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.4985932765118178</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.322295551958016</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.154903183156224</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.002691233100864</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.052112059134912</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.206001660993408</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.071195348395584</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.2721570637637376</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>8.444502292380134</v>
+      </c>
+      <c r="C77" t="n">
+        <v>44.17073170731707</v>
+      </c>
+      <c r="D77" t="n">
+        <v>20.35374149659864</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.100807891154423</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100</v>
+      </c>
+      <c r="G77" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="H77" t="n">
+        <v>216.1219512195122</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.78760571395742</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.33403307111296</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2.68226232386112</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2.44331344551168</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2.431080567780481</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2.278719189197969</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2.04098768901888</v>
+      </c>
+      <c r="P77" t="n">
+        <v>6.70239370892448</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1.48507135656768</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2.044358526438144</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.8881069232851201</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2.3792947187184</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1.264560776152003</v>
+      </c>
+      <c r="C78" t="n">
+        <v>37.59309630073482</v>
+      </c>
+      <c r="D78" t="n">
+        <v>7.276205781437281</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.36022877326546</v>
+      </c>
+      <c r="F78" t="n">
+        <v>96.83994736842105</v>
+      </c>
+      <c r="G78" t="n">
+        <v>7.909034534821781</v>
+      </c>
+      <c r="H78" t="n">
+        <v>179.1814228566311</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.1910468966398662</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.1919817884479906</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.3216738585688874</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.3727074644074199</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.3422200190916952</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.2511795699924325</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.2458610090981368</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.3902867081568198</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.1914455013293115</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.2410099103106255</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.1253374327577896</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.2459643384314422</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.00778877111447689</v>
+      </c>
+      <c r="C79" t="n">
+        <v>36.06</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.132404693427834</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0006612657829881525</v>
+      </c>
+      <c r="F79" t="n">
+        <v>82</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2.061224489795918</v>
+      </c>
+      <c r="H79" t="n">
+        <v>149.2</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.001701026402954084</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.003042759157539718</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.001154156330762142</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.0006103093908075056</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.0006355536021255272</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.0005008376908528723</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.0007542866547710837</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.0006265601052128825</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.0006060834875912728</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1.873736095397328</v>
+      </c>
+      <c r="C80" t="n">
+        <v>65.14285714285714</v>
+      </c>
+      <c r="D80" t="n">
+        <v>23.87746598639456</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.6765391364903054</v>
+      </c>
+      <c r="F80" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="G80" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="H80" t="n">
+        <v>203.2857142857143</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.158945857987392</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.3046965185287296</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5155578511597744</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.7646014596389761</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.638066902459392</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.374430911812416</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.0254933171918208</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.026728837842672</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1.873736095397328</v>
+      </c>
+      <c r="C81" t="n">
+        <v>65.14285714285714</v>
+      </c>
+      <c r="D81" t="n">
+        <v>23.87746598639456</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.6765391364903054</v>
+      </c>
+      <c r="F81" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="H81" t="n">
+        <v>203.2857142857143</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.158945857987392</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.3046965185287296</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.5155578511597744</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.7646014596389761</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.638066902459392</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.374430911812416</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.0254933171918208</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.026728837842672</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1.873736095397328</v>
+      </c>
+      <c r="C82" t="n">
+        <v>65.14285714285714</v>
+      </c>
+      <c r="D82" t="n">
+        <v>23.87746598639456</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.6765391364903054</v>
+      </c>
+      <c r="F82" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="H82" t="n">
+        <v>203.2857142857143</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.158945857987392</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.3046965185287296</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.5155578511597744</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.7646014596389761</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.638066902459392</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.374430911812416</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.0254933171918208</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.026728837842672</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>3.714968802568872</v>
+      </c>
+      <c r="C83" t="n">
+        <v>47.92105263157895</v>
+      </c>
+      <c r="D83" t="n">
+        <v>7.841925804691762</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.6490596628681449</v>
+      </c>
+      <c r="F83" t="n">
+        <v>98</v>
+      </c>
+      <c r="G83" t="n">
+        <v>10.02083333333333</v>
+      </c>
+      <c r="H83" t="n">
+        <v>172.1842105263158</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.8843363186197384</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.8429748002674222</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1.144141054199136</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1.084149582643245</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.699047797949424</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.43304387168448</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.468478440845856</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.116987087369376</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.1691073017561088</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.281096239165812</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.2603855402784</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.536896472926912</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1.198547350624603</v>
+      </c>
+      <c r="C84" t="n">
+        <v>39.24177187906856</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5.6523880561269</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.1783890472954146</v>
+      </c>
+      <c r="F84" t="n">
+        <v>93.05457142857144</v>
+      </c>
+      <c r="G84" t="n">
+        <v>7.138369331560328</v>
+      </c>
+      <c r="H84" t="n">
+        <v>155.8750190573316</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.277545429400606</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.2831934380099653</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3766039527631203</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.2995927039490239</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.1726514337663502</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.1182472316800434</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.1511720098187112</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.05686884276658848</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.07844178477865392</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.1285718847139166</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.1397717024589395</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.2225471805923121</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.1773435624116621</v>
+      </c>
+      <c r="C85" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3.375759138307513</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.02033734751299052</v>
+      </c>
+      <c r="F85" t="n">
+        <v>76</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4.468085106382978</v>
+      </c>
+      <c r="H85" t="n">
+        <v>145.3125</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.0300167635350912</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.03130362045060923</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.0488152985863536</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.03957454328730921</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.02040315238430147</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.0231258955603121</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.02144912781388608</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.018267764078592</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.03179814237448134</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.01478621293763956</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.030969568789488</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1.741251116978496</v>
+      </c>
+      <c r="C86" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D86" t="n">
+        <v>28.38777777777778</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.6735047143042301</v>
+      </c>
+      <c r="F86" t="n">
+        <v>96</v>
+      </c>
+      <c r="G86" t="n">
+        <v>6.916666666666667</v>
+      </c>
+      <c r="H86" t="n">
+        <v>256.8723404255319</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.53335346908032</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.490798345672908</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.8203204701506304</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.543937173665536</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.194411009343096</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.2206426680836928</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.612296306705664</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.2450979382223232</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.233088747398208</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.3698561650517395</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.1792850560284672</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.4058053306030081</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.7975322972829277</v>
+      </c>
+      <c r="C87" t="n">
+        <v>42.80306460763276</v>
+      </c>
+      <c r="D87" t="n">
+        <v>12.90479956195945</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.2471287836247575</v>
+      </c>
+      <c r="F87" t="n">
+        <v>86</v>
+      </c>
+      <c r="G87" t="n">
+        <v>4.144047109717032</v>
+      </c>
+      <c r="H87" t="n">
+        <v>183.3196475679583</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.2116481841038042</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.2337851470418712</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2990849467258435</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.2499039586811581</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.08770010269812746</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.09980530717488442</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.1894196180042395</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.09294226062930813</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.1219112781890435</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.1651661365093903</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.07826804553012963</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.1805902485191321</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.1772387818854312</v>
+      </c>
+      <c r="C88" t="n">
+        <v>37.72916666666666</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5.496481556637807</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.04796097725476176</v>
+      </c>
+      <c r="F88" t="n">
+        <v>60</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.871794871794872</v>
+      </c>
+      <c r="H88" t="n">
+        <v>158.7111111111111</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.025342445033136</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.0575923883584896</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.04367626665147649</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.016986224506752</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.0011743562621952</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.01535320254325071</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.02757494521908</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.0435205013416992</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.01926188927554752</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.0410919838530624</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.009186891176131201</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.0286528947543936</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.873428525900086</v>
+      </c>
+      <c r="C89" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>13.60232142857143</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.4923015653063281</v>
+      </c>
+      <c r="F89" t="n">
+        <v>100</v>
+      </c>
+      <c r="G89" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="H89" t="n">
+        <v>216.7083333333333</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.6330339470499841</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.3229343800173121</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.4786789439785566</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.2729644336939968</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.48943161284544</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.809531071991712</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.7841274625699201</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.298115230309344</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.6261398466714719</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.3480933318844801</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.501181000647264</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.435018607661088</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.7896204789467576</v>
+      </c>
+      <c r="C90" t="n">
+        <v>42.44639183161588</v>
+      </c>
+      <c r="D90" t="n">
+        <v>8.715252019985259</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.1828325749069966</v>
+      </c>
+      <c r="F90" t="n">
+        <v>86.5106</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.577043926738659</v>
+      </c>
+      <c r="H90" t="n">
+        <v>182.4547680208565</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.2043240985447056</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.1304439811959354</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.1781574891884253</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.1216391373652742</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.20529259386118</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.2522882601133384</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.273793564983755</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.1325694727424935</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.1619217924077576</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.1819948948832908</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.1892067046430769</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.142664899244158</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.2321940741338672</v>
+      </c>
+      <c r="C91" t="n">
+        <v>36.46</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3.631907079848256</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.02489184270555189</v>
+      </c>
+      <c r="F91" t="n">
+        <v>70</v>
+      </c>
+      <c r="G91" t="n">
+        <v>3.341463414634146</v>
+      </c>
+      <c r="H91" t="n">
+        <v>156.3333333333333</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.007864700586554465</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02251909685277506</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.02025872201610758</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.04207424898379853</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.05406733586200164</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.0523473964017408</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.0091257267874752</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.04347727850704897</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.0290381333165952</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.0546655590939136</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.04399155577839194</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.02337784486950531</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>4.686549531162661</v>
+      </c>
+      <c r="C92" t="n">
+        <v>39.52173913043478</v>
+      </c>
+      <c r="D92" t="n">
+        <v>6.054240988480119</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.7141505995521095</v>
+      </c>
+      <c r="F92" t="n">
+        <v>100</v>
+      </c>
+      <c r="G92" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="H92" t="n">
+        <v>180.54</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.7906633143863051</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.766472657741086</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.165964508071598</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1.23373524742819</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.6928294184360652</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1.106602430067994</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.4540914115979911</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.4659870114146024</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1.779290415319638</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.4202785039814522</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.4346679318327945</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.7213050484860464</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1.111909637123887</v>
+      </c>
+      <c r="C93" t="n">
+        <v>36.78271739130435</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4.351052209285178</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.151130797211451</v>
+      </c>
+      <c r="F93" t="n">
+        <v>99</v>
+      </c>
+      <c r="G93" t="n">
+        <v>8.620978260869565</v>
+      </c>
+      <c r="H93" t="n">
+        <v>163.8222826086956</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.185367161113857</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.1999333325777082</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.277943706978263</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.2737021349631403</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.1762756667048012</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.2052157410773517</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.1023543986886651</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.09659046761771267</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.3290166001986912</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.1132952326282557</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.1153620768915777</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.1760539275854871</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.1170603215307268</v>
+      </c>
+      <c r="C94" t="n">
+        <v>36.08</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2.889181705635266</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.01162317956877672</v>
+      </c>
+      <c r="F94" t="n">
+        <v>92</v>
+      </c>
+      <c r="G94" t="n">
+        <v>6.347826086956522</v>
+      </c>
+      <c r="H94" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.01685445893804736</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.0242042777008956</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.02483964239203052</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.0269194132010107</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.02148582644707968</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.02044892324739142</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.0126243298185984</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.004203216788440347</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.0223142980914252</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.01285868600250139</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.01378485761031485</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.01442305216019405</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
           <t>Willamette Lowland basin-fill aquifers</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B95" t="n">
         <v>3.356276158041934</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C95" t="n">
         <v>38.06521739130435</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D95" t="n">
         <v>9.826086956521738</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E95" t="n">
         <v>0.9239822074046888</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F95" t="n">
         <v>95.833</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G95" t="n">
         <v>4.152173913043478</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H95" t="n">
         <v>105.7826086956522</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I95" t="n">
         <v>1.219021949090658</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J95" t="n">
         <v>0.8689368200534524</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K95" t="n">
         <v>0.4825391587134136</v>
       </c>
-      <c r="L76" t="n">
+      <c r="L95" t="n">
         <v>0.393234592439232</v>
       </c>
-      <c r="M76" t="n">
+      <c r="M95" t="n">
         <v>0.00856301441184</v>
       </c>
-      <c r="N76" t="n">
+      <c r="N95" t="n">
         <v>0.18532809762768</v>
       </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" t="n">
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
         <v>0.005137808647104</v>
       </c>
-      <c r="S76" t="n">
+      <c r="S95" t="n">
         <v>0.6303310635893761</v>
       </c>
-      <c r="T76" t="n">
+      <c r="T95" t="n">
         <v>1.307044355438516</v>
       </c>
-      <c r="U76" t="inlineStr">
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3.356276158041934</v>
+      </c>
+      <c r="C96" t="n">
+        <v>38.06521739130435</v>
+      </c>
+      <c r="D96" t="n">
+        <v>9.826086956521738</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.9239822074046888</v>
+      </c>
+      <c r="F96" t="n">
+        <v>95.833</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4.152173913043478</v>
+      </c>
+      <c r="H96" t="n">
+        <v>105.7826086956522</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1.219021949090658</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.8689368200534524</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.4825391587134136</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.393234592439232</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.00856301441184</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.18532809762768</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.005137808647104</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.6303310635893761</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.307044355438516</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>3.356276158041934</v>
+      </c>
+      <c r="C97" t="n">
+        <v>38.06521739130435</v>
+      </c>
+      <c r="D97" t="n">
+        <v>9.826086956521738</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.9239822074046888</v>
+      </c>
+      <c r="F97" t="n">
+        <v>95.833</v>
+      </c>
+      <c r="G97" t="n">
+        <v>4.152173913043478</v>
+      </c>
+      <c r="H97" t="n">
+        <v>105.7826086956522</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1.219021949090658</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.8689368200534524</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.4825391587134136</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.393234592439232</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.00856301441184</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.18532809762768</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.005137808647104</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.6303310635893761</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.307044355438516</v>
+      </c>
+      <c r="U97" t="inlineStr">
         <is>
           <t>min</t>
         </is>
